--- a/books_courses.xlsx
+++ b/books_courses.xlsx
@@ -3034,12 +3034,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3073,17 +3073,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="22"/>
+      <color rgb="FFFFC000"/>
+      <name val="URW Bookman"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3104,6 +3101,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -3111,18 +3116,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3149,8 +3155,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3164,9 +3171,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3181,43 +3209,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3250,6 +3256,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF142C25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF140325"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3262,7 +3274,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3274,49 +3370,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3328,55 +3406,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3388,31 +3436,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3424,25 +3454,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3748,21 +3760,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -3777,21 +3774,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3812,16 +3794,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3837,6 +3819,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -3848,152 +3860,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="14" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4037,10 +4049,16 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4049,10 +4067,10 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4070,13 +4088,13 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4160,6 +4178,8 @@
     <mruColors>
       <color rgb="00131B0C"/>
       <color rgb="00001900"/>
+      <color rgb="00141225"/>
+      <color rgb="00142C25"/>
     </mruColors>
   </colors>
   <extLst>
@@ -4430,8 +4450,8 @@
   <sheetPr/>
   <dimension ref="B1:E363"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="121" customHeight="1" outlineLevelCol="4"/>
@@ -4450,13 +4470,13 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="21"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" ht="80" customHeight="1" spans="2:5">
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="22"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" ht="73" customHeight="1" spans="2:5">
       <c r="B4" s="7" t="s">
@@ -4496,7 +4516,7 @@
       <c r="D6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="25" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4504,7 +4524,7 @@
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="24"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" customHeight="1" spans="2:5">
       <c r="B8" s="13" t="s">
@@ -4516,7 +4536,7 @@
       <c r="D8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="27" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4527,10 +4547,10 @@
       <c r="C9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="28" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4541,4188 +4561,4188 @@
       <c r="C10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="28" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:5">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="28" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:5">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="28" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:5">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="28" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:5">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="28" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:5">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="28" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:5">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="28" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:5">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="28" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:5">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="28" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:5">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="28" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:5">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="28" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:5">
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="28" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:5">
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="28" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:5">
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="28" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:5">
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="28" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:5">
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="28" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:5">
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="28" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:5">
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="28" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:5">
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="29" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:5">
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="30" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:5">
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="E30" s="30" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:5">
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E31" s="30" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:5">
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="E32" s="28" t="s">
+      <c r="E32" s="30" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="2:5">
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="E33" s="28" t="s">
+      <c r="E33" s="30" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="2:5">
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="E34" s="28" t="s">
+      <c r="E34" s="30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="2:5">
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E35" s="28" t="s">
+      <c r="E35" s="30" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="2:5">
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="E36" s="28" t="s">
+      <c r="E36" s="30" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="2:5">
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="E37" s="28" t="s">
+      <c r="E37" s="30" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:5">
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="E38" s="28" t="s">
+      <c r="E38" s="30" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:5">
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E39" s="28" t="s">
+      <c r="E39" s="30" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:5">
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="E40" s="27" t="s">
+      <c r="E40" s="29" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:5">
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="E41" s="27" t="s">
+      <c r="E41" s="29" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:5">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="E42" s="27" t="s">
+      <c r="E42" s="29" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:5">
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="E43" s="27" t="s">
+      <c r="E43" s="29" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:5">
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="E44" s="27" t="s">
+      <c r="E44" s="29" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:5">
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="E45" s="27" t="s">
+      <c r="E45" s="29" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:5">
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="E46" s="27" t="s">
+      <c r="E46" s="29" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:5">
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="D47" s="18" t="s">
+      <c r="D47" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="E47" s="27" t="s">
+      <c r="E47" s="29" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="2:5">
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="E48" s="27" t="s">
+      <c r="E48" s="29" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="2:5">
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="E49" s="27" t="s">
+      <c r="E49" s="29" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:5">
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="E50" s="27" t="s">
+      <c r="E50" s="29" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:5">
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D51" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E51" s="27" t="s">
+      <c r="E51" s="29" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:5">
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="D52" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="E52" s="27" t="s">
+      <c r="E52" s="29" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="2:5">
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="D53" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="E53" s="27" t="s">
+      <c r="E53" s="29" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="2:5">
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="D54" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="E54" s="27" t="s">
+      <c r="E54" s="29" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="2:5">
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="D55" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="E55" s="27" t="s">
+      <c r="E55" s="29" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="2:5">
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="D56" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="E56" s="27" t="s">
+      <c r="E56" s="29" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="2:5">
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="D57" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="E57" s="27" t="s">
+      <c r="E57" s="29" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="2:5">
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="D58" s="18" t="s">
+      <c r="D58" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="E58" s="27" t="s">
+      <c r="E58" s="29" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="2:5">
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="D59" s="18" t="s">
+      <c r="D59" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="E59" s="27" t="s">
+      <c r="E59" s="29" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="2:5">
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="D60" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="E60" s="27" t="s">
+      <c r="E60" s="29" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="2:5">
-      <c r="B61" s="17" t="s">
+      <c r="B61" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="D61" s="18" t="s">
+      <c r="D61" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="E61" s="27" t="s">
+      <c r="E61" s="29" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:5">
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="E62" s="27" t="s">
+      <c r="E62" s="29" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:5">
-      <c r="B63" s="17" t="s">
+      <c r="B63" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="D63" s="18" t="s">
+      <c r="D63" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="E63" s="27" t="s">
+      <c r="E63" s="29" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:5">
-      <c r="B64" s="17" t="s">
+      <c r="B64" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="D64" s="18" t="s">
+      <c r="D64" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="E64" s="27" t="s">
+      <c r="E64" s="29" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="2:5">
-      <c r="B65" s="17" t="s">
+      <c r="B65" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C65" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="D65" s="18" t="s">
+      <c r="D65" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="E65" s="27" t="s">
+      <c r="E65" s="29" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="2:5">
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C66" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="D66" s="18" t="s">
+      <c r="D66" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="E66" s="27" t="s">
+      <c r="E66" s="29" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="2:5">
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="C67" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="D67" s="18" t="s">
+      <c r="D67" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="E67" s="27" t="s">
+      <c r="E67" s="29" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="2:5">
-      <c r="B68" s="17" t="s">
+      <c r="B68" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="D68" s="18" t="s">
+      <c r="D68" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="E68" s="27" t="s">
+      <c r="E68" s="29" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="2:5">
-      <c r="B69" s="17" t="s">
+      <c r="B69" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="C69" s="18" t="s">
+      <c r="C69" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="D69" s="18" t="s">
+      <c r="D69" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="E69" s="27" t="s">
+      <c r="E69" s="29" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="2:5">
-      <c r="B70" s="17" t="s">
+      <c r="B70" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="C70" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="D70" s="18" t="s">
+      <c r="D70" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="E70" s="27" t="s">
+      <c r="E70" s="29" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="2:5">
-      <c r="B71" s="17" t="s">
+      <c r="B71" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="C71" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="D71" s="18" t="s">
+      <c r="D71" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="E71" s="27" t="s">
+      <c r="E71" s="29" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="2:5">
-      <c r="B72" s="17" t="s">
+      <c r="B72" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C72" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="D72" s="18" t="s">
+      <c r="D72" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="E72" s="27" t="s">
+      <c r="E72" s="29" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="2:5">
-      <c r="B73" s="17" t="s">
+      <c r="B73" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C73" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="D73" s="18" t="s">
+      <c r="D73" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="E73" s="27" t="s">
+      <c r="E73" s="29" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="2:5">
-      <c r="B74" s="17" t="s">
+      <c r="B74" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="C74" s="18" t="s">
+      <c r="C74" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="D74" s="18" t="s">
+      <c r="D74" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="E74" s="27" t="s">
+      <c r="E74" s="29" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="2:5">
-      <c r="B75" s="17" t="s">
+      <c r="B75" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="C75" s="18" t="s">
+      <c r="C75" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="D75" s="18" t="s">
+      <c r="D75" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="E75" s="27" t="s">
+      <c r="E75" s="29" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="2:5">
-      <c r="B76" s="17" t="s">
+      <c r="B76" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="C76" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="D76" s="18" t="s">
+      <c r="D76" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="E76" s="27" t="s">
+      <c r="E76" s="29" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="2:5">
-      <c r="B77" s="17" t="s">
+      <c r="B77" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="C77" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="D77" s="18" t="s">
+      <c r="D77" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="E77" s="27" t="s">
+      <c r="E77" s="29" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="2:5">
-      <c r="B78" s="17" t="s">
+      <c r="B78" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C78" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="D78" s="18" t="s">
+      <c r="D78" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="E78" s="27" t="s">
+      <c r="E78" s="29" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="2:5">
-      <c r="B79" s="17" t="s">
+      <c r="B79" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="C79" s="18" t="s">
+      <c r="C79" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="D79" s="18" t="s">
+      <c r="D79" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="E79" s="27" t="s">
+      <c r="E79" s="29" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="2:5">
-      <c r="B80" s="17" t="s">
+      <c r="B80" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="C80" s="18" t="s">
+      <c r="C80" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="D80" s="18" t="s">
+      <c r="D80" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="E80" s="27" t="s">
+      <c r="E80" s="29" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="2:5">
-      <c r="B81" s="17" t="s">
+      <c r="B81" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="C81" s="18" t="s">
+      <c r="C81" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="D81" s="18" t="s">
+      <c r="D81" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="E81" s="27" t="s">
+      <c r="E81" s="29" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="2:5">
-      <c r="B82" s="17" t="s">
+      <c r="B82" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="C82" s="18" t="s">
+      <c r="C82" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="D82" s="18" t="s">
+      <c r="D82" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="E82" s="27" t="s">
+      <c r="E82" s="29" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="2:5">
-      <c r="B83" s="17" t="s">
+      <c r="B83" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="C83" s="20" t="s">
         <v>304</v>
       </c>
-      <c r="D83" s="18" t="s">
+      <c r="D83" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="E83" s="27" t="s">
+      <c r="E83" s="29" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="2:5">
-      <c r="B84" s="17" t="s">
+      <c r="B84" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="C84" s="18" t="s">
+      <c r="C84" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="D84" s="18" t="s">
+      <c r="D84" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="E84" s="27" t="s">
+      <c r="E84" s="29" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="2:5">
-      <c r="B85" s="17" t="s">
+      <c r="B85" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="C85" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="D85" s="18" t="s">
+      <c r="D85" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="E85" s="27" t="s">
+      <c r="E85" s="29" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="2:5">
-      <c r="B86" s="17" t="s">
+      <c r="B86" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="C86" s="18" t="s">
+      <c r="C86" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="D86" s="18" t="s">
+      <c r="D86" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="E86" s="27" t="s">
+      <c r="E86" s="29" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="2:5">
-      <c r="B87" s="17" t="s">
+      <c r="B87" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="C87" s="18" t="s">
+      <c r="C87" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="D87" s="18" t="s">
+      <c r="D87" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="E87" s="27" t="s">
+      <c r="E87" s="29" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="2:5">
-      <c r="B88" s="17" t="s">
+      <c r="B88" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="C88" s="18" t="s">
+      <c r="C88" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="D88" s="18" t="s">
+      <c r="D88" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="E88" s="27" t="s">
+      <c r="E88" s="29" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="2:5">
-      <c r="B89" s="17" t="s">
+      <c r="B89" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="C89" s="18" t="s">
+      <c r="C89" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="D89" s="18" t="s">
+      <c r="D89" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="E89" s="27" t="s">
+      <c r="E89" s="29" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="2:5">
-      <c r="B90" s="17" t="s">
+      <c r="B90" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="C90" s="18" t="s">
+      <c r="C90" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="D90" s="18" t="s">
+      <c r="D90" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="E90" s="27" t="s">
+      <c r="E90" s="29" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="2:5">
-      <c r="B91" s="17" t="s">
+      <c r="B91" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="C91" s="18" t="s">
+      <c r="C91" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="D91" s="18" t="s">
+      <c r="D91" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="E91" s="27" t="s">
+      <c r="E91" s="29" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="2:5">
-      <c r="B92" s="17" t="s">
+      <c r="B92" s="19" t="s">
         <v>338</v>
       </c>
-      <c r="C92" s="18" t="s">
+      <c r="C92" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="D92" s="18" t="s">
+      <c r="D92" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="E92" s="27" t="s">
+      <c r="E92" s="29" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="2:5">
-      <c r="B93" s="17" t="s">
+      <c r="B93" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="C93" s="18" t="s">
+      <c r="C93" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="D93" s="18" t="s">
+      <c r="D93" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="E93" s="27" t="s">
+      <c r="E93" s="29" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="2:5">
-      <c r="B94" s="17" t="s">
+      <c r="B94" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="C94" s="18" t="s">
+      <c r="C94" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="D94" s="18" t="s">
+      <c r="D94" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="E94" s="27" t="s">
+      <c r="E94" s="29" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="95" customHeight="1" spans="2:5">
-      <c r="B95" s="17" t="s">
+      <c r="B95" s="19" t="s">
         <v>350</v>
       </c>
-      <c r="C95" s="18" t="s">
+      <c r="C95" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="D95" s="18" t="s">
+      <c r="D95" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="E95" s="27" t="s">
+      <c r="E95" s="29" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="2:5">
-      <c r="B96" s="17" t="s">
+      <c r="B96" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="C96" s="18" t="s">
+      <c r="C96" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="D96" s="18" t="s">
+      <c r="D96" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="E96" s="27" t="s">
+      <c r="E96" s="29" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="2:5">
-      <c r="B97" s="17" t="s">
+      <c r="B97" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C97" s="18" t="s">
+      <c r="C97" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="D97" s="18" t="s">
+      <c r="D97" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="E97" s="27" t="s">
+      <c r="E97" s="29" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="2:5">
-      <c r="B98" s="17" t="s">
+      <c r="B98" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="C98" s="18" t="s">
+      <c r="C98" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="D98" s="18" t="s">
+      <c r="D98" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="E98" s="27" t="s">
+      <c r="E98" s="29" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="2:5">
-      <c r="B99" s="17" t="s">
+      <c r="B99" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="C99" s="18" t="s">
+      <c r="C99" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="D99" s="18" t="s">
+      <c r="D99" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="E99" s="27" t="s">
+      <c r="E99" s="29" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="2:5">
-      <c r="B100" s="17" t="s">
+      <c r="B100" s="19" t="s">
         <v>368</v>
       </c>
-      <c r="C100" s="18" t="s">
+      <c r="C100" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="D100" s="18" t="s">
+      <c r="D100" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="E100" s="27" t="s">
+      <c r="E100" s="29" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="2:5">
-      <c r="B101" s="17" t="s">
+      <c r="B101" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="C101" s="18" t="s">
+      <c r="C101" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="D101" s="18" t="s">
+      <c r="D101" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="E101" s="27" t="s">
+      <c r="E101" s="29" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="2:5">
-      <c r="B102" s="17" t="s">
+      <c r="B102" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="C102" s="18" t="s">
+      <c r="C102" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="D102" s="18" t="s">
+      <c r="D102" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="E102" s="27" t="s">
+      <c r="E102" s="29" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="2:5">
-      <c r="B103" s="17" t="s">
+      <c r="B103" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="C103" s="18" t="s">
+      <c r="C103" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="D103" s="18" t="s">
+      <c r="D103" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="E103" s="27" t="s">
+      <c r="E103" s="29" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="2:5">
-      <c r="B104" s="17" t="s">
+      <c r="B104" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="C104" s="18" t="s">
+      <c r="C104" s="20" t="s">
         <v>385</v>
       </c>
-      <c r="D104" s="18" t="s">
+      <c r="D104" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="E104" s="27" t="s">
+      <c r="E104" s="29" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="2:5">
-      <c r="B105" s="17" t="s">
+      <c r="B105" s="19" t="s">
         <v>388</v>
       </c>
-      <c r="C105" s="18" t="s">
+      <c r="C105" s="20" t="s">
         <v>389</v>
       </c>
-      <c r="D105" s="18" t="s">
+      <c r="D105" s="20" t="s">
         <v>390</v>
       </c>
-      <c r="E105" s="27" t="s">
+      <c r="E105" s="29" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="106" customHeight="1" spans="2:5">
-      <c r="B106" s="17" t="s">
+      <c r="B106" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="C106" s="18" t="s">
+      <c r="C106" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="D106" s="18" t="s">
+      <c r="D106" s="20" t="s">
         <v>394</v>
       </c>
-      <c r="E106" s="27" t="s">
+      <c r="E106" s="29" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="107" customHeight="1" spans="2:5">
-      <c r="B107" s="17" t="s">
+      <c r="B107" s="19" t="s">
         <v>396</v>
       </c>
-      <c r="C107" s="18" t="s">
+      <c r="C107" s="20" t="s">
         <v>397</v>
       </c>
-      <c r="D107" s="18" t="s">
+      <c r="D107" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="E107" s="27" t="s">
+      <c r="E107" s="29" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="108" customHeight="1" spans="2:5">
-      <c r="B108" s="17" t="s">
+      <c r="B108" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="C108" s="18" t="s">
+      <c r="C108" s="20" t="s">
         <v>401</v>
       </c>
-      <c r="D108" s="18" t="s">
+      <c r="D108" s="20" t="s">
         <v>402</v>
       </c>
-      <c r="E108" s="27" t="s">
+      <c r="E108" s="29" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="109" customHeight="1" spans="2:5">
-      <c r="B109" s="17" t="s">
+      <c r="B109" s="19" t="s">
         <v>404</v>
       </c>
-      <c r="C109" s="18" t="s">
+      <c r="C109" s="20" t="s">
         <v>405</v>
       </c>
-      <c r="D109" s="18" t="s">
+      <c r="D109" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="E109" s="27" t="s">
+      <c r="E109" s="29" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="110" customHeight="1" spans="2:5">
-      <c r="B110" s="17" t="s">
+      <c r="B110" s="19" t="s">
         <v>408</v>
       </c>
-      <c r="C110" s="18" t="s">
+      <c r="C110" s="20" t="s">
         <v>409</v>
       </c>
-      <c r="D110" s="18" t="s">
+      <c r="D110" s="20" t="s">
         <v>410</v>
       </c>
-      <c r="E110" s="27" t="s">
+      <c r="E110" s="29" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="111" customHeight="1" spans="2:5">
-      <c r="B111" s="17" t="s">
+      <c r="B111" s="19" t="s">
         <v>412</v>
       </c>
-      <c r="C111" s="18" t="s">
+      <c r="C111" s="20" t="s">
         <v>413</v>
       </c>
-      <c r="D111" s="18" t="s">
+      <c r="D111" s="20" t="s">
         <v>414</v>
       </c>
-      <c r="E111" s="27" t="s">
+      <c r="E111" s="29" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="2:5">
-      <c r="B112" s="17" t="s">
+      <c r="B112" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C112" s="18" t="s">
+      <c r="C112" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="D112" s="18" t="s">
+      <c r="D112" s="20" t="s">
         <v>417</v>
       </c>
-      <c r="E112" s="27" t="s">
+      <c r="E112" s="29" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="2:5">
-      <c r="B113" s="17" t="s">
+      <c r="B113" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C113" s="18" t="s">
+      <c r="C113" s="20" t="s">
         <v>419</v>
       </c>
-      <c r="D113" s="18" t="s">
+      <c r="D113" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="E113" s="27" t="s">
+      <c r="E113" s="29" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="2:5">
-      <c r="B114" s="17" t="s">
+      <c r="B114" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="C114" s="18" t="s">
+      <c r="C114" s="20" t="s">
         <v>422</v>
       </c>
-      <c r="D114" s="18" t="s">
+      <c r="D114" s="20" t="s">
         <v>423</v>
       </c>
-      <c r="E114" s="27" t="s">
+      <c r="E114" s="29" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="2:5">
-      <c r="B115" s="17" t="s">
+      <c r="B115" s="19" t="s">
         <v>425</v>
       </c>
-      <c r="C115" s="18" t="s">
+      <c r="C115" s="20" t="s">
         <v>426</v>
       </c>
-      <c r="D115" s="18" t="s">
+      <c r="D115" s="20" t="s">
         <v>427</v>
       </c>
-      <c r="E115" s="27" t="s">
+      <c r="E115" s="29" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="2:5">
-      <c r="B116" s="17" t="s">
+      <c r="B116" s="19" t="s">
         <v>429</v>
       </c>
-      <c r="C116" s="18" t="s">
+      <c r="C116" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="D116" s="18" t="s">
+      <c r="D116" s="20" t="s">
         <v>431</v>
       </c>
-      <c r="E116" s="27" t="s">
+      <c r="E116" s="29" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="117" customHeight="1" spans="2:5">
-      <c r="B117" s="17" t="s">
+      <c r="B117" s="19" t="s">
         <v>433</v>
       </c>
-      <c r="C117" s="18" t="s">
+      <c r="C117" s="20" t="s">
         <v>434</v>
       </c>
-      <c r="D117" s="18" t="s">
+      <c r="D117" s="20" t="s">
         <v>435</v>
       </c>
-      <c r="E117" s="27" t="s">
+      <c r="E117" s="29" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="2:5">
-      <c r="B118" s="17" t="s">
+      <c r="B118" s="19" t="s">
         <v>437</v>
       </c>
-      <c r="C118" s="18" t="s">
+      <c r="C118" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="D118" s="18" t="s">
+      <c r="D118" s="20" t="s">
         <v>439</v>
       </c>
-      <c r="E118" s="27" t="s">
+      <c r="E118" s="29" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="119" customHeight="1" spans="2:5">
-      <c r="B119" s="17" t="s">
+      <c r="B119" s="19" t="s">
         <v>441</v>
       </c>
-      <c r="C119" s="18" t="s">
+      <c r="C119" s="20" t="s">
         <v>442</v>
       </c>
-      <c r="D119" s="18" t="s">
+      <c r="D119" s="20" t="s">
         <v>443</v>
       </c>
-      <c r="E119" s="27" t="s">
+      <c r="E119" s="29" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="120" customHeight="1" spans="2:5">
-      <c r="B120" s="17" t="s">
+      <c r="B120" s="19" t="s">
         <v>445</v>
       </c>
-      <c r="C120" s="18" t="s">
+      <c r="C120" s="20" t="s">
         <v>446</v>
       </c>
-      <c r="D120" s="18" t="s">
+      <c r="D120" s="20" t="s">
         <v>447</v>
       </c>
-      <c r="E120" s="27" t="s">
+      <c r="E120" s="29" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="121" customHeight="1" spans="2:5">
-      <c r="B121" s="17" t="s">
+      <c r="B121" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="C121" s="18" t="s">
+      <c r="C121" s="20" t="s">
         <v>449</v>
       </c>
-      <c r="D121" s="18" t="s">
+      <c r="D121" s="20" t="s">
         <v>450</v>
       </c>
-      <c r="E121" s="27" t="s">
+      <c r="E121" s="29" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="122" customHeight="1" spans="2:5">
-      <c r="B122" s="17" t="s">
+      <c r="B122" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C122" s="18" t="s">
+      <c r="C122" s="20" t="s">
         <v>452</v>
       </c>
-      <c r="D122" s="18" t="s">
+      <c r="D122" s="20" t="s">
         <v>453</v>
       </c>
-      <c r="E122" s="27" t="s">
+      <c r="E122" s="29" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="123" customHeight="1" spans="2:5">
-      <c r="B123" s="17" t="s">
+      <c r="B123" s="19" t="s">
         <v>455</v>
       </c>
-      <c r="C123" s="18" t="s">
+      <c r="C123" s="20" t="s">
         <v>456</v>
       </c>
-      <c r="D123" s="18" t="s">
+      <c r="D123" s="20" t="s">
         <v>457</v>
       </c>
-      <c r="E123" s="27" t="s">
+      <c r="E123" s="29" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="124" customHeight="1" spans="2:5">
-      <c r="B124" s="17" t="s">
+      <c r="B124" s="19" t="s">
         <v>459</v>
       </c>
-      <c r="C124" s="18" t="s">
+      <c r="C124" s="20" t="s">
         <v>460</v>
       </c>
-      <c r="D124" s="18" t="s">
+      <c r="D124" s="20" t="s">
         <v>461</v>
       </c>
-      <c r="E124" s="27" t="s">
+      <c r="E124" s="29" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="125" customHeight="1" spans="2:5">
-      <c r="B125" s="17" t="s">
+      <c r="B125" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="C125" s="18" t="s">
+      <c r="C125" s="20" t="s">
         <v>464</v>
       </c>
-      <c r="D125" s="18" t="s">
+      <c r="D125" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="E125" s="27" t="s">
+      <c r="E125" s="29" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="126" customHeight="1" spans="2:5">
-      <c r="B126" s="17" t="s">
+      <c r="B126" s="19" t="s">
         <v>467</v>
       </c>
-      <c r="C126" s="18" t="s">
+      <c r="C126" s="20" t="s">
         <v>468</v>
       </c>
-      <c r="D126" s="18" t="s">
+      <c r="D126" s="20" t="s">
         <v>469</v>
       </c>
-      <c r="E126" s="27" t="s">
+      <c r="E126" s="29" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="127" customHeight="1" spans="2:5">
-      <c r="B127" s="17" t="s">
+      <c r="B127" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="C127" s="18" t="s">
+      <c r="C127" s="20" t="s">
         <v>472</v>
       </c>
-      <c r="D127" s="18" t="s">
+      <c r="D127" s="20" t="s">
         <v>473</v>
       </c>
-      <c r="E127" s="27" t="s">
+      <c r="E127" s="29" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="128" customHeight="1" spans="2:5">
-      <c r="B128" s="17" t="s">
+      <c r="B128" s="19" t="s">
         <v>475</v>
       </c>
-      <c r="C128" s="18" t="s">
+      <c r="C128" s="20" t="s">
         <v>476</v>
       </c>
-      <c r="D128" s="18" t="s">
+      <c r="D128" s="20" t="s">
         <v>477</v>
       </c>
-      <c r="E128" s="27" t="s">
+      <c r="E128" s="29" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="129" customHeight="1" spans="2:5">
-      <c r="B129" s="17" t="s">
+      <c r="B129" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="C129" s="18" t="s">
+      <c r="C129" s="20" t="s">
         <v>480</v>
       </c>
-      <c r="D129" s="18" t="s">
+      <c r="D129" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="E129" s="27" t="s">
+      <c r="E129" s="29" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="130" customHeight="1" spans="2:5">
-      <c r="B130" s="17" t="s">
+      <c r="B130" s="19" t="s">
         <v>483</v>
       </c>
-      <c r="C130" s="18" t="s">
+      <c r="C130" s="20" t="s">
         <v>484</v>
       </c>
-      <c r="D130" s="18" t="s">
+      <c r="D130" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="E130" s="27" t="s">
+      <c r="E130" s="29" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="131" customHeight="1" spans="2:5">
-      <c r="B131" s="17" t="s">
+      <c r="B131" s="19" t="s">
         <v>487</v>
       </c>
-      <c r="C131" s="18" t="s">
+      <c r="C131" s="20" t="s">
         <v>488</v>
       </c>
-      <c r="D131" s="18" t="s">
+      <c r="D131" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="E131" s="27" t="s">
+      <c r="E131" s="29" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="132" customHeight="1" spans="2:5">
-      <c r="B132" s="17" t="s">
+      <c r="B132" s="19" t="s">
         <v>491</v>
       </c>
-      <c r="C132" s="18" t="s">
+      <c r="C132" s="20" t="s">
         <v>492</v>
       </c>
-      <c r="D132" s="18" t="s">
+      <c r="D132" s="20" t="s">
         <v>493</v>
       </c>
-      <c r="E132" s="27" t="s">
+      <c r="E132" s="29" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="133" customHeight="1" spans="2:5">
-      <c r="B133" s="17" t="s">
+      <c r="B133" s="19" t="s">
         <v>495</v>
       </c>
-      <c r="C133" s="18" t="s">
+      <c r="C133" s="20" t="s">
         <v>496</v>
       </c>
-      <c r="D133" s="18" t="s">
+      <c r="D133" s="20" t="s">
         <v>497</v>
       </c>
-      <c r="E133" s="27" t="s">
+      <c r="E133" s="29" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="2:5">
-      <c r="B134" s="17" t="s">
+      <c r="B134" s="19" t="s">
         <v>499</v>
       </c>
-      <c r="C134" s="18" t="s">
+      <c r="C134" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="D134" s="18" t="s">
+      <c r="D134" s="20" t="s">
         <v>501</v>
       </c>
-      <c r="E134" s="27" t="s">
+      <c r="E134" s="29" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="135" customHeight="1" spans="2:5">
-      <c r="B135" s="17" t="s">
+      <c r="B135" s="19" t="s">
         <v>503</v>
       </c>
-      <c r="C135" s="18" t="s">
+      <c r="C135" s="20" t="s">
         <v>504</v>
       </c>
-      <c r="D135" s="18" t="s">
+      <c r="D135" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="E135" s="27" t="s">
+      <c r="E135" s="29" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="2:5">
-      <c r="B136" s="17" t="s">
+      <c r="B136" s="19" t="s">
         <v>506</v>
       </c>
-      <c r="C136" s="18" t="s">
+      <c r="C136" s="20" t="s">
         <v>507</v>
       </c>
-      <c r="D136" s="18" t="s">
+      <c r="D136" s="20" t="s">
         <v>508</v>
       </c>
-      <c r="E136" s="27" t="s">
+      <c r="E136" s="29" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="137" customHeight="1" spans="2:5">
-      <c r="B137" s="17" t="s">
+      <c r="B137" s="19" t="s">
         <v>510</v>
       </c>
-      <c r="C137" s="18" t="s">
+      <c r="C137" s="20" t="s">
         <v>511</v>
       </c>
-      <c r="D137" s="18" t="s">
+      <c r="D137" s="20" t="s">
         <v>512</v>
       </c>
-      <c r="E137" s="27" t="s">
+      <c r="E137" s="29" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="138" customHeight="1" spans="2:5">
-      <c r="B138" s="17" t="s">
+      <c r="B138" s="19" t="s">
         <v>514</v>
       </c>
-      <c r="C138" s="18" t="s">
+      <c r="C138" s="20" t="s">
         <v>515</v>
       </c>
-      <c r="D138" s="18" t="s">
+      <c r="D138" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="E138" s="27" t="s">
+      <c r="E138" s="29" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="139" customHeight="1" spans="2:5">
-      <c r="B139" s="17" t="s">
+      <c r="B139" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="C139" s="18" t="s">
+      <c r="C139" s="20" t="s">
         <v>517</v>
       </c>
-      <c r="D139" s="18" t="s">
+      <c r="D139" s="20" t="s">
         <v>518</v>
       </c>
-      <c r="E139" s="27" t="s">
+      <c r="E139" s="29" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="140" customHeight="1" spans="2:5">
-      <c r="B140" s="17" t="s">
+      <c r="B140" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C140" s="18" t="s">
+      <c r="C140" s="20" t="s">
         <v>520</v>
       </c>
-      <c r="D140" s="18" t="s">
+      <c r="D140" s="20" t="s">
         <v>521</v>
       </c>
-      <c r="E140" s="27" t="s">
+      <c r="E140" s="29" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="141" customHeight="1" spans="2:5">
-      <c r="B141" s="17" t="s">
+      <c r="B141" s="19" t="s">
         <v>523</v>
       </c>
-      <c r="C141" s="18" t="s">
+      <c r="C141" s="20" t="s">
         <v>524</v>
       </c>
-      <c r="D141" s="18" t="s">
+      <c r="D141" s="20" t="s">
         <v>525</v>
       </c>
-      <c r="E141" s="27" t="s">
+      <c r="E141" s="29" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="142" customHeight="1" spans="2:5">
-      <c r="B142" s="17" t="s">
+      <c r="B142" s="19" t="s">
         <v>527</v>
       </c>
-      <c r="C142" s="18" t="s">
+      <c r="C142" s="20" t="s">
         <v>528</v>
       </c>
-      <c r="D142" s="18" t="s">
+      <c r="D142" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="E142" s="27" t="s">
+      <c r="E142" s="29" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="143" customHeight="1" spans="2:5">
-      <c r="B143" s="17" t="s">
+      <c r="B143" s="19" t="s">
         <v>530</v>
       </c>
-      <c r="C143" s="18" t="s">
+      <c r="C143" s="20" t="s">
         <v>531</v>
       </c>
-      <c r="D143" s="18" t="s">
+      <c r="D143" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="E143" s="27" t="s">
+      <c r="E143" s="29" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="144" customHeight="1" spans="2:5">
-      <c r="B144" s="17" t="s">
+      <c r="B144" s="19" t="s">
         <v>533</v>
       </c>
-      <c r="C144" s="18" t="s">
+      <c r="C144" s="20" t="s">
         <v>534</v>
       </c>
-      <c r="D144" s="18" t="s">
+      <c r="D144" s="20" t="s">
         <v>535</v>
       </c>
-      <c r="E144" s="27" t="s">
+      <c r="E144" s="29" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="145" customHeight="1" spans="2:5">
-      <c r="B145" s="17" t="s">
+      <c r="B145" s="19" t="s">
         <v>537</v>
       </c>
-      <c r="C145" s="18" t="s">
+      <c r="C145" s="20" t="s">
         <v>538</v>
       </c>
-      <c r="D145" s="18" t="s">
+      <c r="D145" s="20" t="s">
         <v>539</v>
       </c>
-      <c r="E145" s="27" t="s">
+      <c r="E145" s="29" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="146" customHeight="1" spans="2:5">
-      <c r="B146" s="17" t="s">
+      <c r="B146" s="19" t="s">
         <v>541</v>
       </c>
-      <c r="C146" s="18" t="s">
+      <c r="C146" s="20" t="s">
         <v>542</v>
       </c>
-      <c r="D146" s="18" t="s">
+      <c r="D146" s="20" t="s">
         <v>543</v>
       </c>
-      <c r="E146" s="27" t="s">
+      <c r="E146" s="29" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="147" customHeight="1" spans="2:5">
-      <c r="B147" s="17" t="s">
+      <c r="B147" s="19" t="s">
         <v>545</v>
       </c>
-      <c r="C147" s="18" t="s">
+      <c r="C147" s="20" t="s">
         <v>546</v>
       </c>
-      <c r="D147" s="18" t="s">
+      <c r="D147" s="20" t="s">
         <v>547</v>
       </c>
-      <c r="E147" s="27" t="s">
+      <c r="E147" s="29" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="148" customHeight="1" spans="2:5">
-      <c r="B148" s="17" t="s">
+      <c r="B148" s="19" t="s">
         <v>549</v>
       </c>
-      <c r="C148" s="18" t="s">
+      <c r="C148" s="20" t="s">
         <v>550</v>
       </c>
-      <c r="D148" s="18" t="s">
+      <c r="D148" s="20" t="s">
         <v>447</v>
       </c>
-      <c r="E148" s="27" t="s">
+      <c r="E148" s="29" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="149" customHeight="1" spans="2:5">
-      <c r="B149" s="17" t="s">
+      <c r="B149" s="19" t="s">
         <v>552</v>
       </c>
-      <c r="C149" s="18" t="s">
+      <c r="C149" s="20" t="s">
         <v>553</v>
       </c>
-      <c r="D149" s="18" t="s">
+      <c r="D149" s="20" t="s">
         <v>450</v>
       </c>
-      <c r="E149" s="27" t="s">
+      <c r="E149" s="29" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="150" customHeight="1" spans="2:5">
-      <c r="B150" s="17" t="s">
+      <c r="B150" s="19" t="s">
         <v>555</v>
       </c>
-      <c r="C150" s="18" t="s">
+      <c r="C150" s="20" t="s">
         <v>556</v>
       </c>
-      <c r="D150" s="18" t="s">
+      <c r="D150" s="20" t="s">
         <v>453</v>
       </c>
-      <c r="E150" s="27" t="s">
+      <c r="E150" s="29" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="151" customHeight="1" spans="2:5">
-      <c r="B151" s="17" t="s">
+      <c r="B151" s="19" t="s">
         <v>558</v>
       </c>
-      <c r="C151" s="18" t="s">
+      <c r="C151" s="20" t="s">
         <v>559</v>
       </c>
-      <c r="D151" s="18" t="s">
+      <c r="D151" s="20" t="s">
         <v>457</v>
       </c>
-      <c r="E151" s="29"/>
+      <c r="E151" s="31"/>
     </row>
     <row r="152" customHeight="1" spans="2:5">
-      <c r="B152" s="17" t="s">
+      <c r="B152" s="19" t="s">
         <v>560</v>
       </c>
-      <c r="C152" s="18" t="s">
+      <c r="C152" s="20" t="s">
         <v>561</v>
       </c>
-      <c r="D152" s="18" t="s">
+      <c r="D152" s="20" t="s">
         <v>562</v>
       </c>
-      <c r="E152" s="29"/>
+      <c r="E152" s="31"/>
     </row>
     <row r="153" customHeight="1" spans="2:5">
-      <c r="B153" s="17" t="s">
+      <c r="B153" s="19" t="s">
         <v>563</v>
       </c>
-      <c r="C153" s="18" t="s">
+      <c r="C153" s="20" t="s">
         <v>564</v>
       </c>
-      <c r="D153" s="18" t="s">
+      <c r="D153" s="20" t="s">
         <v>565</v>
       </c>
-      <c r="E153" s="27"/>
+      <c r="E153" s="29"/>
     </row>
     <row r="154" customHeight="1" spans="2:5">
-      <c r="B154" s="17" t="s">
+      <c r="B154" s="19" t="s">
         <v>566</v>
       </c>
-      <c r="C154" s="18" t="s">
+      <c r="C154" s="20" t="s">
         <v>567</v>
       </c>
-      <c r="D154" s="18" t="s">
+      <c r="D154" s="20" t="s">
         <v>568</v>
       </c>
-      <c r="E154" s="27"/>
+      <c r="E154" s="29"/>
     </row>
     <row r="155" customHeight="1" spans="2:5">
-      <c r="B155" s="17" t="s">
+      <c r="B155" s="19" t="s">
         <v>569</v>
       </c>
-      <c r="C155" s="18" t="s">
+      <c r="C155" s="20" t="s">
         <v>570</v>
       </c>
-      <c r="D155" s="18" t="s">
+      <c r="D155" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="E155" s="27"/>
+      <c r="E155" s="29"/>
     </row>
     <row r="156" customHeight="1" spans="2:5">
-      <c r="B156" s="17" t="s">
+      <c r="B156" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="C156" s="18" t="s">
+      <c r="C156" s="20" t="s">
         <v>571</v>
       </c>
-      <c r="D156" s="18" t="s">
+      <c r="D156" s="20" t="s">
         <v>572</v>
       </c>
-      <c r="E156" s="27"/>
+      <c r="E156" s="29"/>
     </row>
     <row r="157" customHeight="1" spans="2:5">
-      <c r="B157" s="17" t="s">
+      <c r="B157" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C157" s="18" t="s">
+      <c r="C157" s="20" t="s">
         <v>573</v>
       </c>
-      <c r="D157" s="18" t="s">
+      <c r="D157" s="20" t="s">
         <v>574</v>
       </c>
-      <c r="E157" s="27"/>
+      <c r="E157" s="29"/>
     </row>
     <row r="158" customHeight="1" spans="2:5">
-      <c r="B158" s="17" t="s">
+      <c r="B158" s="19" t="s">
         <v>575</v>
       </c>
-      <c r="C158" s="18" t="s">
+      <c r="C158" s="20" t="s">
         <v>576</v>
       </c>
-      <c r="D158" s="18" t="s">
+      <c r="D158" s="20" t="s">
         <v>577</v>
       </c>
-      <c r="E158" s="27"/>
+      <c r="E158" s="29"/>
     </row>
     <row r="159" customHeight="1" spans="2:5">
-      <c r="B159" s="17" t="s">
+      <c r="B159" s="19" t="s">
         <v>578</v>
       </c>
-      <c r="C159" s="18" t="s">
+      <c r="C159" s="20" t="s">
         <v>579</v>
       </c>
-      <c r="D159" s="18" t="s">
+      <c r="D159" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="E159" s="27"/>
+      <c r="E159" s="29"/>
     </row>
     <row r="160" customHeight="1" spans="2:5">
-      <c r="B160" s="17" t="s">
+      <c r="B160" s="19" t="s">
         <v>581</v>
       </c>
-      <c r="C160" s="18" t="s">
+      <c r="C160" s="20" t="s">
         <v>582</v>
       </c>
-      <c r="D160" s="18" t="s">
+      <c r="D160" s="20" t="s">
         <v>583</v>
       </c>
-      <c r="E160" s="27"/>
+      <c r="E160" s="29"/>
     </row>
     <row r="161" customHeight="1" spans="2:5">
-      <c r="B161" s="17" t="s">
+      <c r="B161" s="19" t="s">
         <v>584</v>
       </c>
-      <c r="C161" s="18" t="s">
+      <c r="C161" s="20" t="s">
         <v>585</v>
       </c>
-      <c r="D161" s="18" t="s">
+      <c r="D161" s="20" t="s">
         <v>586</v>
       </c>
-      <c r="E161" s="27"/>
+      <c r="E161" s="29"/>
     </row>
     <row r="162" customHeight="1" spans="2:5">
-      <c r="B162" s="17" t="s">
+      <c r="B162" s="19" t="s">
         <v>587</v>
       </c>
-      <c r="C162" s="18" t="s">
+      <c r="C162" s="20" t="s">
         <v>588</v>
       </c>
-      <c r="D162" s="18" t="s">
+      <c r="D162" s="20" t="s">
         <v>589</v>
       </c>
-      <c r="E162" s="27"/>
+      <c r="E162" s="29"/>
     </row>
     <row r="163" customHeight="1" spans="2:5">
-      <c r="B163" s="17" t="s">
+      <c r="B163" s="19" t="s">
         <v>590</v>
       </c>
-      <c r="C163" s="18" t="s">
+      <c r="C163" s="20" t="s">
         <v>591</v>
       </c>
-      <c r="D163" s="18" t="s">
+      <c r="D163" s="20" t="s">
         <v>592</v>
       </c>
-      <c r="E163" s="27"/>
+      <c r="E163" s="29"/>
     </row>
     <row r="164" customHeight="1" spans="2:5">
-      <c r="B164" s="17" t="s">
+      <c r="B164" s="19" t="s">
         <v>593</v>
       </c>
-      <c r="C164" s="18" t="s">
+      <c r="C164" s="20" t="s">
         <v>594</v>
       </c>
-      <c r="D164" s="18" t="s">
+      <c r="D164" s="20" t="s">
         <v>595</v>
       </c>
-      <c r="E164" s="27"/>
+      <c r="E164" s="29"/>
     </row>
     <row r="165" customHeight="1" spans="2:5">
-      <c r="B165" s="17" t="s">
+      <c r="B165" s="19" t="s">
         <v>596</v>
       </c>
-      <c r="C165" s="18" t="s">
+      <c r="C165" s="20" t="s">
         <v>597</v>
       </c>
-      <c r="D165" s="18" t="s">
+      <c r="D165" s="20" t="s">
         <v>598</v>
       </c>
-      <c r="E165" s="27"/>
+      <c r="E165" s="29"/>
     </row>
     <row r="166" customHeight="1" spans="2:5">
-      <c r="B166" s="17" t="s">
+      <c r="B166" s="19" t="s">
         <v>599</v>
       </c>
-      <c r="C166" s="18" t="s">
+      <c r="C166" s="20" t="s">
         <v>600</v>
       </c>
-      <c r="D166" s="18" t="s">
+      <c r="D166" s="20" t="s">
         <v>601</v>
       </c>
-      <c r="E166" s="27"/>
+      <c r="E166" s="29"/>
     </row>
     <row r="167" customHeight="1" spans="2:5">
-      <c r="B167" s="17" t="s">
+      <c r="B167" s="19" t="s">
         <v>602</v>
       </c>
-      <c r="C167" s="18" t="s">
+      <c r="C167" s="20" t="s">
         <v>603</v>
       </c>
-      <c r="D167" s="18" t="s">
+      <c r="D167" s="20" t="s">
         <v>604</v>
       </c>
-      <c r="E167" s="27"/>
+      <c r="E167" s="29"/>
     </row>
     <row r="168" customHeight="1" spans="2:5">
-      <c r="B168" s="17" t="s">
+      <c r="B168" s="19" t="s">
         <v>605</v>
       </c>
-      <c r="C168" s="18" t="s">
+      <c r="C168" s="20" t="s">
         <v>606</v>
       </c>
-      <c r="D168" s="18" t="s">
+      <c r="D168" s="20" t="s">
         <v>607</v>
       </c>
-      <c r="E168" s="27"/>
+      <c r="E168" s="29"/>
     </row>
     <row r="169" customHeight="1" spans="2:5">
-      <c r="B169" s="17" t="s">
+      <c r="B169" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="C169" s="18" t="s">
+      <c r="C169" s="20" t="s">
         <v>608</v>
       </c>
-      <c r="D169" s="18" t="s">
+      <c r="D169" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="E169" s="27"/>
+      <c r="E169" s="29"/>
     </row>
     <row r="170" customHeight="1" spans="2:5">
-      <c r="B170" s="17" t="s">
+      <c r="B170" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C170" s="18" t="s">
+      <c r="C170" s="20" t="s">
         <v>610</v>
       </c>
-      <c r="D170" s="18" t="s">
+      <c r="D170" s="20" t="s">
         <v>611</v>
       </c>
-      <c r="E170" s="27"/>
+      <c r="E170" s="29"/>
     </row>
     <row r="171" customHeight="1" spans="2:5">
-      <c r="B171" s="17" t="s">
+      <c r="B171" s="19" t="s">
         <v>612</v>
       </c>
-      <c r="C171" s="18" t="s">
+      <c r="C171" s="20" t="s">
         <v>613</v>
       </c>
-      <c r="D171" s="18" t="s">
+      <c r="D171" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="E171" s="27"/>
+      <c r="E171" s="29"/>
     </row>
     <row r="172" customHeight="1" spans="2:5">
-      <c r="B172" s="17" t="s">
+      <c r="B172" s="19" t="s">
         <v>614</v>
       </c>
-      <c r="C172" s="18" t="s">
+      <c r="C172" s="20" t="s">
         <v>615</v>
       </c>
-      <c r="D172" s="18" t="s">
+      <c r="D172" s="20" t="s">
         <v>616</v>
       </c>
-      <c r="E172" s="27"/>
+      <c r="E172" s="29"/>
     </row>
     <row r="173" customHeight="1" spans="2:5">
-      <c r="B173" s="17" t="s">
+      <c r="B173" s="19" t="s">
         <v>617</v>
       </c>
-      <c r="C173" s="18" t="s">
+      <c r="C173" s="20" t="s">
         <v>618</v>
       </c>
-      <c r="D173" s="18" t="s">
+      <c r="D173" s="20" t="s">
         <v>619</v>
       </c>
-      <c r="E173" s="27"/>
+      <c r="E173" s="29"/>
     </row>
     <row r="174" customHeight="1" spans="2:5">
-      <c r="B174" s="17" t="s">
+      <c r="B174" s="19" t="s">
         <v>620</v>
       </c>
-      <c r="C174" s="18" t="s">
+      <c r="C174" s="20" t="s">
         <v>621</v>
       </c>
-      <c r="D174" s="18" t="s">
+      <c r="D174" s="20" t="s">
         <v>543</v>
       </c>
-      <c r="E174" s="27"/>
+      <c r="E174" s="29"/>
     </row>
     <row r="175" customHeight="1" spans="2:5">
-      <c r="B175" s="17" t="s">
+      <c r="B175" s="19" t="s">
         <v>622</v>
       </c>
-      <c r="C175" s="18" t="s">
+      <c r="C175" s="20" t="s">
         <v>623</v>
       </c>
-      <c r="D175" s="18" t="s">
+      <c r="D175" s="20" t="s">
         <v>624</v>
       </c>
-      <c r="E175" s="27"/>
+      <c r="E175" s="29"/>
     </row>
     <row r="176" customHeight="1" spans="2:5">
-      <c r="B176" s="17" t="s">
+      <c r="B176" s="19" t="s">
         <v>625</v>
       </c>
-      <c r="C176" s="18" t="s">
+      <c r="C176" s="20" t="s">
         <v>626</v>
       </c>
-      <c r="D176" s="18" t="s">
+      <c r="D176" s="20" t="s">
         <v>447</v>
       </c>
-      <c r="E176" s="27"/>
+      <c r="E176" s="29"/>
     </row>
     <row r="177" customHeight="1" spans="2:5">
-      <c r="B177" s="17" t="s">
+      <c r="B177" s="19" t="s">
         <v>627</v>
       </c>
-      <c r="C177" s="18" t="s">
+      <c r="C177" s="20" t="s">
         <v>628</v>
       </c>
-      <c r="D177" s="18" t="s">
+      <c r="D177" s="20" t="s">
         <v>450</v>
       </c>
-      <c r="E177" s="27"/>
+      <c r="E177" s="29"/>
     </row>
     <row r="178" customHeight="1" spans="2:5">
-      <c r="B178" s="17" t="s">
+      <c r="B178" s="19" t="s">
         <v>629</v>
       </c>
-      <c r="C178" s="18" t="s">
+      <c r="C178" s="20" t="s">
         <v>630</v>
       </c>
-      <c r="D178" s="18" t="s">
+      <c r="D178" s="20" t="s">
         <v>453</v>
       </c>
-      <c r="E178" s="27"/>
+      <c r="E178" s="29"/>
     </row>
     <row r="179" customHeight="1" spans="2:5">
-      <c r="B179" s="17" t="s">
+      <c r="B179" s="19" t="s">
         <v>631</v>
       </c>
-      <c r="C179" s="18" t="s">
+      <c r="C179" s="20" t="s">
         <v>632</v>
       </c>
-      <c r="D179" s="18" t="s">
+      <c r="D179" s="20" t="s">
         <v>633</v>
       </c>
-      <c r="E179" s="27"/>
+      <c r="E179" s="29"/>
     </row>
     <row r="180" customHeight="1" spans="2:5">
-      <c r="B180" s="17" t="s">
+      <c r="B180" s="19" t="s">
         <v>634</v>
       </c>
-      <c r="C180" s="18" t="s">
+      <c r="C180" s="20" t="s">
         <v>635</v>
       </c>
-      <c r="D180" s="18" t="s">
+      <c r="D180" s="20" t="s">
         <v>461</v>
       </c>
-      <c r="E180" s="27"/>
+      <c r="E180" s="29"/>
     </row>
     <row r="181" customHeight="1" spans="2:5">
-      <c r="B181" s="17" t="s">
+      <c r="B181" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="C181" s="18" t="s">
+      <c r="C181" s="20" t="s">
         <v>636</v>
       </c>
-      <c r="D181" s="18" t="s">
+      <c r="D181" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="E181" s="27"/>
+      <c r="E181" s="29"/>
     </row>
     <row r="182" customHeight="1" spans="2:5">
-      <c r="B182" s="17" t="s">
+      <c r="B182" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C182" s="18" t="s">
+      <c r="C182" s="20" t="s">
         <v>637</v>
       </c>
-      <c r="D182" s="18" t="s">
+      <c r="D182" s="20" t="s">
         <v>457</v>
       </c>
-      <c r="E182" s="27"/>
+      <c r="E182" s="29"/>
     </row>
     <row r="183" customHeight="1" spans="2:5">
-      <c r="B183" s="17" t="s">
+      <c r="B183" s="19" t="s">
         <v>638</v>
       </c>
-      <c r="C183" s="18" t="s">
+      <c r="C183" s="20" t="s">
         <v>639</v>
       </c>
-      <c r="D183" s="18" t="s">
+      <c r="D183" s="20" t="s">
         <v>640</v>
       </c>
-      <c r="E183" s="27"/>
+      <c r="E183" s="29"/>
     </row>
     <row r="184" customHeight="1" spans="2:5">
-      <c r="B184" s="17" t="s">
+      <c r="B184" s="19" t="s">
         <v>641</v>
       </c>
-      <c r="C184" s="18" t="s">
+      <c r="C184" s="20" t="s">
         <v>642</v>
       </c>
-      <c r="D184" s="18" t="s">
+      <c r="D184" s="20" t="s">
         <v>643</v>
       </c>
-      <c r="E184" s="27"/>
+      <c r="E184" s="29"/>
     </row>
     <row r="185" customHeight="1" spans="2:5">
-      <c r="B185" s="17" t="s">
+      <c r="B185" s="19" t="s">
         <v>644</v>
       </c>
-      <c r="C185" s="18" t="s">
+      <c r="C185" s="20" t="s">
         <v>645</v>
       </c>
-      <c r="D185" s="18" t="s">
+      <c r="D185" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="E185" s="27"/>
+      <c r="E185" s="29"/>
     </row>
     <row r="186" customHeight="1" spans="2:5">
-      <c r="B186" s="17" t="s">
+      <c r="B186" s="19" t="s">
         <v>646</v>
       </c>
-      <c r="C186" s="18" t="s">
+      <c r="C186" s="20" t="s">
         <v>647</v>
       </c>
-      <c r="D186" s="18" t="s">
+      <c r="D186" s="20" t="s">
         <v>648</v>
       </c>
-      <c r="E186" s="27"/>
+      <c r="E186" s="29"/>
     </row>
     <row r="187" customHeight="1" spans="2:5">
-      <c r="B187" s="17" t="s">
+      <c r="B187" s="19" t="s">
         <v>649</v>
       </c>
-      <c r="C187" s="18" t="s">
+      <c r="C187" s="20" t="s">
         <v>650</v>
       </c>
-      <c r="D187" s="18" t="s">
+      <c r="D187" s="20" t="s">
         <v>651</v>
       </c>
-      <c r="E187" s="27"/>
+      <c r="E187" s="29"/>
     </row>
     <row r="188" customHeight="1" spans="2:5">
-      <c r="B188" s="17" t="s">
+      <c r="B188" s="19" t="s">
         <v>652</v>
       </c>
-      <c r="C188" s="18" t="s">
+      <c r="C188" s="20" t="s">
         <v>653</v>
       </c>
-      <c r="D188" s="18" t="s">
+      <c r="D188" s="20" t="s">
         <v>654</v>
       </c>
-      <c r="E188" s="27"/>
+      <c r="E188" s="29"/>
     </row>
     <row r="189" customHeight="1" spans="2:5">
-      <c r="B189" s="17" t="s">
+      <c r="B189" s="19" t="s">
         <v>655</v>
       </c>
-      <c r="C189" s="18" t="s">
+      <c r="C189" s="20" t="s">
         <v>656</v>
       </c>
-      <c r="D189" s="18" t="s">
+      <c r="D189" s="20" t="s">
         <v>657</v>
       </c>
-      <c r="E189" s="27"/>
+      <c r="E189" s="29"/>
     </row>
     <row r="190" customHeight="1" spans="2:5">
-      <c r="B190" s="17" t="s">
+      <c r="B190" s="19" t="s">
         <v>658</v>
       </c>
-      <c r="C190" s="18" t="s">
+      <c r="C190" s="20" t="s">
         <v>659</v>
       </c>
-      <c r="D190" s="18" t="s">
+      <c r="D190" s="20" t="s">
         <v>543</v>
       </c>
-      <c r="E190" s="27"/>
+      <c r="E190" s="29"/>
     </row>
     <row r="191" customHeight="1" spans="2:5">
-      <c r="B191" s="17" t="s">
+      <c r="B191" s="19" t="s">
         <v>660</v>
       </c>
-      <c r="C191" s="18" t="s">
+      <c r="C191" s="20" t="s">
         <v>661</v>
       </c>
-      <c r="D191" s="18" t="s">
+      <c r="D191" s="20" t="s">
         <v>662</v>
       </c>
-      <c r="E191" s="27"/>
+      <c r="E191" s="29"/>
     </row>
     <row r="192" customHeight="1" spans="2:5">
-      <c r="B192" s="17" t="s">
+      <c r="B192" s="19" t="s">
         <v>663</v>
       </c>
-      <c r="C192" s="18" t="s">
+      <c r="C192" s="20" t="s">
         <v>664</v>
       </c>
-      <c r="D192" s="18" t="s">
+      <c r="D192" s="20" t="s">
         <v>447</v>
       </c>
-      <c r="E192" s="27"/>
+      <c r="E192" s="29"/>
     </row>
     <row r="193" customHeight="1" spans="2:5">
-      <c r="B193" s="17" t="s">
+      <c r="B193" s="19" t="s">
         <v>665</v>
       </c>
-      <c r="C193" s="18" t="s">
+      <c r="C193" s="20" t="s">
         <v>666</v>
       </c>
-      <c r="D193" s="18" t="s">
+      <c r="D193" s="20" t="s">
         <v>450</v>
       </c>
-      <c r="E193" s="27"/>
+      <c r="E193" s="29"/>
     </row>
     <row r="194" customHeight="1" spans="2:5">
-      <c r="B194" s="17" t="s">
+      <c r="B194" s="19" t="s">
         <v>667</v>
       </c>
-      <c r="C194" s="18" t="s">
+      <c r="C194" s="20" t="s">
         <v>668</v>
       </c>
-      <c r="D194" s="18" t="s">
+      <c r="D194" s="20" t="s">
         <v>453</v>
       </c>
-      <c r="E194" s="27"/>
+      <c r="E194" s="29"/>
     </row>
     <row r="195" customHeight="1" spans="2:5">
-      <c r="B195" s="17" t="s">
+      <c r="B195" s="19" t="s">
         <v>669</v>
       </c>
-      <c r="C195" s="18" t="s">
+      <c r="C195" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="D195" s="18" t="s">
+      <c r="D195" s="20" t="s">
         <v>633</v>
       </c>
-      <c r="E195" s="27"/>
+      <c r="E195" s="29"/>
     </row>
     <row r="196" customHeight="1" spans="2:5">
-      <c r="B196" s="17" t="s">
+      <c r="B196" s="19" t="s">
         <v>671</v>
       </c>
-      <c r="C196" s="18" t="s">
+      <c r="C196" s="20" t="s">
         <v>672</v>
       </c>
-      <c r="D196" s="18" t="s">
+      <c r="D196" s="20" t="s">
         <v>673</v>
       </c>
-      <c r="E196" s="27"/>
+      <c r="E196" s="29"/>
     </row>
     <row r="197" customHeight="1" spans="2:5">
-      <c r="B197" s="17" t="s">
+      <c r="B197" s="19" t="s">
         <v>674</v>
       </c>
-      <c r="C197" s="18" t="s">
+      <c r="C197" s="20" t="s">
         <v>675</v>
       </c>
-      <c r="D197" s="18" t="s">
+      <c r="D197" s="20" t="s">
         <v>676</v>
       </c>
-      <c r="E197" s="27"/>
+      <c r="E197" s="29"/>
     </row>
     <row r="198" customHeight="1" spans="2:5">
-      <c r="B198" s="17" t="s">
+      <c r="B198" s="19" t="s">
         <v>677</v>
       </c>
-      <c r="C198" s="18" t="s">
+      <c r="C198" s="20" t="s">
         <v>678</v>
       </c>
-      <c r="D198" s="18" t="s">
+      <c r="D198" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="E198" s="27"/>
+      <c r="E198" s="29"/>
     </row>
     <row r="199" customHeight="1" spans="2:5">
-      <c r="B199" s="17" t="s">
+      <c r="B199" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="C199" s="18" t="s">
+      <c r="C199" s="20" t="s">
         <v>679</v>
       </c>
-      <c r="D199" s="18" t="s">
+      <c r="D199" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="E199" s="27"/>
+      <c r="E199" s="29"/>
     </row>
     <row r="200" customHeight="1" spans="2:5">
-      <c r="B200" s="17" t="s">
+      <c r="B200" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C200" s="18" t="s">
+      <c r="C200" s="20" t="s">
         <v>680</v>
       </c>
-      <c r="D200" s="18" t="s">
+      <c r="D200" s="20" t="s">
         <v>457</v>
       </c>
-      <c r="E200" s="27"/>
+      <c r="E200" s="29"/>
     </row>
     <row r="201" customHeight="1" spans="2:5">
-      <c r="B201" s="17" t="s">
+      <c r="B201" s="19" t="s">
         <v>681</v>
       </c>
-      <c r="C201" s="18" t="s">
+      <c r="C201" s="20" t="s">
         <v>682</v>
       </c>
-      <c r="D201" s="18" t="s">
+      <c r="D201" s="20" t="s">
         <v>562</v>
       </c>
-      <c r="E201" s="27"/>
+      <c r="E201" s="29"/>
     </row>
     <row r="202" customHeight="1" spans="2:5">
-      <c r="B202" s="17" t="s">
+      <c r="B202" s="19" t="s">
         <v>683</v>
       </c>
-      <c r="C202" s="18" t="s">
+      <c r="C202" s="20" t="s">
         <v>684</v>
       </c>
-      <c r="D202" s="18" t="s">
+      <c r="D202" s="20" t="s">
         <v>685</v>
       </c>
-      <c r="E202" s="27"/>
+      <c r="E202" s="29"/>
     </row>
     <row r="203" customHeight="1" spans="2:5">
-      <c r="B203" s="17" t="s">
+      <c r="B203" s="19" t="s">
         <v>686</v>
       </c>
-      <c r="C203" s="18" t="s">
+      <c r="C203" s="20" t="s">
         <v>687</v>
       </c>
-      <c r="D203" s="18" t="s">
+      <c r="D203" s="20" t="s">
         <v>688</v>
       </c>
-      <c r="E203" s="27"/>
+      <c r="E203" s="29"/>
     </row>
     <row r="204" customHeight="1" spans="2:5">
-      <c r="B204" s="17" t="s">
+      <c r="B204" s="19" t="s">
         <v>689</v>
       </c>
-      <c r="C204" s="18" t="s">
+      <c r="C204" s="20" t="s">
         <v>690</v>
       </c>
-      <c r="D204" s="18" t="s">
+      <c r="D204" s="20" t="s">
         <v>691</v>
       </c>
-      <c r="E204" s="27"/>
+      <c r="E204" s="29"/>
     </row>
     <row r="205" customHeight="1" spans="2:5">
-      <c r="B205" s="17" t="s">
+      <c r="B205" s="19" t="s">
         <v>692</v>
       </c>
-      <c r="C205" s="18" t="s">
+      <c r="C205" s="20" t="s">
         <v>693</v>
       </c>
-      <c r="D205" s="18" t="s">
+      <c r="D205" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="E205" s="27"/>
+      <c r="E205" s="29"/>
     </row>
     <row r="206" customHeight="1" spans="2:5">
-      <c r="B206" s="17" t="s">
+      <c r="B206" s="19" t="s">
         <v>695</v>
       </c>
-      <c r="C206" s="18" t="s">
+      <c r="C206" s="20" t="s">
         <v>696</v>
       </c>
-      <c r="D206" s="18" t="s">
+      <c r="D206" s="20" t="s">
         <v>697</v>
       </c>
-      <c r="E206" s="27"/>
+      <c r="E206" s="29"/>
     </row>
     <row r="207" customHeight="1" spans="2:5">
-      <c r="B207" s="17" t="s">
+      <c r="B207" s="19" t="s">
         <v>698</v>
       </c>
-      <c r="C207" s="18" t="s">
+      <c r="C207" s="20" t="s">
         <v>699</v>
       </c>
-      <c r="D207" s="18" t="s">
+      <c r="D207" s="20" t="s">
         <v>700</v>
       </c>
-      <c r="E207" s="27"/>
+      <c r="E207" s="29"/>
     </row>
     <row r="208" customHeight="1" spans="2:5">
-      <c r="B208" s="17" t="s">
+      <c r="B208" s="19" t="s">
         <v>701</v>
       </c>
-      <c r="C208" s="18" t="s">
+      <c r="C208" s="20" t="s">
         <v>702</v>
       </c>
-      <c r="D208" s="18" t="s">
+      <c r="D208" s="20" t="s">
         <v>703</v>
       </c>
-      <c r="E208" s="27"/>
+      <c r="E208" s="29"/>
     </row>
     <row r="209" customHeight="1" spans="2:5">
-      <c r="B209" s="17" t="s">
+      <c r="B209" s="19" t="s">
         <v>704</v>
       </c>
-      <c r="C209" s="18" t="s">
+      <c r="C209" s="20" t="s">
         <v>705</v>
       </c>
-      <c r="D209" s="18" t="s">
+      <c r="D209" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="E209" s="27"/>
+      <c r="E209" s="29"/>
     </row>
     <row r="210" customHeight="1" spans="2:5">
-      <c r="B210" s="17" t="s">
+      <c r="B210" s="19" t="s">
         <v>706</v>
       </c>
-      <c r="C210" s="18" t="s">
+      <c r="C210" s="20" t="s">
         <v>707</v>
       </c>
-      <c r="D210" s="18" t="s">
+      <c r="D210" s="20" t="s">
         <v>708</v>
       </c>
-      <c r="E210" s="27"/>
+      <c r="E210" s="29"/>
     </row>
     <row r="211" customHeight="1" spans="2:5">
-      <c r="B211" s="17" t="s">
+      <c r="B211" s="19" t="s">
         <v>709</v>
       </c>
-      <c r="C211" s="18" t="s">
+      <c r="C211" s="20" t="s">
         <v>710</v>
       </c>
-      <c r="D211" s="18" t="s">
+      <c r="D211" s="20" t="s">
         <v>711</v>
       </c>
-      <c r="E211" s="27"/>
+      <c r="E211" s="29"/>
     </row>
     <row r="212" customHeight="1" spans="2:5">
-      <c r="B212" s="17" t="s">
+      <c r="B212" s="19" t="s">
         <v>712</v>
       </c>
-      <c r="C212" s="18" t="s">
+      <c r="C212" s="20" t="s">
         <v>713</v>
       </c>
-      <c r="D212" s="18" t="s">
+      <c r="D212" s="20" t="s">
         <v>714</v>
       </c>
-      <c r="E212" s="27"/>
+      <c r="E212" s="29"/>
     </row>
     <row r="213" customHeight="1" spans="2:5">
-      <c r="B213" s="17" t="s">
+      <c r="B213" s="19" t="s">
         <v>715</v>
       </c>
-      <c r="C213" s="18" t="s">
+      <c r="C213" s="20" t="s">
         <v>716</v>
       </c>
-      <c r="D213" s="18" t="s">
+      <c r="D213" s="20" t="s">
         <v>717</v>
       </c>
-      <c r="E213" s="27"/>
+      <c r="E213" s="29"/>
     </row>
     <row r="214" customHeight="1" spans="2:5">
-      <c r="B214" s="17" t="s">
+      <c r="B214" s="19" t="s">
         <v>718</v>
       </c>
-      <c r="C214" s="18" t="s">
+      <c r="C214" s="20" t="s">
         <v>719</v>
       </c>
-      <c r="D214" s="18" t="s">
+      <c r="D214" s="20" t="s">
         <v>720</v>
       </c>
-      <c r="E214" s="27"/>
+      <c r="E214" s="29"/>
     </row>
     <row r="215" customHeight="1" spans="2:5">
-      <c r="B215" s="17" t="s">
+      <c r="B215" s="19" t="s">
         <v>721</v>
       </c>
-      <c r="C215" s="18" t="s">
+      <c r="C215" s="20" t="s">
         <v>722</v>
       </c>
-      <c r="D215" s="18" t="s">
+      <c r="D215" s="20" t="s">
         <v>723</v>
       </c>
-      <c r="E215" s="27"/>
+      <c r="E215" s="29"/>
     </row>
     <row r="216" customHeight="1" spans="2:5">
-      <c r="B216" s="17" t="s">
+      <c r="B216" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="C216" s="18" t="s">
+      <c r="C216" s="20" t="s">
         <v>724</v>
       </c>
-      <c r="D216" s="18" t="s">
+      <c r="D216" s="20" t="s">
         <v>725</v>
       </c>
-      <c r="E216" s="27"/>
+      <c r="E216" s="29"/>
     </row>
     <row r="217" customHeight="1" spans="2:5">
-      <c r="B217" s="17" t="s">
+      <c r="B217" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C217" s="18" t="s">
+      <c r="C217" s="20" t="s">
         <v>726</v>
       </c>
-      <c r="D217" s="18" t="s">
+      <c r="D217" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="E217" s="27"/>
+      <c r="E217" s="29"/>
     </row>
     <row r="218" customHeight="1" spans="2:5">
-      <c r="B218" s="17" t="s">
+      <c r="B218" s="19" t="s">
         <v>727</v>
       </c>
-      <c r="C218" s="18" t="s">
+      <c r="C218" s="20" t="s">
         <v>728</v>
       </c>
-      <c r="D218" s="18" t="s">
+      <c r="D218" s="20" t="s">
         <v>729</v>
       </c>
-      <c r="E218" s="27"/>
+      <c r="E218" s="29"/>
     </row>
     <row r="219" customHeight="1" spans="2:5">
-      <c r="B219" s="17" t="s">
+      <c r="B219" s="19" t="s">
         <v>730</v>
       </c>
-      <c r="C219" s="18" t="s">
+      <c r="C219" s="20" t="s">
         <v>731</v>
       </c>
-      <c r="D219" s="18" t="s">
+      <c r="D219" s="20" t="s">
         <v>732</v>
       </c>
-      <c r="E219" s="27"/>
+      <c r="E219" s="29"/>
     </row>
     <row r="220" customHeight="1" spans="2:5">
-      <c r="B220" s="17" t="s">
+      <c r="B220" s="19" t="s">
         <v>733</v>
       </c>
-      <c r="C220" s="18" t="s">
+      <c r="C220" s="20" t="s">
         <v>734</v>
       </c>
-      <c r="D220" s="18" t="s">
+      <c r="D220" s="20" t="s">
         <v>543</v>
       </c>
-      <c r="E220" s="27"/>
+      <c r="E220" s="29"/>
     </row>
     <row r="221" customHeight="1" spans="2:5">
-      <c r="B221" s="17" t="s">
+      <c r="B221" s="19" t="s">
         <v>735</v>
       </c>
-      <c r="C221" s="18" t="s">
+      <c r="C221" s="20" t="s">
         <v>736</v>
       </c>
-      <c r="D221" s="18" t="s">
+      <c r="D221" s="20" t="s">
         <v>737</v>
       </c>
-      <c r="E221" s="27"/>
+      <c r="E221" s="29"/>
     </row>
     <row r="222" customHeight="1" spans="2:5">
-      <c r="B222" s="17" t="s">
+      <c r="B222" s="19" t="s">
         <v>738</v>
       </c>
-      <c r="C222" s="18" t="s">
+      <c r="C222" s="20" t="s">
         <v>739</v>
       </c>
-      <c r="D222" s="18" t="s">
+      <c r="D222" s="20" t="s">
         <v>740</v>
       </c>
-      <c r="E222" s="27"/>
+      <c r="E222" s="29"/>
     </row>
     <row r="223" customHeight="1" spans="2:5">
-      <c r="B223" s="17" t="s">
+      <c r="B223" s="19" t="s">
         <v>741</v>
       </c>
-      <c r="C223" s="18" t="s">
+      <c r="C223" s="20" t="s">
         <v>742</v>
       </c>
-      <c r="D223" s="18" t="s">
+      <c r="D223" s="20" t="s">
         <v>743</v>
       </c>
-      <c r="E223" s="27"/>
+      <c r="E223" s="29"/>
     </row>
     <row r="224" customHeight="1" spans="2:5">
-      <c r="B224" s="17" t="s">
+      <c r="B224" s="19" t="s">
         <v>744</v>
       </c>
-      <c r="C224" s="18" t="s">
+      <c r="C224" s="20" t="s">
         <v>745</v>
       </c>
-      <c r="D224" s="18" t="s">
+      <c r="D224" s="20" t="s">
         <v>746</v>
       </c>
-      <c r="E224" s="27"/>
+      <c r="E224" s="29"/>
     </row>
     <row r="225" customHeight="1" spans="2:5">
-      <c r="B225" s="17" t="s">
+      <c r="B225" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="C225" s="18" t="s">
+      <c r="C225" s="20" t="s">
         <v>747</v>
       </c>
-      <c r="D225" s="18" t="s">
+      <c r="D225" s="20" t="s">
         <v>748</v>
       </c>
-      <c r="E225" s="27"/>
+      <c r="E225" s="29"/>
     </row>
     <row r="226" customHeight="1" spans="2:5">
-      <c r="B226" s="17" t="s">
+      <c r="B226" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C226" s="18" t="s">
+      <c r="C226" s="20" t="s">
         <v>749</v>
       </c>
-      <c r="D226" s="18" t="s">
+      <c r="D226" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="E226" s="27"/>
+      <c r="E226" s="29"/>
     </row>
     <row r="227" customHeight="1" spans="2:5">
-      <c r="B227" s="17" t="s">
+      <c r="B227" s="19" t="s">
         <v>750</v>
       </c>
-      <c r="C227" s="18" t="s">
+      <c r="C227" s="20" t="s">
         <v>751</v>
       </c>
-      <c r="D227" s="18" t="s">
+      <c r="D227" s="20" t="s">
         <v>752</v>
       </c>
-      <c r="E227" s="27"/>
+      <c r="E227" s="29"/>
     </row>
     <row r="228" customHeight="1" spans="2:5">
-      <c r="B228" s="17" t="s">
+      <c r="B228" s="19" t="s">
         <v>753</v>
       </c>
-      <c r="C228" s="18" t="s">
+      <c r="C228" s="20" t="s">
         <v>754</v>
       </c>
-      <c r="D228" s="18" t="s">
+      <c r="D228" s="20" t="s">
         <v>755</v>
       </c>
-      <c r="E228" s="27"/>
+      <c r="E228" s="29"/>
     </row>
     <row r="229" customHeight="1" spans="2:5">
-      <c r="B229" s="17" t="s">
+      <c r="B229" s="19" t="s">
         <v>756</v>
       </c>
-      <c r="C229" s="18" t="s">
+      <c r="C229" s="20" t="s">
         <v>757</v>
       </c>
-      <c r="D229" s="18" t="s">
+      <c r="D229" s="20" t="s">
         <v>758</v>
       </c>
-      <c r="E229" s="27"/>
+      <c r="E229" s="29"/>
     </row>
     <row r="230" customHeight="1" spans="2:5">
-      <c r="B230" s="17" t="s">
+      <c r="B230" s="19" t="s">
         <v>759</v>
       </c>
-      <c r="C230" s="18" t="s">
+      <c r="C230" s="20" t="s">
         <v>760</v>
       </c>
-      <c r="D230" s="18" t="s">
+      <c r="D230" s="20" t="s">
         <v>761</v>
       </c>
-      <c r="E230" s="27"/>
+      <c r="E230" s="29"/>
     </row>
     <row r="231" customHeight="1" spans="2:5">
-      <c r="B231" s="17" t="s">
+      <c r="B231" s="19" t="s">
         <v>762</v>
       </c>
-      <c r="C231" s="18" t="s">
+      <c r="C231" s="20" t="s">
         <v>763</v>
       </c>
-      <c r="D231" s="18" t="s">
+      <c r="D231" s="20" t="s">
         <v>764</v>
       </c>
-      <c r="E231" s="27"/>
+      <c r="E231" s="29"/>
     </row>
     <row r="232" customHeight="1" spans="2:5">
-      <c r="B232" s="17" t="s">
+      <c r="B232" s="19" t="s">
         <v>765</v>
       </c>
-      <c r="C232" s="18" t="s">
+      <c r="C232" s="20" t="s">
         <v>766</v>
       </c>
-      <c r="D232" s="18" t="s">
+      <c r="D232" s="20" t="s">
         <v>767</v>
       </c>
-      <c r="E232" s="27"/>
+      <c r="E232" s="29"/>
     </row>
     <row r="233" customHeight="1" spans="2:5">
-      <c r="B233" s="17" t="s">
+      <c r="B233" s="19" t="s">
         <v>768</v>
       </c>
-      <c r="C233" s="18" t="s">
+      <c r="C233" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="D233" s="18" t="s">
+      <c r="D233" s="20" t="s">
         <v>770</v>
       </c>
-      <c r="E233" s="27"/>
+      <c r="E233" s="29"/>
     </row>
     <row r="234" customHeight="1" spans="2:5">
-      <c r="B234" s="17" t="s">
+      <c r="B234" s="19" t="s">
         <v>771</v>
       </c>
-      <c r="C234" s="18" t="s">
+      <c r="C234" s="20" t="s">
         <v>772</v>
       </c>
-      <c r="D234" s="18" t="s">
+      <c r="D234" s="20" t="s">
         <v>773</v>
       </c>
-      <c r="E234" s="27"/>
+      <c r="E234" s="29"/>
     </row>
     <row r="235" customHeight="1" spans="2:5">
-      <c r="B235" s="17" t="s">
+      <c r="B235" s="19" t="s">
         <v>774</v>
       </c>
-      <c r="C235" s="18" t="s">
+      <c r="C235" s="20" t="s">
         <v>775</v>
       </c>
-      <c r="D235" s="18" t="s">
+      <c r="D235" s="20" t="s">
         <v>776</v>
       </c>
-      <c r="E235" s="27"/>
+      <c r="E235" s="29"/>
     </row>
     <row r="236" customHeight="1" spans="2:5">
-      <c r="B236" s="17" t="s">
+      <c r="B236" s="19" t="s">
         <v>777</v>
       </c>
-      <c r="C236" s="18" t="s">
+      <c r="C236" s="20" t="s">
         <v>778</v>
       </c>
-      <c r="D236" s="18" t="s">
+      <c r="D236" s="20" t="s">
         <v>779</v>
       </c>
-      <c r="E236" s="27"/>
+      <c r="E236" s="29"/>
     </row>
     <row r="237" customHeight="1" spans="2:5">
-      <c r="B237" s="17" t="s">
+      <c r="B237" s="19" t="s">
         <v>780</v>
       </c>
-      <c r="C237" s="18" t="s">
+      <c r="C237" s="20" t="s">
         <v>781</v>
       </c>
-      <c r="D237" s="18" t="s">
+      <c r="D237" s="20" t="s">
         <v>782</v>
       </c>
-      <c r="E237" s="27"/>
+      <c r="E237" s="29"/>
     </row>
     <row r="238" customHeight="1" spans="2:5">
-      <c r="B238" s="17" t="s">
+      <c r="B238" s="19" t="s">
         <v>783</v>
       </c>
-      <c r="C238" s="18" t="s">
+      <c r="C238" s="20" t="s">
         <v>784</v>
       </c>
-      <c r="D238" s="18" t="s">
+      <c r="D238" s="20" t="s">
         <v>785</v>
       </c>
-      <c r="E238" s="27"/>
+      <c r="E238" s="29"/>
     </row>
     <row r="239" customHeight="1" spans="2:5">
-      <c r="B239" s="17" t="s">
+      <c r="B239" s="19" t="s">
         <v>786</v>
       </c>
-      <c r="C239" s="18" t="s">
+      <c r="C239" s="20" t="s">
         <v>787</v>
       </c>
-      <c r="D239" s="18" t="s">
+      <c r="D239" s="20" t="s">
         <v>543</v>
       </c>
-      <c r="E239" s="27"/>
+      <c r="E239" s="29"/>
     </row>
     <row r="240" customHeight="1" spans="2:5">
-      <c r="B240" s="17" t="s">
+      <c r="B240" s="19" t="s">
         <v>788</v>
       </c>
-      <c r="C240" s="18" t="s">
+      <c r="C240" s="20" t="s">
         <v>789</v>
       </c>
-      <c r="D240" s="18" t="s">
+      <c r="D240" s="20" t="s">
         <v>790</v>
       </c>
-      <c r="E240" s="27"/>
+      <c r="E240" s="29"/>
     </row>
     <row r="241" customHeight="1" spans="2:5">
-      <c r="B241" s="17" t="s">
+      <c r="B241" s="19" t="s">
         <v>791</v>
       </c>
-      <c r="C241" s="18" t="s">
+      <c r="C241" s="20" t="s">
         <v>792</v>
       </c>
-      <c r="D241" s="18"/>
-      <c r="E241" s="27"/>
+      <c r="D241" s="20"/>
+      <c r="E241" s="29"/>
     </row>
     <row r="242" customHeight="1" spans="2:5">
-      <c r="B242" s="17" t="s">
+      <c r="B242" s="19" t="s">
         <v>793</v>
       </c>
-      <c r="C242" s="18" t="s">
+      <c r="C242" s="20" t="s">
         <v>794</v>
       </c>
-      <c r="D242" s="18"/>
-      <c r="E242" s="27"/>
+      <c r="D242" s="20"/>
+      <c r="E242" s="29"/>
     </row>
     <row r="243" customHeight="1" spans="2:5">
-      <c r="B243" s="17" t="s">
+      <c r="B243" s="19" t="s">
         <v>795</v>
       </c>
-      <c r="C243" s="18" t="s">
+      <c r="C243" s="20" t="s">
         <v>796</v>
       </c>
-      <c r="D243" s="18"/>
-      <c r="E243" s="27"/>
+      <c r="D243" s="20"/>
+      <c r="E243" s="29"/>
     </row>
     <row r="244" customHeight="1" spans="2:5">
-      <c r="B244" s="17" t="s">
+      <c r="B244" s="19" t="s">
         <v>797</v>
       </c>
-      <c r="C244" s="18" t="s">
+      <c r="C244" s="20" t="s">
         <v>798</v>
       </c>
-      <c r="D244" s="18"/>
-      <c r="E244" s="27"/>
+      <c r="D244" s="20"/>
+      <c r="E244" s="29"/>
     </row>
     <row r="245" customHeight="1" spans="2:5">
-      <c r="B245" s="17" t="s">
+      <c r="B245" s="19" t="s">
         <v>799</v>
       </c>
-      <c r="C245" s="18" t="s">
+      <c r="C245" s="20" t="s">
         <v>800</v>
       </c>
-      <c r="D245" s="18"/>
-      <c r="E245" s="27"/>
+      <c r="D245" s="20"/>
+      <c r="E245" s="29"/>
     </row>
     <row r="246" customHeight="1" spans="2:5">
-      <c r="B246" s="17" t="s">
+      <c r="B246" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="C246" s="18" t="s">
+      <c r="C246" s="20" t="s">
         <v>801</v>
       </c>
-      <c r="D246" s="18"/>
-      <c r="E246" s="27"/>
+      <c r="D246" s="20"/>
+      <c r="E246" s="29"/>
     </row>
     <row r="247" customHeight="1" spans="2:5">
-      <c r="B247" s="17" t="s">
+      <c r="B247" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C247" s="18" t="s">
+      <c r="C247" s="20" t="s">
         <v>802</v>
       </c>
-      <c r="D247" s="18"/>
-      <c r="E247" s="27"/>
+      <c r="D247" s="20"/>
+      <c r="E247" s="29"/>
     </row>
     <row r="248" customHeight="1" spans="2:5">
-      <c r="B248" s="17" t="s">
+      <c r="B248" s="19" t="s">
         <v>803</v>
       </c>
-      <c r="C248" s="18" t="s">
+      <c r="C248" s="20" t="s">
         <v>804</v>
       </c>
-      <c r="D248" s="18"/>
-      <c r="E248" s="27"/>
+      <c r="D248" s="20"/>
+      <c r="E248" s="29"/>
     </row>
     <row r="249" customHeight="1" spans="2:5">
-      <c r="B249" s="17" t="s">
+      <c r="B249" s="19" t="s">
         <v>805</v>
       </c>
-      <c r="C249" s="18" t="s">
+      <c r="C249" s="20" t="s">
         <v>806</v>
       </c>
-      <c r="D249" s="18"/>
-      <c r="E249" s="27"/>
+      <c r="D249" s="20"/>
+      <c r="E249" s="29"/>
     </row>
     <row r="250" customHeight="1" spans="2:5">
-      <c r="B250" s="17" t="s">
+      <c r="B250" s="19" t="s">
         <v>807</v>
       </c>
-      <c r="C250" s="18" t="s">
+      <c r="C250" s="20" t="s">
         <v>808</v>
       </c>
-      <c r="D250" s="18"/>
-      <c r="E250" s="27"/>
+      <c r="D250" s="20"/>
+      <c r="E250" s="29"/>
     </row>
     <row r="251" customHeight="1" spans="2:5">
-      <c r="B251" s="17" t="s">
+      <c r="B251" s="19" t="s">
         <v>809</v>
       </c>
-      <c r="C251" s="18" t="s">
+      <c r="C251" s="20" t="s">
         <v>810</v>
       </c>
-      <c r="D251" s="18"/>
-      <c r="E251" s="27"/>
+      <c r="D251" s="20"/>
+      <c r="E251" s="29"/>
     </row>
     <row r="252" customHeight="1" spans="2:5">
-      <c r="B252" s="17" t="s">
+      <c r="B252" s="19" t="s">
         <v>811</v>
       </c>
-      <c r="C252" s="18" t="s">
+      <c r="C252" s="20" t="s">
         <v>812</v>
       </c>
-      <c r="D252" s="18"/>
-      <c r="E252" s="27"/>
+      <c r="D252" s="20"/>
+      <c r="E252" s="29"/>
     </row>
     <row r="253" customHeight="1" spans="2:5">
-      <c r="B253" s="17" t="s">
+      <c r="B253" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="C253" s="18" t="s">
+      <c r="C253" s="20" t="s">
         <v>813</v>
       </c>
-      <c r="D253" s="18"/>
-      <c r="E253" s="27"/>
+      <c r="D253" s="20"/>
+      <c r="E253" s="29"/>
     </row>
     <row r="254" customHeight="1" spans="2:5">
-      <c r="B254" s="17" t="s">
+      <c r="B254" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C254" s="18" t="s">
+      <c r="C254" s="20" t="s">
         <v>814</v>
       </c>
-      <c r="D254" s="18"/>
-      <c r="E254" s="27"/>
+      <c r="D254" s="20"/>
+      <c r="E254" s="29"/>
     </row>
     <row r="255" customHeight="1" spans="2:5">
-      <c r="B255" s="17" t="s">
+      <c r="B255" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="C255" s="18" t="s">
+      <c r="C255" s="20" t="s">
         <v>816</v>
       </c>
-      <c r="D255" s="18"/>
-      <c r="E255" s="27"/>
+      <c r="D255" s="20"/>
+      <c r="E255" s="29"/>
     </row>
     <row r="256" customHeight="1" spans="2:5">
-      <c r="B256" s="17" t="s">
+      <c r="B256" s="19" t="s">
         <v>817</v>
       </c>
-      <c r="C256" s="18" t="s">
+      <c r="C256" s="20" t="s">
         <v>818</v>
       </c>
-      <c r="D256" s="18"/>
-      <c r="E256" s="27"/>
+      <c r="D256" s="20"/>
+      <c r="E256" s="29"/>
     </row>
     <row r="257" customHeight="1" spans="2:5">
-      <c r="B257" s="17" t="s">
+      <c r="B257" s="19" t="s">
         <v>819</v>
       </c>
-      <c r="C257" s="18" t="s">
+      <c r="C257" s="20" t="s">
         <v>820</v>
       </c>
-      <c r="D257" s="18"/>
-      <c r="E257" s="27"/>
+      <c r="D257" s="20"/>
+      <c r="E257" s="29"/>
     </row>
     <row r="258" customHeight="1" spans="2:5">
-      <c r="B258" s="17" t="s">
+      <c r="B258" s="19" t="s">
         <v>821</v>
       </c>
-      <c r="C258" s="18" t="s">
+      <c r="C258" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="D258" s="18"/>
-      <c r="E258" s="27"/>
+      <c r="D258" s="20"/>
+      <c r="E258" s="29"/>
     </row>
     <row r="259" customHeight="1" spans="2:5">
-      <c r="B259" s="17" t="s">
+      <c r="B259" s="19" t="s">
         <v>823</v>
       </c>
-      <c r="C259" s="18" t="s">
+      <c r="C259" s="20" t="s">
         <v>824</v>
       </c>
-      <c r="D259" s="18"/>
-      <c r="E259" s="27"/>
+      <c r="D259" s="20"/>
+      <c r="E259" s="29"/>
     </row>
     <row r="260" customHeight="1" spans="2:5">
-      <c r="B260" s="17" t="s">
+      <c r="B260" s="19" t="s">
         <v>825</v>
       </c>
-      <c r="C260" s="18" t="s">
+      <c r="C260" s="20" t="s">
         <v>826</v>
       </c>
-      <c r="D260" s="18"/>
-      <c r="E260" s="27"/>
+      <c r="D260" s="20"/>
+      <c r="E260" s="29"/>
     </row>
     <row r="261" customHeight="1" spans="2:5">
-      <c r="B261" s="17" t="s">
+      <c r="B261" s="19" t="s">
         <v>827</v>
       </c>
-      <c r="C261" s="18" t="s">
+      <c r="C261" s="20" t="s">
         <v>828</v>
       </c>
-      <c r="D261" s="18"/>
-      <c r="E261" s="27"/>
+      <c r="D261" s="20"/>
+      <c r="E261" s="29"/>
     </row>
     <row r="262" customHeight="1" spans="2:5">
-      <c r="B262" s="17" t="s">
+      <c r="B262" s="19" t="s">
         <v>829</v>
       </c>
-      <c r="C262" s="18" t="s">
+      <c r="C262" s="20" t="s">
         <v>830</v>
       </c>
-      <c r="D262" s="18"/>
-      <c r="E262" s="27"/>
+      <c r="D262" s="20"/>
+      <c r="E262" s="29"/>
     </row>
     <row r="263" customHeight="1" spans="2:5">
-      <c r="B263" s="17" t="s">
+      <c r="B263" s="19" t="s">
         <v>831</v>
       </c>
-      <c r="C263" s="18" t="s">
+      <c r="C263" s="20" t="s">
         <v>832</v>
       </c>
-      <c r="D263" s="18"/>
-      <c r="E263" s="27"/>
+      <c r="D263" s="20"/>
+      <c r="E263" s="29"/>
     </row>
     <row r="264" customHeight="1" spans="2:5">
-      <c r="B264" s="17" t="s">
+      <c r="B264" s="19" t="s">
         <v>833</v>
       </c>
-      <c r="C264" s="18" t="s">
+      <c r="C264" s="20" t="s">
         <v>834</v>
       </c>
-      <c r="D264" s="18"/>
-      <c r="E264" s="27"/>
+      <c r="D264" s="20"/>
+      <c r="E264" s="29"/>
     </row>
     <row r="265" customHeight="1" spans="2:5">
-      <c r="B265" s="17" t="s">
+      <c r="B265" s="19" t="s">
         <v>835</v>
       </c>
-      <c r="C265" s="18" t="s">
+      <c r="C265" s="20" t="s">
         <v>836</v>
       </c>
-      <c r="D265" s="18"/>
-      <c r="E265" s="27"/>
+      <c r="D265" s="20"/>
+      <c r="E265" s="29"/>
     </row>
     <row r="266" customHeight="1" spans="2:5">
-      <c r="B266" s="17" t="s">
+      <c r="B266" s="19" t="s">
         <v>837</v>
       </c>
-      <c r="C266" s="18" t="s">
+      <c r="C266" s="20" t="s">
         <v>838</v>
       </c>
-      <c r="D266" s="18"/>
-      <c r="E266" s="27"/>
+      <c r="D266" s="20"/>
+      <c r="E266" s="29"/>
     </row>
     <row r="267" customHeight="1" spans="2:5">
-      <c r="B267" s="17" t="s">
+      <c r="B267" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="C267" s="18" t="s">
+      <c r="C267" s="20" t="s">
         <v>839</v>
       </c>
-      <c r="D267" s="18"/>
-      <c r="E267" s="27"/>
+      <c r="D267" s="20"/>
+      <c r="E267" s="29"/>
     </row>
     <row r="268" customHeight="1" spans="2:5">
-      <c r="B268" s="17" t="s">
+      <c r="B268" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C268" s="18" t="s">
+      <c r="C268" s="20" t="s">
         <v>840</v>
       </c>
-      <c r="D268" s="18"/>
-      <c r="E268" s="27"/>
+      <c r="D268" s="20"/>
+      <c r="E268" s="29"/>
     </row>
     <row r="269" customHeight="1" spans="2:5">
-      <c r="B269" s="17" t="s">
+      <c r="B269" s="19" t="s">
         <v>841</v>
       </c>
-      <c r="C269" s="18" t="s">
+      <c r="C269" s="20" t="s">
         <v>842</v>
       </c>
-      <c r="D269" s="18"/>
-      <c r="E269" s="27"/>
+      <c r="D269" s="20"/>
+      <c r="E269" s="29"/>
     </row>
     <row r="270" customHeight="1" spans="2:5">
-      <c r="B270" s="17" t="s">
+      <c r="B270" s="19" t="s">
         <v>843</v>
       </c>
-      <c r="C270" s="18" t="s">
+      <c r="C270" s="20" t="s">
         <v>844</v>
       </c>
-      <c r="D270" s="18"/>
-      <c r="E270" s="27"/>
+      <c r="D270" s="20"/>
+      <c r="E270" s="29"/>
     </row>
     <row r="271" customHeight="1" spans="2:5">
-      <c r="B271" s="17" t="s">
+      <c r="B271" s="19" t="s">
         <v>845</v>
       </c>
-      <c r="C271" s="18" t="s">
+      <c r="C271" s="20" t="s">
         <v>846</v>
       </c>
-      <c r="D271" s="18"/>
-      <c r="E271" s="27"/>
+      <c r="D271" s="20"/>
+      <c r="E271" s="29"/>
     </row>
     <row r="272" customHeight="1" spans="2:5">
-      <c r="B272" s="17" t="s">
+      <c r="B272" s="19" t="s">
         <v>847</v>
       </c>
-      <c r="C272" s="18" t="s">
+      <c r="C272" s="20" t="s">
         <v>848</v>
       </c>
-      <c r="D272" s="18"/>
-      <c r="E272" s="27"/>
+      <c r="D272" s="20"/>
+      <c r="E272" s="29"/>
     </row>
     <row r="273" customHeight="1" spans="2:5">
-      <c r="B273" s="17" t="s">
+      <c r="B273" s="19" t="s">
         <v>849</v>
       </c>
-      <c r="C273" s="18" t="s">
+      <c r="C273" s="20" t="s">
         <v>850</v>
       </c>
-      <c r="D273" s="18"/>
-      <c r="E273" s="27"/>
+      <c r="D273" s="20"/>
+      <c r="E273" s="29"/>
     </row>
     <row r="274" customHeight="1" spans="2:5">
-      <c r="B274" s="17" t="s">
+      <c r="B274" s="19" t="s">
         <v>851</v>
       </c>
-      <c r="C274" s="18" t="s">
+      <c r="C274" s="20" t="s">
         <v>852</v>
       </c>
-      <c r="D274" s="18"/>
-      <c r="E274" s="27"/>
+      <c r="D274" s="20"/>
+      <c r="E274" s="29"/>
     </row>
     <row r="275" customHeight="1" spans="2:5">
-      <c r="B275" s="17" t="s">
+      <c r="B275" s="19" t="s">
         <v>853</v>
       </c>
-      <c r="C275" s="18" t="s">
+      <c r="C275" s="20" t="s">
         <v>854</v>
       </c>
-      <c r="D275" s="18"/>
-      <c r="E275" s="27"/>
+      <c r="D275" s="20"/>
+      <c r="E275" s="29"/>
     </row>
     <row r="276" customHeight="1" spans="2:5">
-      <c r="B276" s="17" t="s">
+      <c r="B276" s="19" t="s">
         <v>855</v>
       </c>
-      <c r="C276" s="18" t="s">
+      <c r="C276" s="20" t="s">
         <v>856</v>
       </c>
-      <c r="D276" s="18"/>
-      <c r="E276" s="27"/>
+      <c r="D276" s="20"/>
+      <c r="E276" s="29"/>
     </row>
     <row r="277" customHeight="1" spans="2:5">
-      <c r="B277" s="17" t="s">
+      <c r="B277" s="19" t="s">
         <v>857</v>
       </c>
-      <c r="C277" s="18" t="s">
+      <c r="C277" s="20" t="s">
         <v>858</v>
       </c>
-      <c r="D277" s="18"/>
-      <c r="E277" s="27"/>
+      <c r="D277" s="20"/>
+      <c r="E277" s="29"/>
     </row>
     <row r="278" customHeight="1" spans="2:5">
-      <c r="B278" s="17" t="s">
+      <c r="B278" s="19" t="s">
         <v>859</v>
       </c>
-      <c r="C278" s="18" t="s">
+      <c r="C278" s="20" t="s">
         <v>860</v>
       </c>
-      <c r="D278" s="18"/>
-      <c r="E278" s="27"/>
+      <c r="D278" s="20"/>
+      <c r="E278" s="29"/>
     </row>
     <row r="279" customHeight="1" spans="2:5">
-      <c r="B279" s="17" t="s">
+      <c r="B279" s="19" t="s">
         <v>861</v>
       </c>
-      <c r="C279" s="18" t="s">
+      <c r="C279" s="20" t="s">
         <v>862</v>
       </c>
-      <c r="D279" s="18"/>
-      <c r="E279" s="27"/>
+      <c r="D279" s="20"/>
+      <c r="E279" s="29"/>
     </row>
     <row r="280" customHeight="1" spans="2:5">
-      <c r="B280" s="17" t="s">
+      <c r="B280" s="19" t="s">
         <v>863</v>
       </c>
-      <c r="C280" s="18" t="s">
+      <c r="C280" s="20" t="s">
         <v>864</v>
       </c>
-      <c r="D280" s="18"/>
-      <c r="E280" s="27"/>
+      <c r="D280" s="20"/>
+      <c r="E280" s="29"/>
     </row>
     <row r="281" customHeight="1" spans="2:5">
-      <c r="B281" s="17" t="s">
+      <c r="B281" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="C281" s="18" t="s">
+      <c r="C281" s="20" t="s">
         <v>865</v>
       </c>
-      <c r="D281" s="18"/>
-      <c r="E281" s="27"/>
+      <c r="D281" s="20"/>
+      <c r="E281" s="29"/>
     </row>
     <row r="282" customHeight="1" spans="2:5">
-      <c r="B282" s="17" t="s">
+      <c r="B282" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C282" s="18" t="s">
+      <c r="C282" s="20" t="s">
         <v>866</v>
       </c>
-      <c r="D282" s="18"/>
-      <c r="E282" s="27"/>
+      <c r="D282" s="20"/>
+      <c r="E282" s="29"/>
     </row>
     <row r="283" customHeight="1" spans="2:5">
-      <c r="B283" s="17" t="s">
+      <c r="B283" s="19" t="s">
         <v>867</v>
       </c>
-      <c r="C283" s="18" t="s">
+      <c r="C283" s="20" t="s">
         <v>868</v>
       </c>
-      <c r="D283" s="18"/>
-      <c r="E283" s="27"/>
+      <c r="D283" s="20"/>
+      <c r="E283" s="29"/>
     </row>
     <row r="284" customHeight="1" spans="2:5">
-      <c r="B284" s="17" t="s">
+      <c r="B284" s="19" t="s">
         <v>869</v>
       </c>
-      <c r="C284" s="18" t="s">
+      <c r="C284" s="20" t="s">
         <v>870</v>
       </c>
-      <c r="D284" s="18"/>
-      <c r="E284" s="27"/>
+      <c r="D284" s="20"/>
+      <c r="E284" s="29"/>
     </row>
     <row r="285" customHeight="1" spans="2:5">
-      <c r="B285" s="17" t="s">
+      <c r="B285" s="19" t="s">
         <v>871</v>
       </c>
-      <c r="C285" s="18" t="s">
+      <c r="C285" s="20" t="s">
         <v>872</v>
       </c>
-      <c r="D285" s="18"/>
-      <c r="E285" s="27"/>
+      <c r="D285" s="20"/>
+      <c r="E285" s="29"/>
     </row>
     <row r="286" customHeight="1" spans="2:5">
-      <c r="B286" s="17" t="s">
+      <c r="B286" s="19" t="s">
         <v>873</v>
       </c>
-      <c r="C286" s="18" t="s">
+      <c r="C286" s="20" t="s">
         <v>874</v>
       </c>
-      <c r="D286" s="18"/>
-      <c r="E286" s="27"/>
+      <c r="D286" s="20"/>
+      <c r="E286" s="29"/>
     </row>
     <row r="287" customHeight="1" spans="2:5">
-      <c r="B287" s="17" t="s">
+      <c r="B287" s="19" t="s">
         <v>875</v>
       </c>
-      <c r="C287" s="18" t="s">
+      <c r="C287" s="20" t="s">
         <v>876</v>
       </c>
-      <c r="D287" s="18"/>
-      <c r="E287" s="27"/>
+      <c r="D287" s="20"/>
+      <c r="E287" s="29"/>
     </row>
     <row r="288" customHeight="1" spans="2:5">
-      <c r="B288" s="17" t="s">
+      <c r="B288" s="19" t="s">
         <v>877</v>
       </c>
-      <c r="C288" s="18" t="s">
+      <c r="C288" s="20" t="s">
         <v>878</v>
       </c>
-      <c r="D288" s="18"/>
-      <c r="E288" s="27"/>
+      <c r="D288" s="20"/>
+      <c r="E288" s="29"/>
     </row>
     <row r="289" customHeight="1" spans="2:5">
-      <c r="B289" s="17" t="s">
+      <c r="B289" s="19" t="s">
         <v>879</v>
       </c>
-      <c r="C289" s="18" t="s">
+      <c r="C289" s="20" t="s">
         <v>880</v>
       </c>
-      <c r="D289" s="18"/>
-      <c r="E289" s="27"/>
+      <c r="D289" s="20"/>
+      <c r="E289" s="29"/>
     </row>
     <row r="290" customHeight="1" spans="2:5">
-      <c r="B290" s="17" t="s">
+      <c r="B290" s="19" t="s">
         <v>881</v>
       </c>
-      <c r="C290" s="18" t="s">
+      <c r="C290" s="20" t="s">
         <v>882</v>
       </c>
-      <c r="D290" s="18"/>
-      <c r="E290" s="27"/>
+      <c r="D290" s="20"/>
+      <c r="E290" s="29"/>
     </row>
     <row r="291" customHeight="1" spans="2:5">
-      <c r="B291" s="17" t="s">
+      <c r="B291" s="19" t="s">
         <v>883</v>
       </c>
-      <c r="C291" s="18" t="s">
+      <c r="C291" s="20" t="s">
         <v>884</v>
       </c>
-      <c r="D291" s="18"/>
-      <c r="E291" s="27"/>
+      <c r="D291" s="20"/>
+      <c r="E291" s="29"/>
     </row>
     <row r="292" customHeight="1" spans="2:5">
-      <c r="B292" s="17" t="s">
+      <c r="B292" s="19" t="s">
         <v>885</v>
       </c>
-      <c r="C292" s="18" t="s">
+      <c r="C292" s="20" t="s">
         <v>886</v>
       </c>
-      <c r="D292" s="18"/>
-      <c r="E292" s="27"/>
+      <c r="D292" s="20"/>
+      <c r="E292" s="29"/>
     </row>
     <row r="293" customHeight="1" spans="2:5">
-      <c r="B293" s="17" t="s">
+      <c r="B293" s="19" t="s">
         <v>887</v>
       </c>
-      <c r="C293" s="18" t="s">
+      <c r="C293" s="20" t="s">
         <v>888</v>
       </c>
-      <c r="D293" s="18"/>
-      <c r="E293" s="27"/>
+      <c r="D293" s="20"/>
+      <c r="E293" s="29"/>
     </row>
     <row r="294" customHeight="1" spans="2:5">
-      <c r="B294" s="17" t="s">
+      <c r="B294" s="19" t="s">
         <v>889</v>
       </c>
-      <c r="C294" s="18" t="s">
+      <c r="C294" s="20" t="s">
         <v>890</v>
       </c>
-      <c r="D294" s="18"/>
-      <c r="E294" s="27"/>
+      <c r="D294" s="20"/>
+      <c r="E294" s="29"/>
     </row>
     <row r="295" customHeight="1" spans="2:5">
-      <c r="B295" s="17" t="s">
+      <c r="B295" s="19" t="s">
         <v>891</v>
       </c>
-      <c r="C295" s="18" t="s">
+      <c r="C295" s="20" t="s">
         <v>892</v>
       </c>
-      <c r="D295" s="18"/>
-      <c r="E295" s="27"/>
+      <c r="D295" s="20"/>
+      <c r="E295" s="29"/>
     </row>
     <row r="296" customHeight="1" spans="2:5">
-      <c r="B296" s="17" t="s">
+      <c r="B296" s="19" t="s">
         <v>893</v>
       </c>
-      <c r="C296" s="18" t="s">
+      <c r="C296" s="20" t="s">
         <v>894</v>
       </c>
-      <c r="D296" s="18"/>
-      <c r="E296" s="27"/>
+      <c r="D296" s="20"/>
+      <c r="E296" s="29"/>
     </row>
     <row r="297" customHeight="1" spans="2:5">
-      <c r="B297" s="17" t="s">
+      <c r="B297" s="19" t="s">
         <v>895</v>
       </c>
-      <c r="C297" s="18" t="s">
+      <c r="C297" s="20" t="s">
         <v>896</v>
       </c>
-      <c r="D297" s="18"/>
-      <c r="E297" s="27"/>
+      <c r="D297" s="20"/>
+      <c r="E297" s="29"/>
     </row>
     <row r="298" customHeight="1" spans="2:5">
-      <c r="B298" s="17" t="s">
+      <c r="B298" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="C298" s="18" t="s">
+      <c r="C298" s="20" t="s">
         <v>897</v>
       </c>
-      <c r="D298" s="18"/>
-      <c r="E298" s="27"/>
+      <c r="D298" s="20"/>
+      <c r="E298" s="29"/>
     </row>
     <row r="299" customHeight="1" spans="2:5">
-      <c r="B299" s="17" t="s">
+      <c r="B299" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C299" s="18" t="s">
+      <c r="C299" s="20" t="s">
         <v>898</v>
       </c>
-      <c r="D299" s="18"/>
-      <c r="E299" s="27"/>
+      <c r="D299" s="20"/>
+      <c r="E299" s="29"/>
     </row>
     <row r="300" customHeight="1" spans="2:5">
-      <c r="B300" s="17" t="s">
+      <c r="B300" s="19" t="s">
         <v>899</v>
       </c>
-      <c r="C300" s="18" t="s">
+      <c r="C300" s="20" t="s">
         <v>900</v>
       </c>
-      <c r="D300" s="18"/>
-      <c r="E300" s="27"/>
+      <c r="D300" s="20"/>
+      <c r="E300" s="29"/>
     </row>
     <row r="301" customHeight="1" spans="2:5">
-      <c r="B301" s="17" t="s">
+      <c r="B301" s="19" t="s">
         <v>901</v>
       </c>
-      <c r="C301" s="18" t="s">
+      <c r="C301" s="20" t="s">
         <v>902</v>
       </c>
-      <c r="D301" s="18"/>
-      <c r="E301" s="27"/>
+      <c r="D301" s="20"/>
+      <c r="E301" s="29"/>
     </row>
     <row r="302" customHeight="1" spans="2:5">
-      <c r="B302" s="17" t="s">
+      <c r="B302" s="19" t="s">
         <v>903</v>
       </c>
-      <c r="C302" s="18" t="s">
+      <c r="C302" s="20" t="s">
         <v>904</v>
       </c>
-      <c r="D302" s="18"/>
-      <c r="E302" s="27"/>
+      <c r="D302" s="20"/>
+      <c r="E302" s="29"/>
     </row>
     <row r="303" customHeight="1" spans="2:5">
-      <c r="B303" s="17" t="s">
+      <c r="B303" s="19" t="s">
         <v>905</v>
       </c>
-      <c r="C303" s="18" t="s">
+      <c r="C303" s="20" t="s">
         <v>906</v>
       </c>
-      <c r="D303" s="18"/>
-      <c r="E303" s="27"/>
+      <c r="D303" s="20"/>
+      <c r="E303" s="29"/>
     </row>
     <row r="304" customHeight="1" spans="2:5">
-      <c r="B304" s="17" t="s">
+      <c r="B304" s="19" t="s">
         <v>907</v>
       </c>
-      <c r="C304" s="18" t="s">
+      <c r="C304" s="20" t="s">
         <v>908</v>
       </c>
-      <c r="D304" s="18"/>
-      <c r="E304" s="27"/>
+      <c r="D304" s="20"/>
+      <c r="E304" s="29"/>
     </row>
     <row r="305" customHeight="1" spans="2:5">
-      <c r="B305" s="17" t="s">
+      <c r="B305" s="19" t="s">
         <v>909</v>
       </c>
-      <c r="C305" s="18" t="s">
+      <c r="C305" s="20" t="s">
         <v>910</v>
       </c>
-      <c r="D305" s="18"/>
-      <c r="E305" s="27"/>
+      <c r="D305" s="20"/>
+      <c r="E305" s="29"/>
     </row>
     <row r="306" customHeight="1" spans="2:5">
-      <c r="B306" s="17" t="s">
+      <c r="B306" s="19" t="s">
         <v>911</v>
       </c>
-      <c r="C306" s="18" t="s">
+      <c r="C306" s="20" t="s">
         <v>912</v>
       </c>
-      <c r="D306" s="18"/>
-      <c r="E306" s="27"/>
+      <c r="D306" s="20"/>
+      <c r="E306" s="29"/>
     </row>
     <row r="307" customHeight="1" spans="2:5">
-      <c r="B307" s="17" t="s">
+      <c r="B307" s="19" t="s">
         <v>913</v>
       </c>
-      <c r="C307" s="18" t="s">
+      <c r="C307" s="20" t="s">
         <v>914</v>
       </c>
-      <c r="D307" s="18"/>
-      <c r="E307" s="27"/>
+      <c r="D307" s="20"/>
+      <c r="E307" s="29"/>
     </row>
     <row r="308" customHeight="1" spans="2:5">
-      <c r="B308" s="17" t="s">
+      <c r="B308" s="19" t="s">
         <v>915</v>
       </c>
-      <c r="C308" s="18" t="s">
+      <c r="C308" s="20" t="s">
         <v>916</v>
       </c>
-      <c r="D308" s="18"/>
-      <c r="E308" s="27"/>
+      <c r="D308" s="20"/>
+      <c r="E308" s="29"/>
     </row>
     <row r="309" customHeight="1" spans="2:5">
-      <c r="B309" s="17" t="s">
+      <c r="B309" s="19" t="s">
         <v>917</v>
       </c>
-      <c r="C309" s="18" t="s">
+      <c r="C309" s="20" t="s">
         <v>918</v>
       </c>
-      <c r="D309" s="18"/>
-      <c r="E309" s="27"/>
+      <c r="D309" s="20"/>
+      <c r="E309" s="29"/>
     </row>
     <row r="310" customHeight="1" spans="2:5">
-      <c r="B310" s="17" t="s">
+      <c r="B310" s="19" t="s">
         <v>919</v>
       </c>
-      <c r="C310" s="18" t="s">
+      <c r="C310" s="20" t="s">
         <v>920</v>
       </c>
-      <c r="D310" s="18"/>
-      <c r="E310" s="27"/>
+      <c r="D310" s="20"/>
+      <c r="E310" s="29"/>
     </row>
     <row r="311" customHeight="1" spans="2:5">
-      <c r="B311" s="17" t="s">
+      <c r="B311" s="19" t="s">
         <v>921</v>
       </c>
-      <c r="C311" s="18" t="s">
+      <c r="C311" s="20" t="s">
         <v>922</v>
       </c>
-      <c r="D311" s="18"/>
-      <c r="E311" s="27"/>
+      <c r="D311" s="20"/>
+      <c r="E311" s="29"/>
     </row>
     <row r="312" customHeight="1" spans="2:5">
-      <c r="B312" s="17" t="s">
+      <c r="B312" s="19" t="s">
         <v>923</v>
       </c>
-      <c r="C312" s="18" t="s">
+      <c r="C312" s="20" t="s">
         <v>924</v>
       </c>
-      <c r="D312" s="18"/>
-      <c r="E312" s="27"/>
+      <c r="D312" s="20"/>
+      <c r="E312" s="29"/>
     </row>
     <row r="313" customHeight="1" spans="2:5">
-      <c r="B313" s="17" t="s">
+      <c r="B313" s="19" t="s">
         <v>925</v>
       </c>
-      <c r="C313" s="18" t="s">
+      <c r="C313" s="20" t="s">
         <v>926</v>
       </c>
-      <c r="D313" s="18"/>
-      <c r="E313" s="27"/>
+      <c r="D313" s="20"/>
+      <c r="E313" s="29"/>
     </row>
     <row r="314" customHeight="1" spans="2:5">
-      <c r="B314" s="17" t="s">
+      <c r="B314" s="19" t="s">
         <v>927</v>
       </c>
-      <c r="C314" s="18" t="s">
+      <c r="C314" s="20" t="s">
         <v>928</v>
       </c>
-      <c r="D314" s="18"/>
-      <c r="E314" s="27"/>
+      <c r="D314" s="20"/>
+      <c r="E314" s="29"/>
     </row>
     <row r="315" customHeight="1" spans="2:5">
-      <c r="B315" s="17" t="s">
+      <c r="B315" s="19" t="s">
         <v>929</v>
       </c>
-      <c r="C315" s="18" t="s">
+      <c r="C315" s="20" t="s">
         <v>930</v>
       </c>
-      <c r="D315" s="18"/>
-      <c r="E315" s="27"/>
+      <c r="D315" s="20"/>
+      <c r="E315" s="29"/>
     </row>
     <row r="316" customHeight="1" spans="2:5">
-      <c r="B316" s="17" t="s">
+      <c r="B316" s="19" t="s">
         <v>931</v>
       </c>
-      <c r="C316" s="18" t="s">
+      <c r="C316" s="20" t="s">
         <v>932</v>
       </c>
-      <c r="D316" s="18"/>
-      <c r="E316" s="27"/>
+      <c r="D316" s="20"/>
+      <c r="E316" s="29"/>
     </row>
     <row r="317" customHeight="1" spans="2:5">
-      <c r="B317" s="17" t="s">
+      <c r="B317" s="19" t="s">
         <v>933</v>
       </c>
-      <c r="C317" s="18" t="s">
+      <c r="C317" s="20" t="s">
         <v>934</v>
       </c>
-      <c r="D317" s="18"/>
-      <c r="E317" s="27"/>
+      <c r="D317" s="20"/>
+      <c r="E317" s="29"/>
     </row>
     <row r="318" customHeight="1" spans="2:5">
-      <c r="B318" s="17" t="s">
+      <c r="B318" s="19" t="s">
         <v>935</v>
       </c>
-      <c r="C318" s="18" t="s">
+      <c r="C318" s="20" t="s">
         <v>936</v>
       </c>
-      <c r="D318" s="18"/>
-      <c r="E318" s="27"/>
+      <c r="D318" s="20"/>
+      <c r="E318" s="29"/>
     </row>
     <row r="319" customHeight="1" spans="2:5">
-      <c r="B319" s="17" t="s">
+      <c r="B319" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="C319" s="18"/>
-      <c r="D319" s="18"/>
-      <c r="E319" s="27"/>
+      <c r="C319" s="20"/>
+      <c r="D319" s="20"/>
+      <c r="E319" s="29"/>
     </row>
     <row r="320" customHeight="1" spans="2:5">
-      <c r="B320" s="17" t="s">
+      <c r="B320" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C320" s="18"/>
-      <c r="D320" s="18"/>
-      <c r="E320" s="27"/>
+      <c r="C320" s="20"/>
+      <c r="D320" s="20"/>
+      <c r="E320" s="29"/>
     </row>
     <row r="321" customHeight="1" spans="2:5">
-      <c r="B321" s="17" t="s">
+      <c r="B321" s="19" t="s">
         <v>937</v>
       </c>
-      <c r="C321" s="18"/>
-      <c r="D321" s="18"/>
-      <c r="E321" s="27"/>
+      <c r="C321" s="20"/>
+      <c r="D321" s="20"/>
+      <c r="E321" s="29"/>
     </row>
     <row r="322" customHeight="1" spans="2:5">
-      <c r="B322" s="17" t="s">
+      <c r="B322" s="19" t="s">
         <v>938</v>
       </c>
-      <c r="C322" s="18"/>
-      <c r="D322" s="18"/>
-      <c r="E322" s="27"/>
+      <c r="C322" s="20"/>
+      <c r="D322" s="20"/>
+      <c r="E322" s="29"/>
     </row>
     <row r="323" customHeight="1" spans="2:5">
-      <c r="B323" s="17" t="s">
+      <c r="B323" s="19" t="s">
         <v>939</v>
       </c>
-      <c r="C323" s="18"/>
-      <c r="D323" s="18"/>
-      <c r="E323" s="27"/>
+      <c r="C323" s="20"/>
+      <c r="D323" s="20"/>
+      <c r="E323" s="29"/>
     </row>
     <row r="324" customHeight="1" spans="2:5">
-      <c r="B324" s="17" t="s">
+      <c r="B324" s="19" t="s">
         <v>940</v>
       </c>
-      <c r="C324" s="18"/>
-      <c r="D324" s="18"/>
-      <c r="E324" s="27"/>
+      <c r="C324" s="20"/>
+      <c r="D324" s="20"/>
+      <c r="E324" s="29"/>
     </row>
     <row r="325" customHeight="1" spans="2:5">
-      <c r="B325" s="17" t="s">
+      <c r="B325" s="19" t="s">
         <v>941</v>
       </c>
-      <c r="C325" s="18"/>
-      <c r="D325" s="18"/>
-      <c r="E325" s="27"/>
+      <c r="C325" s="20"/>
+      <c r="D325" s="20"/>
+      <c r="E325" s="29"/>
     </row>
     <row r="326" customHeight="1" spans="2:5">
-      <c r="B326" s="17" t="s">
+      <c r="B326" s="19" t="s">
         <v>942</v>
       </c>
-      <c r="C326" s="18"/>
-      <c r="D326" s="18"/>
-      <c r="E326" s="27"/>
+      <c r="C326" s="20"/>
+      <c r="D326" s="20"/>
+      <c r="E326" s="29"/>
     </row>
     <row r="327" customHeight="1" spans="2:5">
-      <c r="B327" s="17" t="s">
+      <c r="B327" s="19" t="s">
         <v>943</v>
       </c>
-      <c r="C327" s="18"/>
-      <c r="D327" s="18"/>
-      <c r="E327" s="27"/>
+      <c r="C327" s="20"/>
+      <c r="D327" s="20"/>
+      <c r="E327" s="29"/>
     </row>
     <row r="328" customHeight="1" spans="2:5">
-      <c r="B328" s="17" t="s">
+      <c r="B328" s="19" t="s">
         <v>944</v>
       </c>
-      <c r="C328" s="18"/>
-      <c r="D328" s="18"/>
-      <c r="E328" s="27"/>
+      <c r="C328" s="20"/>
+      <c r="D328" s="20"/>
+      <c r="E328" s="29"/>
     </row>
     <row r="329" customHeight="1" spans="2:5">
-      <c r="B329" s="17" t="s">
+      <c r="B329" s="19" t="s">
         <v>945</v>
       </c>
-      <c r="C329" s="18"/>
-      <c r="D329" s="18"/>
-      <c r="E329" s="27"/>
+      <c r="C329" s="20"/>
+      <c r="D329" s="20"/>
+      <c r="E329" s="29"/>
     </row>
     <row r="330" customHeight="1" spans="2:5">
-      <c r="B330" s="17" t="s">
+      <c r="B330" s="19" t="s">
         <v>946</v>
       </c>
-      <c r="C330" s="18"/>
-      <c r="D330" s="18"/>
-      <c r="E330" s="27"/>
+      <c r="C330" s="20"/>
+      <c r="D330" s="20"/>
+      <c r="E330" s="29"/>
     </row>
     <row r="331" customHeight="1" spans="2:5">
-      <c r="B331" s="17" t="s">
+      <c r="B331" s="19" t="s">
         <v>947</v>
       </c>
-      <c r="C331" s="18"/>
-      <c r="D331" s="18"/>
-      <c r="E331" s="27"/>
+      <c r="C331" s="20"/>
+      <c r="D331" s="20"/>
+      <c r="E331" s="29"/>
     </row>
     <row r="332" customHeight="1" spans="2:5">
-      <c r="B332" s="17" t="s">
+      <c r="B332" s="19" t="s">
         <v>948</v>
       </c>
-      <c r="C332" s="18"/>
-      <c r="D332" s="18"/>
-      <c r="E332" s="27"/>
+      <c r="C332" s="20"/>
+      <c r="D332" s="20"/>
+      <c r="E332" s="29"/>
     </row>
     <row r="333" customHeight="1" spans="2:5">
-      <c r="B333" s="17" t="s">
+      <c r="B333" s="19" t="s">
         <v>949</v>
       </c>
-      <c r="C333" s="18"/>
-      <c r="D333" s="18"/>
-      <c r="E333" s="27"/>
+      <c r="C333" s="20"/>
+      <c r="D333" s="20"/>
+      <c r="E333" s="29"/>
     </row>
     <row r="334" customHeight="1" spans="2:5">
-      <c r="B334" s="17" t="s">
+      <c r="B334" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="C334" s="18"/>
-      <c r="D334" s="18"/>
-      <c r="E334" s="27"/>
+      <c r="C334" s="20"/>
+      <c r="D334" s="20"/>
+      <c r="E334" s="29"/>
     </row>
     <row r="335" customHeight="1" spans="2:5">
-      <c r="B335" s="17" t="s">
+      <c r="B335" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C335" s="18"/>
-      <c r="D335" s="18"/>
-      <c r="E335" s="27"/>
+      <c r="C335" s="20"/>
+      <c r="D335" s="20"/>
+      <c r="E335" s="29"/>
     </row>
     <row r="336" customHeight="1" spans="2:5">
-      <c r="B336" s="17" t="s">
+      <c r="B336" s="19" t="s">
         <v>950</v>
       </c>
-      <c r="C336" s="18"/>
-      <c r="D336" s="18"/>
-      <c r="E336" s="27"/>
+      <c r="C336" s="20"/>
+      <c r="D336" s="20"/>
+      <c r="E336" s="29"/>
     </row>
     <row r="337" customHeight="1" spans="2:5">
-      <c r="B337" s="17" t="s">
+      <c r="B337" s="19" t="s">
         <v>951</v>
       </c>
-      <c r="C337" s="18"/>
-      <c r="D337" s="18"/>
-      <c r="E337" s="27"/>
+      <c r="C337" s="20"/>
+      <c r="D337" s="20"/>
+      <c r="E337" s="29"/>
     </row>
     <row r="338" customHeight="1" spans="2:5">
-      <c r="B338" s="17" t="s">
+      <c r="B338" s="19" t="s">
         <v>952</v>
       </c>
-      <c r="C338" s="18"/>
-      <c r="D338" s="18"/>
-      <c r="E338" s="27"/>
+      <c r="C338" s="20"/>
+      <c r="D338" s="20"/>
+      <c r="E338" s="29"/>
     </row>
     <row r="339" customHeight="1" spans="2:5">
-      <c r="B339" s="17" t="s">
+      <c r="B339" s="19" t="s">
         <v>953</v>
       </c>
-      <c r="C339" s="18"/>
-      <c r="D339" s="18"/>
-      <c r="E339" s="27"/>
+      <c r="C339" s="20"/>
+      <c r="D339" s="20"/>
+      <c r="E339" s="29"/>
     </row>
     <row r="340" customHeight="1" spans="2:5">
-      <c r="B340" s="17" t="s">
+      <c r="B340" s="19" t="s">
         <v>954</v>
       </c>
-      <c r="C340" s="18"/>
-      <c r="D340" s="18"/>
-      <c r="E340" s="27"/>
+      <c r="C340" s="20"/>
+      <c r="D340" s="20"/>
+      <c r="E340" s="29"/>
     </row>
     <row r="341" customHeight="1" spans="2:5">
-      <c r="B341" s="17" t="s">
+      <c r="B341" s="19" t="s">
         <v>955</v>
       </c>
-      <c r="C341" s="18"/>
-      <c r="D341" s="18"/>
-      <c r="E341" s="27"/>
+      <c r="C341" s="20"/>
+      <c r="D341" s="20"/>
+      <c r="E341" s="29"/>
     </row>
     <row r="342" customHeight="1" spans="2:5">
-      <c r="B342" s="17" t="s">
+      <c r="B342" s="19" t="s">
         <v>956</v>
       </c>
-      <c r="C342" s="18"/>
-      <c r="D342" s="18"/>
-      <c r="E342" s="27"/>
+      <c r="C342" s="20"/>
+      <c r="D342" s="20"/>
+      <c r="E342" s="29"/>
     </row>
     <row r="343" customHeight="1" spans="2:5">
-      <c r="B343" s="17" t="s">
+      <c r="B343" s="19" t="s">
         <v>957</v>
       </c>
-      <c r="C343" s="18"/>
-      <c r="D343" s="18"/>
-      <c r="E343" s="27"/>
+      <c r="C343" s="20"/>
+      <c r="D343" s="20"/>
+      <c r="E343" s="29"/>
     </row>
     <row r="344" customHeight="1" spans="2:5">
-      <c r="B344" s="17" t="s">
+      <c r="B344" s="19" t="s">
         <v>958</v>
       </c>
-      <c r="C344" s="18"/>
-      <c r="D344" s="18"/>
-      <c r="E344" s="27"/>
+      <c r="C344" s="20"/>
+      <c r="D344" s="20"/>
+      <c r="E344" s="29"/>
     </row>
     <row r="345" customHeight="1" spans="2:5">
-      <c r="B345" s="17" t="s">
+      <c r="B345" s="19" t="s">
         <v>959</v>
       </c>
-      <c r="C345" s="18"/>
-      <c r="D345" s="18"/>
-      <c r="E345" s="27"/>
+      <c r="C345" s="20"/>
+      <c r="D345" s="20"/>
+      <c r="E345" s="29"/>
     </row>
     <row r="346" customHeight="1" spans="2:5">
-      <c r="B346" s="17" t="s">
+      <c r="B346" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="C346" s="18"/>
-      <c r="D346" s="18"/>
-      <c r="E346" s="27"/>
+      <c r="C346" s="20"/>
+      <c r="D346" s="20"/>
+      <c r="E346" s="29"/>
     </row>
     <row r="347" customHeight="1" spans="2:5">
-      <c r="B347" s="17" t="s">
+      <c r="B347" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C347" s="18"/>
-      <c r="D347" s="18"/>
-      <c r="E347" s="27"/>
+      <c r="C347" s="20"/>
+      <c r="D347" s="20"/>
+      <c r="E347" s="29"/>
     </row>
     <row r="348" customHeight="1" spans="2:5">
-      <c r="B348" s="17" t="s">
+      <c r="B348" s="19" t="s">
         <v>960</v>
       </c>
-      <c r="C348" s="18"/>
-      <c r="D348" s="18"/>
-      <c r="E348" s="27"/>
+      <c r="C348" s="20"/>
+      <c r="D348" s="20"/>
+      <c r="E348" s="29"/>
     </row>
     <row r="349" customHeight="1" spans="2:5">
-      <c r="B349" s="17" t="s">
+      <c r="B349" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C349" s="18"/>
-      <c r="D349" s="18"/>
-      <c r="E349" s="27"/>
+      <c r="C349" s="20"/>
+      <c r="D349" s="20"/>
+      <c r="E349" s="29"/>
     </row>
     <row r="350" customHeight="1" spans="2:5">
-      <c r="B350" s="17" t="s">
+      <c r="B350" s="19" t="s">
         <v>961</v>
       </c>
-      <c r="C350" s="18"/>
-      <c r="D350" s="18"/>
-      <c r="E350" s="27"/>
+      <c r="C350" s="20"/>
+      <c r="D350" s="20"/>
+      <c r="E350" s="29"/>
     </row>
     <row r="351" customHeight="1" spans="2:5">
-      <c r="B351" s="17" t="s">
+      <c r="B351" s="19" t="s">
         <v>962</v>
       </c>
-      <c r="C351" s="18"/>
-      <c r="D351" s="18"/>
-      <c r="E351" s="27"/>
+      <c r="C351" s="20"/>
+      <c r="D351" s="20"/>
+      <c r="E351" s="29"/>
     </row>
     <row r="352" customHeight="1" spans="2:5">
-      <c r="B352" s="17" t="s">
+      <c r="B352" s="19" t="s">
         <v>963</v>
       </c>
-      <c r="C352" s="18"/>
-      <c r="D352" s="18"/>
-      <c r="E352" s="27"/>
+      <c r="C352" s="20"/>
+      <c r="D352" s="20"/>
+      <c r="E352" s="29"/>
     </row>
     <row r="353" customHeight="1" spans="2:5">
-      <c r="B353" s="17" t="s">
+      <c r="B353" s="19" t="s">
         <v>964</v>
       </c>
-      <c r="C353" s="18"/>
-      <c r="D353" s="18"/>
-      <c r="E353" s="27"/>
+      <c r="C353" s="20"/>
+      <c r="D353" s="20"/>
+      <c r="E353" s="29"/>
     </row>
     <row r="354" customHeight="1" spans="2:5">
-      <c r="B354" s="17" t="s">
+      <c r="B354" s="19" t="s">
         <v>965</v>
       </c>
-      <c r="C354" s="18"/>
-      <c r="D354" s="18"/>
-      <c r="E354" s="27"/>
+      <c r="C354" s="20"/>
+      <c r="D354" s="20"/>
+      <c r="E354" s="29"/>
     </row>
     <row r="355" customHeight="1" spans="2:5">
-      <c r="B355" s="17" t="s">
+      <c r="B355" s="19" t="s">
         <v>966</v>
       </c>
-      <c r="C355" s="18"/>
-      <c r="D355" s="18"/>
-      <c r="E355" s="27"/>
+      <c r="C355" s="20"/>
+      <c r="D355" s="20"/>
+      <c r="E355" s="29"/>
     </row>
     <row r="356" customHeight="1" spans="2:5">
-      <c r="B356" s="17" t="s">
+      <c r="B356" s="19" t="s">
         <v>967</v>
       </c>
-      <c r="C356" s="18"/>
-      <c r="D356" s="18"/>
-      <c r="E356" s="27"/>
+      <c r="C356" s="20"/>
+      <c r="D356" s="20"/>
+      <c r="E356" s="29"/>
     </row>
     <row r="357" customHeight="1" spans="2:5">
-      <c r="B357" s="17" t="s">
+      <c r="B357" s="19" t="s">
         <v>968</v>
       </c>
-      <c r="C357" s="18"/>
-      <c r="D357" s="18"/>
-      <c r="E357" s="27"/>
+      <c r="C357" s="20"/>
+      <c r="D357" s="20"/>
+      <c r="E357" s="29"/>
     </row>
     <row r="358" customHeight="1" spans="2:5">
-      <c r="B358" s="17" t="s">
+      <c r="B358" s="19" t="s">
         <v>969</v>
       </c>
-      <c r="C358" s="18"/>
-      <c r="D358" s="18"/>
-      <c r="E358" s="27"/>
+      <c r="C358" s="20"/>
+      <c r="D358" s="20"/>
+      <c r="E358" s="29"/>
     </row>
     <row r="359" customHeight="1" spans="2:5">
-      <c r="B359" s="17" t="s">
+      <c r="B359" s="19" t="s">
         <v>970</v>
       </c>
-      <c r="C359" s="18"/>
-      <c r="D359" s="18"/>
-      <c r="E359" s="27"/>
+      <c r="C359" s="20"/>
+      <c r="D359" s="20"/>
+      <c r="E359" s="29"/>
     </row>
     <row r="360" customHeight="1" spans="2:5">
-      <c r="B360" s="17" t="s">
+      <c r="B360" s="19" t="s">
         <v>971</v>
       </c>
-      <c r="C360" s="18"/>
-      <c r="D360" s="18"/>
-      <c r="E360" s="27"/>
+      <c r="C360" s="20"/>
+      <c r="D360" s="20"/>
+      <c r="E360" s="29"/>
     </row>
     <row r="361" customHeight="1" spans="2:5">
-      <c r="B361" s="17" t="s">
+      <c r="B361" s="19" t="s">
         <v>936</v>
       </c>
-      <c r="C361" s="18"/>
-      <c r="D361" s="18"/>
-      <c r="E361" s="27"/>
+      <c r="C361" s="20"/>
+      <c r="D361" s="20"/>
+      <c r="E361" s="29"/>
     </row>
     <row r="362" customHeight="1" spans="2:5">
-      <c r="B362" s="30"/>
-      <c r="C362" s="31"/>
-      <c r="D362" s="31"/>
-      <c r="E362" s="33"/>
+      <c r="B362" s="32"/>
+      <c r="C362" s="33"/>
+      <c r="D362" s="33"/>
+      <c r="E362" s="35"/>
     </row>
     <row r="363" customHeight="1" spans="2:5">
-      <c r="B363" s="32"/>
-      <c r="C363" s="32"/>
-      <c r="D363" s="32"/>
-      <c r="E363" s="32"/>
+      <c r="B363" s="34"/>
+      <c r="C363" s="34"/>
+      <c r="D363" s="34"/>
+      <c r="E363" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/books_courses.xlsx
+++ b/books_courses.xlsx
@@ -3034,10 +3034,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -3079,8 +3079,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3116,9 +3117,62 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3132,15 +3186,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -3156,70 +3216,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3274,25 +3274,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3304,19 +3292,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3328,37 +3304,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3376,7 +3322,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3388,7 +3346,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3400,13 +3358,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3418,19 +3382,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3448,13 +3418,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3769,30 +3769,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3815,6 +3791,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3852,6 +3843,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -3860,121 +3860,121 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3989,23 +3989,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4086,6 +4086,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4180,6 +4186,7 @@
       <color rgb="00001900"/>
       <color rgb="00141225"/>
       <color rgb="00142C25"/>
+      <color rgb="00FFC000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -4450,8 +4457,8 @@
   <sheetPr/>
   <dimension ref="B1:E363"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="121" customHeight="1" outlineLevelCol="4"/>
@@ -4564,7 +4571,7 @@
       <c r="D10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="29" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4578,7 +4585,7 @@
       <c r="D11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="29" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4592,7 +4599,7 @@
       <c r="D12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="29" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4606,7 +4613,7 @@
       <c r="D13" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="29" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4620,7 +4627,7 @@
       <c r="D14" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="29" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4634,7 +4641,7 @@
       <c r="D15" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="29" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4648,7 +4655,7 @@
       <c r="D16" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="29" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4662,7 +4669,7 @@
       <c r="D17" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="29" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4676,7 +4683,7 @@
       <c r="D18" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="30" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4690,7 +4697,7 @@
       <c r="D19" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="30" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4704,7 +4711,7 @@
       <c r="D20" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="30" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4718,7 +4725,7 @@
       <c r="D21" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="30" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4732,7 +4739,7 @@
       <c r="D22" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="30" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4746,7 +4753,7 @@
       <c r="D23" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="28" t="s">
+      <c r="E23" s="30" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4760,7 +4767,7 @@
       <c r="D24" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="30" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4774,7 +4781,7 @@
       <c r="D25" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="30" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4788,7 +4795,7 @@
       <c r="D26" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="30" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4802,7 +4809,7 @@
       <c r="D27" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="30" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4816,7 +4823,7 @@
       <c r="D28" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="29" t="s">
+      <c r="E28" s="31" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4830,7 +4837,7 @@
       <c r="D29" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="E29" s="32" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4844,7 +4851,7 @@
       <c r="D30" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="32" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4858,7 +4865,7 @@
       <c r="D31" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="E31" s="32" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4872,7 +4879,7 @@
       <c r="D32" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="E32" s="30" t="s">
+      <c r="E32" s="32" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4886,7 +4893,7 @@
       <c r="D33" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="32" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4900,7 +4907,7 @@
       <c r="D34" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="E34" s="32" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4914,7 +4921,7 @@
       <c r="D35" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="32" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4928,7 +4935,7 @@
       <c r="D36" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="E36" s="30" t="s">
+      <c r="E36" s="32" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4942,7 +4949,7 @@
       <c r="D37" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="E37" s="30" t="s">
+      <c r="E37" s="32" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4956,7 +4963,7 @@
       <c r="D38" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="E38" s="30" t="s">
+      <c r="E38" s="32" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4970,7 +4977,7 @@
       <c r="D39" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E39" s="30" t="s">
+      <c r="E39" s="32" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4984,7 +4991,7 @@
       <c r="D40" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="E40" s="29" t="s">
+      <c r="E40" s="31" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4998,7 +5005,7 @@
       <c r="D41" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="E41" s="29" t="s">
+      <c r="E41" s="31" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5012,7 +5019,7 @@
       <c r="D42" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="E42" s="29" t="s">
+      <c r="E42" s="31" t="s">
         <v>145</v>
       </c>
     </row>
@@ -5026,7 +5033,7 @@
       <c r="D43" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="E43" s="29" t="s">
+      <c r="E43" s="31" t="s">
         <v>149</v>
       </c>
     </row>
@@ -5040,7 +5047,7 @@
       <c r="D44" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="E44" s="29" t="s">
+      <c r="E44" s="31" t="s">
         <v>153</v>
       </c>
     </row>
@@ -5054,7 +5061,7 @@
       <c r="D45" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="E45" s="29" t="s">
+      <c r="E45" s="31" t="s">
         <v>157</v>
       </c>
     </row>
@@ -5068,7 +5075,7 @@
       <c r="D46" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="E46" s="29" t="s">
+      <c r="E46" s="31" t="s">
         <v>161</v>
       </c>
     </row>
@@ -5082,7 +5089,7 @@
       <c r="D47" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="E47" s="29" t="s">
+      <c r="E47" s="31" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5096,7 +5103,7 @@
       <c r="D48" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="E48" s="29" t="s">
+      <c r="E48" s="31" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5110,7 +5117,7 @@
       <c r="D49" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="E49" s="29" t="s">
+      <c r="E49" s="31" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5124,7 +5131,7 @@
       <c r="D50" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="E50" s="29" t="s">
+      <c r="E50" s="31" t="s">
         <v>177</v>
       </c>
     </row>
@@ -5138,7 +5145,7 @@
       <c r="D51" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E51" s="29" t="s">
+      <c r="E51" s="31" t="s">
         <v>181</v>
       </c>
     </row>
@@ -5152,7 +5159,7 @@
       <c r="D52" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="E52" s="29" t="s">
+      <c r="E52" s="31" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5166,7 +5173,7 @@
       <c r="D53" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="E53" s="29" t="s">
+      <c r="E53" s="31" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5180,7 +5187,7 @@
       <c r="D54" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="E54" s="29" t="s">
+      <c r="E54" s="31" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5194,7 +5201,7 @@
       <c r="D55" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="E55" s="29" t="s">
+      <c r="E55" s="31" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5208,7 +5215,7 @@
       <c r="D56" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="E56" s="29" t="s">
+      <c r="E56" s="31" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5222,7 +5229,7 @@
       <c r="D57" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="E57" s="29" t="s">
+      <c r="E57" s="31" t="s">
         <v>204</v>
       </c>
     </row>
@@ -5236,7 +5243,7 @@
       <c r="D58" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="E58" s="29" t="s">
+      <c r="E58" s="31" t="s">
         <v>208</v>
       </c>
     </row>
@@ -5250,7 +5257,7 @@
       <c r="D59" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="E59" s="29" t="s">
+      <c r="E59" s="31" t="s">
         <v>212</v>
       </c>
     </row>
@@ -5264,7 +5271,7 @@
       <c r="D60" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="E60" s="29" t="s">
+      <c r="E60" s="31" t="s">
         <v>216</v>
       </c>
     </row>
@@ -5278,7 +5285,7 @@
       <c r="D61" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="E61" s="29" t="s">
+      <c r="E61" s="31" t="s">
         <v>220</v>
       </c>
     </row>
@@ -5292,7 +5299,7 @@
       <c r="D62" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="E62" s="29" t="s">
+      <c r="E62" s="31" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5306,7 +5313,7 @@
       <c r="D63" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="E63" s="29" t="s">
+      <c r="E63" s="31" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5320,7 +5327,7 @@
       <c r="D64" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="E64" s="29" t="s">
+      <c r="E64" s="31" t="s">
         <v>232</v>
       </c>
     </row>
@@ -5334,7 +5341,7 @@
       <c r="D65" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="E65" s="29" t="s">
+      <c r="E65" s="31" t="s">
         <v>236</v>
       </c>
     </row>
@@ -5348,7 +5355,7 @@
       <c r="D66" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="E66" s="29" t="s">
+      <c r="E66" s="31" t="s">
         <v>240</v>
       </c>
     </row>
@@ -5362,7 +5369,7 @@
       <c r="D67" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="E67" s="29" t="s">
+      <c r="E67" s="31" t="s">
         <v>244</v>
       </c>
     </row>
@@ -5376,7 +5383,7 @@
       <c r="D68" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="E68" s="29" t="s">
+      <c r="E68" s="31" t="s">
         <v>248</v>
       </c>
     </row>
@@ -5390,7 +5397,7 @@
       <c r="D69" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="E69" s="29" t="s">
+      <c r="E69" s="31" t="s">
         <v>252</v>
       </c>
     </row>
@@ -5404,7 +5411,7 @@
       <c r="D70" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="E70" s="29" t="s">
+      <c r="E70" s="31" t="s">
         <v>256</v>
       </c>
     </row>
@@ -5418,7 +5425,7 @@
       <c r="D71" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="E71" s="29" t="s">
+      <c r="E71" s="31" t="s">
         <v>259</v>
       </c>
     </row>
@@ -5432,7 +5439,7 @@
       <c r="D72" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="E72" s="29" t="s">
+      <c r="E72" s="31" t="s">
         <v>262</v>
       </c>
     </row>
@@ -5446,7 +5453,7 @@
       <c r="D73" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="E73" s="29" t="s">
+      <c r="E73" s="31" t="s">
         <v>266</v>
       </c>
     </row>
@@ -5460,7 +5467,7 @@
       <c r="D74" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="E74" s="29" t="s">
+      <c r="E74" s="31" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5474,7 +5481,7 @@
       <c r="D75" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="E75" s="29" t="s">
+      <c r="E75" s="31" t="s">
         <v>274</v>
       </c>
     </row>
@@ -5488,7 +5495,7 @@
       <c r="D76" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="E76" s="29" t="s">
+      <c r="E76" s="31" t="s">
         <v>278</v>
       </c>
     </row>
@@ -5502,7 +5509,7 @@
       <c r="D77" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="E77" s="29" t="s">
+      <c r="E77" s="31" t="s">
         <v>282</v>
       </c>
     </row>
@@ -5516,7 +5523,7 @@
       <c r="D78" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="E78" s="29" t="s">
+      <c r="E78" s="31" t="s">
         <v>286</v>
       </c>
     </row>
@@ -5530,7 +5537,7 @@
       <c r="D79" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="E79" s="29" t="s">
+      <c r="E79" s="31" t="s">
         <v>290</v>
       </c>
     </row>
@@ -5544,7 +5551,7 @@
       <c r="D80" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="E80" s="29" t="s">
+      <c r="E80" s="31" t="s">
         <v>294</v>
       </c>
     </row>
@@ -5558,7 +5565,7 @@
       <c r="D81" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="E81" s="29" t="s">
+      <c r="E81" s="31" t="s">
         <v>298</v>
       </c>
     </row>
@@ -5572,7 +5579,7 @@
       <c r="D82" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="E82" s="29" t="s">
+      <c r="E82" s="31" t="s">
         <v>302</v>
       </c>
     </row>
@@ -5586,7 +5593,7 @@
       <c r="D83" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="E83" s="29" t="s">
+      <c r="E83" s="31" t="s">
         <v>306</v>
       </c>
     </row>
@@ -5600,7 +5607,7 @@
       <c r="D84" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="E84" s="29" t="s">
+      <c r="E84" s="31" t="s">
         <v>310</v>
       </c>
     </row>
@@ -5614,7 +5621,7 @@
       <c r="D85" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="E85" s="29" t="s">
+      <c r="E85" s="31" t="s">
         <v>313</v>
       </c>
     </row>
@@ -5628,7 +5635,7 @@
       <c r="D86" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="E86" s="29" t="s">
+      <c r="E86" s="31" t="s">
         <v>317</v>
       </c>
     </row>
@@ -5642,7 +5649,7 @@
       <c r="D87" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="E87" s="29" t="s">
+      <c r="E87" s="31" t="s">
         <v>321</v>
       </c>
     </row>
@@ -5656,7 +5663,7 @@
       <c r="D88" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="E88" s="29" t="s">
+      <c r="E88" s="31" t="s">
         <v>325</v>
       </c>
     </row>
@@ -5670,7 +5677,7 @@
       <c r="D89" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="E89" s="29" t="s">
+      <c r="E89" s="31" t="s">
         <v>329</v>
       </c>
     </row>
@@ -5684,7 +5691,7 @@
       <c r="D90" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="E90" s="29" t="s">
+      <c r="E90" s="31" t="s">
         <v>333</v>
       </c>
     </row>
@@ -5698,7 +5705,7 @@
       <c r="D91" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="E91" s="29" t="s">
+      <c r="E91" s="31" t="s">
         <v>337</v>
       </c>
     </row>
@@ -5712,7 +5719,7 @@
       <c r="D92" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="E92" s="29" t="s">
+      <c r="E92" s="31" t="s">
         <v>341</v>
       </c>
     </row>
@@ -5726,7 +5733,7 @@
       <c r="D93" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="E93" s="29" t="s">
+      <c r="E93" s="31" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5740,7 +5747,7 @@
       <c r="D94" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="E94" s="29" t="s">
+      <c r="E94" s="31" t="s">
         <v>349</v>
       </c>
     </row>
@@ -5754,7 +5761,7 @@
       <c r="D95" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="E95" s="29" t="s">
+      <c r="E95" s="31" t="s">
         <v>353</v>
       </c>
     </row>
@@ -5768,7 +5775,7 @@
       <c r="D96" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="E96" s="29" t="s">
+      <c r="E96" s="31" t="s">
         <v>356</v>
       </c>
     </row>
@@ -5782,7 +5789,7 @@
       <c r="D97" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="E97" s="29" t="s">
+      <c r="E97" s="31" t="s">
         <v>359</v>
       </c>
     </row>
@@ -5796,7 +5803,7 @@
       <c r="D98" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="E98" s="29" t="s">
+      <c r="E98" s="31" t="s">
         <v>363</v>
       </c>
     </row>
@@ -5810,7 +5817,7 @@
       <c r="D99" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="E99" s="29" t="s">
+      <c r="E99" s="31" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5824,7 +5831,7 @@
       <c r="D100" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="E100" s="29" t="s">
+      <c r="E100" s="31" t="s">
         <v>371</v>
       </c>
     </row>
@@ -5838,7 +5845,7 @@
       <c r="D101" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="E101" s="29" t="s">
+      <c r="E101" s="31" t="s">
         <v>375</v>
       </c>
     </row>
@@ -5852,7 +5859,7 @@
       <c r="D102" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="E102" s="29" t="s">
+      <c r="E102" s="31" t="s">
         <v>379</v>
       </c>
     </row>
@@ -5866,7 +5873,7 @@
       <c r="D103" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="E103" s="29" t="s">
+      <c r="E103" s="31" t="s">
         <v>383</v>
       </c>
     </row>
@@ -5880,7 +5887,7 @@
       <c r="D104" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="E104" s="29" t="s">
+      <c r="E104" s="31" t="s">
         <v>387</v>
       </c>
     </row>
@@ -5894,7 +5901,7 @@
       <c r="D105" s="20" t="s">
         <v>390</v>
       </c>
-      <c r="E105" s="29" t="s">
+      <c r="E105" s="31" t="s">
         <v>391</v>
       </c>
     </row>
@@ -5908,7 +5915,7 @@
       <c r="D106" s="20" t="s">
         <v>394</v>
       </c>
-      <c r="E106" s="29" t="s">
+      <c r="E106" s="31" t="s">
         <v>395</v>
       </c>
     </row>
@@ -5922,7 +5929,7 @@
       <c r="D107" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="E107" s="29" t="s">
+      <c r="E107" s="31" t="s">
         <v>399</v>
       </c>
     </row>
@@ -5936,7 +5943,7 @@
       <c r="D108" s="20" t="s">
         <v>402</v>
       </c>
-      <c r="E108" s="29" t="s">
+      <c r="E108" s="31" t="s">
         <v>403</v>
       </c>
     </row>
@@ -5950,7 +5957,7 @@
       <c r="D109" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="E109" s="29" t="s">
+      <c r="E109" s="31" t="s">
         <v>407</v>
       </c>
     </row>
@@ -5964,7 +5971,7 @@
       <c r="D110" s="20" t="s">
         <v>410</v>
       </c>
-      <c r="E110" s="29" t="s">
+      <c r="E110" s="31" t="s">
         <v>411</v>
       </c>
     </row>
@@ -5978,7 +5985,7 @@
       <c r="D111" s="20" t="s">
         <v>414</v>
       </c>
-      <c r="E111" s="29" t="s">
+      <c r="E111" s="31" t="s">
         <v>415</v>
       </c>
     </row>
@@ -5992,7 +5999,7 @@
       <c r="D112" s="20" t="s">
         <v>417</v>
       </c>
-      <c r="E112" s="29" t="s">
+      <c r="E112" s="31" t="s">
         <v>418</v>
       </c>
     </row>
@@ -6006,7 +6013,7 @@
       <c r="D113" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="E113" s="29" t="s">
+      <c r="E113" s="31" t="s">
         <v>420</v>
       </c>
     </row>
@@ -6020,7 +6027,7 @@
       <c r="D114" s="20" t="s">
         <v>423</v>
       </c>
-      <c r="E114" s="29" t="s">
+      <c r="E114" s="31" t="s">
         <v>424</v>
       </c>
     </row>
@@ -6034,7 +6041,7 @@
       <c r="D115" s="20" t="s">
         <v>427</v>
       </c>
-      <c r="E115" s="29" t="s">
+      <c r="E115" s="31" t="s">
         <v>428</v>
       </c>
     </row>
@@ -6048,7 +6055,7 @@
       <c r="D116" s="20" t="s">
         <v>431</v>
       </c>
-      <c r="E116" s="29" t="s">
+      <c r="E116" s="31" t="s">
         <v>432</v>
       </c>
     </row>
@@ -6062,7 +6069,7 @@
       <c r="D117" s="20" t="s">
         <v>435</v>
       </c>
-      <c r="E117" s="29" t="s">
+      <c r="E117" s="31" t="s">
         <v>436</v>
       </c>
     </row>
@@ -6076,7 +6083,7 @@
       <c r="D118" s="20" t="s">
         <v>439</v>
       </c>
-      <c r="E118" s="29" t="s">
+      <c r="E118" s="31" t="s">
         <v>440</v>
       </c>
     </row>
@@ -6090,7 +6097,7 @@
       <c r="D119" s="20" t="s">
         <v>443</v>
       </c>
-      <c r="E119" s="29" t="s">
+      <c r="E119" s="31" t="s">
         <v>444</v>
       </c>
     </row>
@@ -6104,7 +6111,7 @@
       <c r="D120" s="20" t="s">
         <v>447</v>
       </c>
-      <c r="E120" s="29" t="s">
+      <c r="E120" s="31" t="s">
         <v>448</v>
       </c>
     </row>
@@ -6118,7 +6125,7 @@
       <c r="D121" s="20" t="s">
         <v>450</v>
       </c>
-      <c r="E121" s="29" t="s">
+      <c r="E121" s="31" t="s">
         <v>451</v>
       </c>
     </row>
@@ -6132,7 +6139,7 @@
       <c r="D122" s="20" t="s">
         <v>453</v>
       </c>
-      <c r="E122" s="29" t="s">
+      <c r="E122" s="31" t="s">
         <v>454</v>
       </c>
     </row>
@@ -6146,7 +6153,7 @@
       <c r="D123" s="20" t="s">
         <v>457</v>
       </c>
-      <c r="E123" s="29" t="s">
+      <c r="E123" s="31" t="s">
         <v>458</v>
       </c>
     </row>
@@ -6160,7 +6167,7 @@
       <c r="D124" s="20" t="s">
         <v>461</v>
       </c>
-      <c r="E124" s="29" t="s">
+      <c r="E124" s="31" t="s">
         <v>462</v>
       </c>
     </row>
@@ -6174,7 +6181,7 @@
       <c r="D125" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="E125" s="29" t="s">
+      <c r="E125" s="31" t="s">
         <v>466</v>
       </c>
     </row>
@@ -6188,7 +6195,7 @@
       <c r="D126" s="20" t="s">
         <v>469</v>
       </c>
-      <c r="E126" s="29" t="s">
+      <c r="E126" s="31" t="s">
         <v>470</v>
       </c>
     </row>
@@ -6202,7 +6209,7 @@
       <c r="D127" s="20" t="s">
         <v>473</v>
       </c>
-      <c r="E127" s="29" t="s">
+      <c r="E127" s="31" t="s">
         <v>474</v>
       </c>
     </row>
@@ -6216,7 +6223,7 @@
       <c r="D128" s="20" t="s">
         <v>477</v>
       </c>
-      <c r="E128" s="29" t="s">
+      <c r="E128" s="31" t="s">
         <v>478</v>
       </c>
     </row>
@@ -6230,7 +6237,7 @@
       <c r="D129" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="E129" s="29" t="s">
+      <c r="E129" s="31" t="s">
         <v>482</v>
       </c>
     </row>
@@ -6244,7 +6251,7 @@
       <c r="D130" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="E130" s="29" t="s">
+      <c r="E130" s="31" t="s">
         <v>486</v>
       </c>
     </row>
@@ -6258,7 +6265,7 @@
       <c r="D131" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="E131" s="29" t="s">
+      <c r="E131" s="31" t="s">
         <v>490</v>
       </c>
     </row>
@@ -6272,7 +6279,7 @@
       <c r="D132" s="20" t="s">
         <v>493</v>
       </c>
-      <c r="E132" s="29" t="s">
+      <c r="E132" s="31" t="s">
         <v>494</v>
       </c>
     </row>
@@ -6286,7 +6293,7 @@
       <c r="D133" s="20" t="s">
         <v>497</v>
       </c>
-      <c r="E133" s="29" t="s">
+      <c r="E133" s="31" t="s">
         <v>498</v>
       </c>
     </row>
@@ -6300,7 +6307,7 @@
       <c r="D134" s="20" t="s">
         <v>501</v>
       </c>
-      <c r="E134" s="29" t="s">
+      <c r="E134" s="31" t="s">
         <v>502</v>
       </c>
     </row>
@@ -6314,7 +6321,7 @@
       <c r="D135" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="E135" s="29" t="s">
+      <c r="E135" s="31" t="s">
         <v>505</v>
       </c>
     </row>
@@ -6328,7 +6335,7 @@
       <c r="D136" s="20" t="s">
         <v>508</v>
       </c>
-      <c r="E136" s="29" t="s">
+      <c r="E136" s="31" t="s">
         <v>509</v>
       </c>
     </row>
@@ -6342,7 +6349,7 @@
       <c r="D137" s="20" t="s">
         <v>512</v>
       </c>
-      <c r="E137" s="29" t="s">
+      <c r="E137" s="31" t="s">
         <v>513</v>
       </c>
     </row>
@@ -6356,7 +6363,7 @@
       <c r="D138" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="E138" s="29" t="s">
+      <c r="E138" s="31" t="s">
         <v>516</v>
       </c>
     </row>
@@ -6370,7 +6377,7 @@
       <c r="D139" s="20" t="s">
         <v>518</v>
       </c>
-      <c r="E139" s="29" t="s">
+      <c r="E139" s="31" t="s">
         <v>519</v>
       </c>
     </row>
@@ -6384,7 +6391,7 @@
       <c r="D140" s="20" t="s">
         <v>521</v>
       </c>
-      <c r="E140" s="29" t="s">
+      <c r="E140" s="31" t="s">
         <v>522</v>
       </c>
     </row>
@@ -6398,7 +6405,7 @@
       <c r="D141" s="20" t="s">
         <v>525</v>
       </c>
-      <c r="E141" s="29" t="s">
+      <c r="E141" s="31" t="s">
         <v>526</v>
       </c>
     </row>
@@ -6412,7 +6419,7 @@
       <c r="D142" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="E142" s="29" t="s">
+      <c r="E142" s="31" t="s">
         <v>529</v>
       </c>
     </row>
@@ -6426,7 +6433,7 @@
       <c r="D143" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="E143" s="29" t="s">
+      <c r="E143" s="31" t="s">
         <v>532</v>
       </c>
     </row>
@@ -6440,7 +6447,7 @@
       <c r="D144" s="20" t="s">
         <v>535</v>
       </c>
-      <c r="E144" s="29" t="s">
+      <c r="E144" s="31" t="s">
         <v>536</v>
       </c>
     </row>
@@ -6454,7 +6461,7 @@
       <c r="D145" s="20" t="s">
         <v>539</v>
       </c>
-      <c r="E145" s="29" t="s">
+      <c r="E145" s="31" t="s">
         <v>540</v>
       </c>
     </row>
@@ -6468,7 +6475,7 @@
       <c r="D146" s="20" t="s">
         <v>543</v>
       </c>
-      <c r="E146" s="29" t="s">
+      <c r="E146" s="31" t="s">
         <v>544</v>
       </c>
     </row>
@@ -6482,7 +6489,7 @@
       <c r="D147" s="20" t="s">
         <v>547</v>
       </c>
-      <c r="E147" s="29" t="s">
+      <c r="E147" s="31" t="s">
         <v>548</v>
       </c>
     </row>
@@ -6496,7 +6503,7 @@
       <c r="D148" s="20" t="s">
         <v>447</v>
       </c>
-      <c r="E148" s="29" t="s">
+      <c r="E148" s="31" t="s">
         <v>551</v>
       </c>
     </row>
@@ -6510,7 +6517,7 @@
       <c r="D149" s="20" t="s">
         <v>450</v>
       </c>
-      <c r="E149" s="29" t="s">
+      <c r="E149" s="31" t="s">
         <v>554</v>
       </c>
     </row>
@@ -6524,7 +6531,7 @@
       <c r="D150" s="20" t="s">
         <v>453</v>
       </c>
-      <c r="E150" s="29" t="s">
+      <c r="E150" s="31" t="s">
         <v>557</v>
       </c>
     </row>
@@ -6538,7 +6545,7 @@
       <c r="D151" s="20" t="s">
         <v>457</v>
       </c>
-      <c r="E151" s="31"/>
+      <c r="E151" s="33"/>
     </row>
     <row r="152" customHeight="1" spans="2:5">
       <c r="B152" s="19" t="s">
@@ -6550,7 +6557,7 @@
       <c r="D152" s="20" t="s">
         <v>562</v>
       </c>
-      <c r="E152" s="31"/>
+      <c r="E152" s="33"/>
     </row>
     <row r="153" customHeight="1" spans="2:5">
       <c r="B153" s="19" t="s">
@@ -6562,7 +6569,7 @@
       <c r="D153" s="20" t="s">
         <v>565</v>
       </c>
-      <c r="E153" s="29"/>
+      <c r="E153" s="31"/>
     </row>
     <row r="154" customHeight="1" spans="2:5">
       <c r="B154" s="19" t="s">
@@ -6574,7 +6581,7 @@
       <c r="D154" s="20" t="s">
         <v>568</v>
       </c>
-      <c r="E154" s="29"/>
+      <c r="E154" s="31"/>
     </row>
     <row r="155" customHeight="1" spans="2:5">
       <c r="B155" s="19" t="s">
@@ -6586,7 +6593,7 @@
       <c r="D155" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="E155" s="29"/>
+      <c r="E155" s="31"/>
     </row>
     <row r="156" customHeight="1" spans="2:5">
       <c r="B156" s="19" t="s">
@@ -6598,7 +6605,7 @@
       <c r="D156" s="20" t="s">
         <v>572</v>
       </c>
-      <c r="E156" s="29"/>
+      <c r="E156" s="31"/>
     </row>
     <row r="157" customHeight="1" spans="2:5">
       <c r="B157" s="19" t="s">
@@ -6610,7 +6617,7 @@
       <c r="D157" s="20" t="s">
         <v>574</v>
       </c>
-      <c r="E157" s="29"/>
+      <c r="E157" s="31"/>
     </row>
     <row r="158" customHeight="1" spans="2:5">
       <c r="B158" s="19" t="s">
@@ -6622,7 +6629,7 @@
       <c r="D158" s="20" t="s">
         <v>577</v>
       </c>
-      <c r="E158" s="29"/>
+      <c r="E158" s="31"/>
     </row>
     <row r="159" customHeight="1" spans="2:5">
       <c r="B159" s="19" t="s">
@@ -6634,7 +6641,7 @@
       <c r="D159" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="E159" s="29"/>
+      <c r="E159" s="31"/>
     </row>
     <row r="160" customHeight="1" spans="2:5">
       <c r="B160" s="19" t="s">
@@ -6646,7 +6653,7 @@
       <c r="D160" s="20" t="s">
         <v>583</v>
       </c>
-      <c r="E160" s="29"/>
+      <c r="E160" s="31"/>
     </row>
     <row r="161" customHeight="1" spans="2:5">
       <c r="B161" s="19" t="s">
@@ -6658,7 +6665,7 @@
       <c r="D161" s="20" t="s">
         <v>586</v>
       </c>
-      <c r="E161" s="29"/>
+      <c r="E161" s="31"/>
     </row>
     <row r="162" customHeight="1" spans="2:5">
       <c r="B162" s="19" t="s">
@@ -6670,7 +6677,7 @@
       <c r="D162" s="20" t="s">
         <v>589</v>
       </c>
-      <c r="E162" s="29"/>
+      <c r="E162" s="31"/>
     </row>
     <row r="163" customHeight="1" spans="2:5">
       <c r="B163" s="19" t="s">
@@ -6682,7 +6689,7 @@
       <c r="D163" s="20" t="s">
         <v>592</v>
       </c>
-      <c r="E163" s="29"/>
+      <c r="E163" s="31"/>
     </row>
     <row r="164" customHeight="1" spans="2:5">
       <c r="B164" s="19" t="s">
@@ -6694,7 +6701,7 @@
       <c r="D164" s="20" t="s">
         <v>595</v>
       </c>
-      <c r="E164" s="29"/>
+      <c r="E164" s="31"/>
     </row>
     <row r="165" customHeight="1" spans="2:5">
       <c r="B165" s="19" t="s">
@@ -6706,7 +6713,7 @@
       <c r="D165" s="20" t="s">
         <v>598</v>
       </c>
-      <c r="E165" s="29"/>
+      <c r="E165" s="31"/>
     </row>
     <row r="166" customHeight="1" spans="2:5">
       <c r="B166" s="19" t="s">
@@ -6718,7 +6725,7 @@
       <c r="D166" s="20" t="s">
         <v>601</v>
       </c>
-      <c r="E166" s="29"/>
+      <c r="E166" s="31"/>
     </row>
     <row r="167" customHeight="1" spans="2:5">
       <c r="B167" s="19" t="s">
@@ -6730,7 +6737,7 @@
       <c r="D167" s="20" t="s">
         <v>604</v>
       </c>
-      <c r="E167" s="29"/>
+      <c r="E167" s="31"/>
     </row>
     <row r="168" customHeight="1" spans="2:5">
       <c r="B168" s="19" t="s">
@@ -6742,7 +6749,7 @@
       <c r="D168" s="20" t="s">
         <v>607</v>
       </c>
-      <c r="E168" s="29"/>
+      <c r="E168" s="31"/>
     </row>
     <row r="169" customHeight="1" spans="2:5">
       <c r="B169" s="19" t="s">
@@ -6754,7 +6761,7 @@
       <c r="D169" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="E169" s="29"/>
+      <c r="E169" s="31"/>
     </row>
     <row r="170" customHeight="1" spans="2:5">
       <c r="B170" s="19" t="s">
@@ -6766,7 +6773,7 @@
       <c r="D170" s="20" t="s">
         <v>611</v>
       </c>
-      <c r="E170" s="29"/>
+      <c r="E170" s="31"/>
     </row>
     <row r="171" customHeight="1" spans="2:5">
       <c r="B171" s="19" t="s">
@@ -6778,7 +6785,7 @@
       <c r="D171" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="E171" s="29"/>
+      <c r="E171" s="31"/>
     </row>
     <row r="172" customHeight="1" spans="2:5">
       <c r="B172" s="19" t="s">
@@ -6790,7 +6797,7 @@
       <c r="D172" s="20" t="s">
         <v>616</v>
       </c>
-      <c r="E172" s="29"/>
+      <c r="E172" s="31"/>
     </row>
     <row r="173" customHeight="1" spans="2:5">
       <c r="B173" s="19" t="s">
@@ -6802,7 +6809,7 @@
       <c r="D173" s="20" t="s">
         <v>619</v>
       </c>
-      <c r="E173" s="29"/>
+      <c r="E173" s="31"/>
     </row>
     <row r="174" customHeight="1" spans="2:5">
       <c r="B174" s="19" t="s">
@@ -6814,7 +6821,7 @@
       <c r="D174" s="20" t="s">
         <v>543</v>
       </c>
-      <c r="E174" s="29"/>
+      <c r="E174" s="31"/>
     </row>
     <row r="175" customHeight="1" spans="2:5">
       <c r="B175" s="19" t="s">
@@ -6826,7 +6833,7 @@
       <c r="D175" s="20" t="s">
         <v>624</v>
       </c>
-      <c r="E175" s="29"/>
+      <c r="E175" s="31"/>
     </row>
     <row r="176" customHeight="1" spans="2:5">
       <c r="B176" s="19" t="s">
@@ -6838,7 +6845,7 @@
       <c r="D176" s="20" t="s">
         <v>447</v>
       </c>
-      <c r="E176" s="29"/>
+      <c r="E176" s="31"/>
     </row>
     <row r="177" customHeight="1" spans="2:5">
       <c r="B177" s="19" t="s">
@@ -6850,7 +6857,7 @@
       <c r="D177" s="20" t="s">
         <v>450</v>
       </c>
-      <c r="E177" s="29"/>
+      <c r="E177" s="31"/>
     </row>
     <row r="178" customHeight="1" spans="2:5">
       <c r="B178" s="19" t="s">
@@ -6862,7 +6869,7 @@
       <c r="D178" s="20" t="s">
         <v>453</v>
       </c>
-      <c r="E178" s="29"/>
+      <c r="E178" s="31"/>
     </row>
     <row r="179" customHeight="1" spans="2:5">
       <c r="B179" s="19" t="s">
@@ -6874,7 +6881,7 @@
       <c r="D179" s="20" t="s">
         <v>633</v>
       </c>
-      <c r="E179" s="29"/>
+      <c r="E179" s="31"/>
     </row>
     <row r="180" customHeight="1" spans="2:5">
       <c r="B180" s="19" t="s">
@@ -6886,7 +6893,7 @@
       <c r="D180" s="20" t="s">
         <v>461</v>
       </c>
-      <c r="E180" s="29"/>
+      <c r="E180" s="31"/>
     </row>
     <row r="181" customHeight="1" spans="2:5">
       <c r="B181" s="19" t="s">
@@ -6898,7 +6905,7 @@
       <c r="D181" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="E181" s="29"/>
+      <c r="E181" s="31"/>
     </row>
     <row r="182" customHeight="1" spans="2:5">
       <c r="B182" s="19" t="s">
@@ -6910,7 +6917,7 @@
       <c r="D182" s="20" t="s">
         <v>457</v>
       </c>
-      <c r="E182" s="29"/>
+      <c r="E182" s="31"/>
     </row>
     <row r="183" customHeight="1" spans="2:5">
       <c r="B183" s="19" t="s">
@@ -6922,7 +6929,7 @@
       <c r="D183" s="20" t="s">
         <v>640</v>
       </c>
-      <c r="E183" s="29"/>
+      <c r="E183" s="31"/>
     </row>
     <row r="184" customHeight="1" spans="2:5">
       <c r="B184" s="19" t="s">
@@ -6934,7 +6941,7 @@
       <c r="D184" s="20" t="s">
         <v>643</v>
       </c>
-      <c r="E184" s="29"/>
+      <c r="E184" s="31"/>
     </row>
     <row r="185" customHeight="1" spans="2:5">
       <c r="B185" s="19" t="s">
@@ -6946,7 +6953,7 @@
       <c r="D185" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="E185" s="29"/>
+      <c r="E185" s="31"/>
     </row>
     <row r="186" customHeight="1" spans="2:5">
       <c r="B186" s="19" t="s">
@@ -6958,7 +6965,7 @@
       <c r="D186" s="20" t="s">
         <v>648</v>
       </c>
-      <c r="E186" s="29"/>
+      <c r="E186" s="31"/>
     </row>
     <row r="187" customHeight="1" spans="2:5">
       <c r="B187" s="19" t="s">
@@ -6970,7 +6977,7 @@
       <c r="D187" s="20" t="s">
         <v>651</v>
       </c>
-      <c r="E187" s="29"/>
+      <c r="E187" s="31"/>
     </row>
     <row r="188" customHeight="1" spans="2:5">
       <c r="B188" s="19" t="s">
@@ -6982,7 +6989,7 @@
       <c r="D188" s="20" t="s">
         <v>654</v>
       </c>
-      <c r="E188" s="29"/>
+      <c r="E188" s="31"/>
     </row>
     <row r="189" customHeight="1" spans="2:5">
       <c r="B189" s="19" t="s">
@@ -6994,7 +7001,7 @@
       <c r="D189" s="20" t="s">
         <v>657</v>
       </c>
-      <c r="E189" s="29"/>
+      <c r="E189" s="31"/>
     </row>
     <row r="190" customHeight="1" spans="2:5">
       <c r="B190" s="19" t="s">
@@ -7006,7 +7013,7 @@
       <c r="D190" s="20" t="s">
         <v>543</v>
       </c>
-      <c r="E190" s="29"/>
+      <c r="E190" s="31"/>
     </row>
     <row r="191" customHeight="1" spans="2:5">
       <c r="B191" s="19" t="s">
@@ -7018,7 +7025,7 @@
       <c r="D191" s="20" t="s">
         <v>662</v>
       </c>
-      <c r="E191" s="29"/>
+      <c r="E191" s="31"/>
     </row>
     <row r="192" customHeight="1" spans="2:5">
       <c r="B192" s="19" t="s">
@@ -7030,7 +7037,7 @@
       <c r="D192" s="20" t="s">
         <v>447</v>
       </c>
-      <c r="E192" s="29"/>
+      <c r="E192" s="31"/>
     </row>
     <row r="193" customHeight="1" spans="2:5">
       <c r="B193" s="19" t="s">
@@ -7042,7 +7049,7 @@
       <c r="D193" s="20" t="s">
         <v>450</v>
       </c>
-      <c r="E193" s="29"/>
+      <c r="E193" s="31"/>
     </row>
     <row r="194" customHeight="1" spans="2:5">
       <c r="B194" s="19" t="s">
@@ -7054,7 +7061,7 @@
       <c r="D194" s="20" t="s">
         <v>453</v>
       </c>
-      <c r="E194" s="29"/>
+      <c r="E194" s="31"/>
     </row>
     <row r="195" customHeight="1" spans="2:5">
       <c r="B195" s="19" t="s">
@@ -7066,7 +7073,7 @@
       <c r="D195" s="20" t="s">
         <v>633</v>
       </c>
-      <c r="E195" s="29"/>
+      <c r="E195" s="31"/>
     </row>
     <row r="196" customHeight="1" spans="2:5">
       <c r="B196" s="19" t="s">
@@ -7078,7 +7085,7 @@
       <c r="D196" s="20" t="s">
         <v>673</v>
       </c>
-      <c r="E196" s="29"/>
+      <c r="E196" s="31"/>
     </row>
     <row r="197" customHeight="1" spans="2:5">
       <c r="B197" s="19" t="s">
@@ -7090,7 +7097,7 @@
       <c r="D197" s="20" t="s">
         <v>676</v>
       </c>
-      <c r="E197" s="29"/>
+      <c r="E197" s="31"/>
     </row>
     <row r="198" customHeight="1" spans="2:5">
       <c r="B198" s="19" t="s">
@@ -7102,7 +7109,7 @@
       <c r="D198" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="E198" s="29"/>
+      <c r="E198" s="31"/>
     </row>
     <row r="199" customHeight="1" spans="2:5">
       <c r="B199" s="19" t="s">
@@ -7114,7 +7121,7 @@
       <c r="D199" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="E199" s="29"/>
+      <c r="E199" s="31"/>
     </row>
     <row r="200" customHeight="1" spans="2:5">
       <c r="B200" s="19" t="s">
@@ -7126,7 +7133,7 @@
       <c r="D200" s="20" t="s">
         <v>457</v>
       </c>
-      <c r="E200" s="29"/>
+      <c r="E200" s="31"/>
     </row>
     <row r="201" customHeight="1" spans="2:5">
       <c r="B201" s="19" t="s">
@@ -7138,7 +7145,7 @@
       <c r="D201" s="20" t="s">
         <v>562</v>
       </c>
-      <c r="E201" s="29"/>
+      <c r="E201" s="31"/>
     </row>
     <row r="202" customHeight="1" spans="2:5">
       <c r="B202" s="19" t="s">
@@ -7150,7 +7157,7 @@
       <c r="D202" s="20" t="s">
         <v>685</v>
       </c>
-      <c r="E202" s="29"/>
+      <c r="E202" s="31"/>
     </row>
     <row r="203" customHeight="1" spans="2:5">
       <c r="B203" s="19" t="s">
@@ -7162,7 +7169,7 @@
       <c r="D203" s="20" t="s">
         <v>688</v>
       </c>
-      <c r="E203" s="29"/>
+      <c r="E203" s="31"/>
     </row>
     <row r="204" customHeight="1" spans="2:5">
       <c r="B204" s="19" t="s">
@@ -7174,7 +7181,7 @@
       <c r="D204" s="20" t="s">
         <v>691</v>
       </c>
-      <c r="E204" s="29"/>
+      <c r="E204" s="31"/>
     </row>
     <row r="205" customHeight="1" spans="2:5">
       <c r="B205" s="19" t="s">
@@ -7186,7 +7193,7 @@
       <c r="D205" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="E205" s="29"/>
+      <c r="E205" s="31"/>
     </row>
     <row r="206" customHeight="1" spans="2:5">
       <c r="B206" s="19" t="s">
@@ -7198,7 +7205,7 @@
       <c r="D206" s="20" t="s">
         <v>697</v>
       </c>
-      <c r="E206" s="29"/>
+      <c r="E206" s="31"/>
     </row>
     <row r="207" customHeight="1" spans="2:5">
       <c r="B207" s="19" t="s">
@@ -7210,7 +7217,7 @@
       <c r="D207" s="20" t="s">
         <v>700</v>
       </c>
-      <c r="E207" s="29"/>
+      <c r="E207" s="31"/>
     </row>
     <row r="208" customHeight="1" spans="2:5">
       <c r="B208" s="19" t="s">
@@ -7222,7 +7229,7 @@
       <c r="D208" s="20" t="s">
         <v>703</v>
       </c>
-      <c r="E208" s="29"/>
+      <c r="E208" s="31"/>
     </row>
     <row r="209" customHeight="1" spans="2:5">
       <c r="B209" s="19" t="s">
@@ -7234,7 +7241,7 @@
       <c r="D209" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="E209" s="29"/>
+      <c r="E209" s="31"/>
     </row>
     <row r="210" customHeight="1" spans="2:5">
       <c r="B210" s="19" t="s">
@@ -7246,7 +7253,7 @@
       <c r="D210" s="20" t="s">
         <v>708</v>
       </c>
-      <c r="E210" s="29"/>
+      <c r="E210" s="31"/>
     </row>
     <row r="211" customHeight="1" spans="2:5">
       <c r="B211" s="19" t="s">
@@ -7258,7 +7265,7 @@
       <c r="D211" s="20" t="s">
         <v>711</v>
       </c>
-      <c r="E211" s="29"/>
+      <c r="E211" s="31"/>
     </row>
     <row r="212" customHeight="1" spans="2:5">
       <c r="B212" s="19" t="s">
@@ -7270,7 +7277,7 @@
       <c r="D212" s="20" t="s">
         <v>714</v>
       </c>
-      <c r="E212" s="29"/>
+      <c r="E212" s="31"/>
     </row>
     <row r="213" customHeight="1" spans="2:5">
       <c r="B213" s="19" t="s">
@@ -7282,7 +7289,7 @@
       <c r="D213" s="20" t="s">
         <v>717</v>
       </c>
-      <c r="E213" s="29"/>
+      <c r="E213" s="31"/>
     </row>
     <row r="214" customHeight="1" spans="2:5">
       <c r="B214" s="19" t="s">
@@ -7294,7 +7301,7 @@
       <c r="D214" s="20" t="s">
         <v>720</v>
       </c>
-      <c r="E214" s="29"/>
+      <c r="E214" s="31"/>
     </row>
     <row r="215" customHeight="1" spans="2:5">
       <c r="B215" s="19" t="s">
@@ -7306,7 +7313,7 @@
       <c r="D215" s="20" t="s">
         <v>723</v>
       </c>
-      <c r="E215" s="29"/>
+      <c r="E215" s="31"/>
     </row>
     <row r="216" customHeight="1" spans="2:5">
       <c r="B216" s="19" t="s">
@@ -7318,7 +7325,7 @@
       <c r="D216" s="20" t="s">
         <v>725</v>
       </c>
-      <c r="E216" s="29"/>
+      <c r="E216" s="31"/>
     </row>
     <row r="217" customHeight="1" spans="2:5">
       <c r="B217" s="19" t="s">
@@ -7330,7 +7337,7 @@
       <c r="D217" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="E217" s="29"/>
+      <c r="E217" s="31"/>
     </row>
     <row r="218" customHeight="1" spans="2:5">
       <c r="B218" s="19" t="s">
@@ -7342,7 +7349,7 @@
       <c r="D218" s="20" t="s">
         <v>729</v>
       </c>
-      <c r="E218" s="29"/>
+      <c r="E218" s="31"/>
     </row>
     <row r="219" customHeight="1" spans="2:5">
       <c r="B219" s="19" t="s">
@@ -7354,7 +7361,7 @@
       <c r="D219" s="20" t="s">
         <v>732</v>
       </c>
-      <c r="E219" s="29"/>
+      <c r="E219" s="31"/>
     </row>
     <row r="220" customHeight="1" spans="2:5">
       <c r="B220" s="19" t="s">
@@ -7366,7 +7373,7 @@
       <c r="D220" s="20" t="s">
         <v>543</v>
       </c>
-      <c r="E220" s="29"/>
+      <c r="E220" s="31"/>
     </row>
     <row r="221" customHeight="1" spans="2:5">
       <c r="B221" s="19" t="s">
@@ -7378,7 +7385,7 @@
       <c r="D221" s="20" t="s">
         <v>737</v>
       </c>
-      <c r="E221" s="29"/>
+      <c r="E221" s="31"/>
     </row>
     <row r="222" customHeight="1" spans="2:5">
       <c r="B222" s="19" t="s">
@@ -7390,7 +7397,7 @@
       <c r="D222" s="20" t="s">
         <v>740</v>
       </c>
-      <c r="E222" s="29"/>
+      <c r="E222" s="31"/>
     </row>
     <row r="223" customHeight="1" spans="2:5">
       <c r="B223" s="19" t="s">
@@ -7402,7 +7409,7 @@
       <c r="D223" s="20" t="s">
         <v>743</v>
       </c>
-      <c r="E223" s="29"/>
+      <c r="E223" s="31"/>
     </row>
     <row r="224" customHeight="1" spans="2:5">
       <c r="B224" s="19" t="s">
@@ -7414,7 +7421,7 @@
       <c r="D224" s="20" t="s">
         <v>746</v>
       </c>
-      <c r="E224" s="29"/>
+      <c r="E224" s="31"/>
     </row>
     <row r="225" customHeight="1" spans="2:5">
       <c r="B225" s="19" t="s">
@@ -7426,7 +7433,7 @@
       <c r="D225" s="20" t="s">
         <v>748</v>
       </c>
-      <c r="E225" s="29"/>
+      <c r="E225" s="31"/>
     </row>
     <row r="226" customHeight="1" spans="2:5">
       <c r="B226" s="19" t="s">
@@ -7438,7 +7445,7 @@
       <c r="D226" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="E226" s="29"/>
+      <c r="E226" s="31"/>
     </row>
     <row r="227" customHeight="1" spans="2:5">
       <c r="B227" s="19" t="s">
@@ -7450,7 +7457,7 @@
       <c r="D227" s="20" t="s">
         <v>752</v>
       </c>
-      <c r="E227" s="29"/>
+      <c r="E227" s="31"/>
     </row>
     <row r="228" customHeight="1" spans="2:5">
       <c r="B228" s="19" t="s">
@@ -7462,7 +7469,7 @@
       <c r="D228" s="20" t="s">
         <v>755</v>
       </c>
-      <c r="E228" s="29"/>
+      <c r="E228" s="31"/>
     </row>
     <row r="229" customHeight="1" spans="2:5">
       <c r="B229" s="19" t="s">
@@ -7474,7 +7481,7 @@
       <c r="D229" s="20" t="s">
         <v>758</v>
       </c>
-      <c r="E229" s="29"/>
+      <c r="E229" s="31"/>
     </row>
     <row r="230" customHeight="1" spans="2:5">
       <c r="B230" s="19" t="s">
@@ -7486,7 +7493,7 @@
       <c r="D230" s="20" t="s">
         <v>761</v>
       </c>
-      <c r="E230" s="29"/>
+      <c r="E230" s="31"/>
     </row>
     <row r="231" customHeight="1" spans="2:5">
       <c r="B231" s="19" t="s">
@@ -7498,7 +7505,7 @@
       <c r="D231" s="20" t="s">
         <v>764</v>
       </c>
-      <c r="E231" s="29"/>
+      <c r="E231" s="31"/>
     </row>
     <row r="232" customHeight="1" spans="2:5">
       <c r="B232" s="19" t="s">
@@ -7510,7 +7517,7 @@
       <c r="D232" s="20" t="s">
         <v>767</v>
       </c>
-      <c r="E232" s="29"/>
+      <c r="E232" s="31"/>
     </row>
     <row r="233" customHeight="1" spans="2:5">
       <c r="B233" s="19" t="s">
@@ -7522,7 +7529,7 @@
       <c r="D233" s="20" t="s">
         <v>770</v>
       </c>
-      <c r="E233" s="29"/>
+      <c r="E233" s="31"/>
     </row>
     <row r="234" customHeight="1" spans="2:5">
       <c r="B234" s="19" t="s">
@@ -7534,7 +7541,7 @@
       <c r="D234" s="20" t="s">
         <v>773</v>
       </c>
-      <c r="E234" s="29"/>
+      <c r="E234" s="31"/>
     </row>
     <row r="235" customHeight="1" spans="2:5">
       <c r="B235" s="19" t="s">
@@ -7546,7 +7553,7 @@
       <c r="D235" s="20" t="s">
         <v>776</v>
       </c>
-      <c r="E235" s="29"/>
+      <c r="E235" s="31"/>
     </row>
     <row r="236" customHeight="1" spans="2:5">
       <c r="B236" s="19" t="s">
@@ -7558,7 +7565,7 @@
       <c r="D236" s="20" t="s">
         <v>779</v>
       </c>
-      <c r="E236" s="29"/>
+      <c r="E236" s="31"/>
     </row>
     <row r="237" customHeight="1" spans="2:5">
       <c r="B237" s="19" t="s">
@@ -7570,7 +7577,7 @@
       <c r="D237" s="20" t="s">
         <v>782</v>
       </c>
-      <c r="E237" s="29"/>
+      <c r="E237" s="31"/>
     </row>
     <row r="238" customHeight="1" spans="2:5">
       <c r="B238" s="19" t="s">
@@ -7582,7 +7589,7 @@
       <c r="D238" s="20" t="s">
         <v>785</v>
       </c>
-      <c r="E238" s="29"/>
+      <c r="E238" s="31"/>
     </row>
     <row r="239" customHeight="1" spans="2:5">
       <c r="B239" s="19" t="s">
@@ -7594,7 +7601,7 @@
       <c r="D239" s="20" t="s">
         <v>543</v>
       </c>
-      <c r="E239" s="29"/>
+      <c r="E239" s="31"/>
     </row>
     <row r="240" customHeight="1" spans="2:5">
       <c r="B240" s="19" t="s">
@@ -7606,7 +7613,7 @@
       <c r="D240" s="20" t="s">
         <v>790</v>
       </c>
-      <c r="E240" s="29"/>
+      <c r="E240" s="31"/>
     </row>
     <row r="241" customHeight="1" spans="2:5">
       <c r="B241" s="19" t="s">
@@ -7616,7 +7623,7 @@
         <v>792</v>
       </c>
       <c r="D241" s="20"/>
-      <c r="E241" s="29"/>
+      <c r="E241" s="31"/>
     </row>
     <row r="242" customHeight="1" spans="2:5">
       <c r="B242" s="19" t="s">
@@ -7626,7 +7633,7 @@
         <v>794</v>
       </c>
       <c r="D242" s="20"/>
-      <c r="E242" s="29"/>
+      <c r="E242" s="31"/>
     </row>
     <row r="243" customHeight="1" spans="2:5">
       <c r="B243" s="19" t="s">
@@ -7636,7 +7643,7 @@
         <v>796</v>
       </c>
       <c r="D243" s="20"/>
-      <c r="E243" s="29"/>
+      <c r="E243" s="31"/>
     </row>
     <row r="244" customHeight="1" spans="2:5">
       <c r="B244" s="19" t="s">
@@ -7646,7 +7653,7 @@
         <v>798</v>
       </c>
       <c r="D244" s="20"/>
-      <c r="E244" s="29"/>
+      <c r="E244" s="31"/>
     </row>
     <row r="245" customHeight="1" spans="2:5">
       <c r="B245" s="19" t="s">
@@ -7656,7 +7663,7 @@
         <v>800</v>
       </c>
       <c r="D245" s="20"/>
-      <c r="E245" s="29"/>
+      <c r="E245" s="31"/>
     </row>
     <row r="246" customHeight="1" spans="2:5">
       <c r="B246" s="19" t="s">
@@ -7666,7 +7673,7 @@
         <v>801</v>
       </c>
       <c r="D246" s="20"/>
-      <c r="E246" s="29"/>
+      <c r="E246" s="31"/>
     </row>
     <row r="247" customHeight="1" spans="2:5">
       <c r="B247" s="19" t="s">
@@ -7676,7 +7683,7 @@
         <v>802</v>
       </c>
       <c r="D247" s="20"/>
-      <c r="E247" s="29"/>
+      <c r="E247" s="31"/>
     </row>
     <row r="248" customHeight="1" spans="2:5">
       <c r="B248" s="19" t="s">
@@ -7686,7 +7693,7 @@
         <v>804</v>
       </c>
       <c r="D248" s="20"/>
-      <c r="E248" s="29"/>
+      <c r="E248" s="31"/>
     </row>
     <row r="249" customHeight="1" spans="2:5">
       <c r="B249" s="19" t="s">
@@ -7696,7 +7703,7 @@
         <v>806</v>
       </c>
       <c r="D249" s="20"/>
-      <c r="E249" s="29"/>
+      <c r="E249" s="31"/>
     </row>
     <row r="250" customHeight="1" spans="2:5">
       <c r="B250" s="19" t="s">
@@ -7706,7 +7713,7 @@
         <v>808</v>
       </c>
       <c r="D250" s="20"/>
-      <c r="E250" s="29"/>
+      <c r="E250" s="31"/>
     </row>
     <row r="251" customHeight="1" spans="2:5">
       <c r="B251" s="19" t="s">
@@ -7716,7 +7723,7 @@
         <v>810</v>
       </c>
       <c r="D251" s="20"/>
-      <c r="E251" s="29"/>
+      <c r="E251" s="31"/>
     </row>
     <row r="252" customHeight="1" spans="2:5">
       <c r="B252" s="19" t="s">
@@ -7726,7 +7733,7 @@
         <v>812</v>
       </c>
       <c r="D252" s="20"/>
-      <c r="E252" s="29"/>
+      <c r="E252" s="31"/>
     </row>
     <row r="253" customHeight="1" spans="2:5">
       <c r="B253" s="19" t="s">
@@ -7736,7 +7743,7 @@
         <v>813</v>
       </c>
       <c r="D253" s="20"/>
-      <c r="E253" s="29"/>
+      <c r="E253" s="31"/>
     </row>
     <row r="254" customHeight="1" spans="2:5">
       <c r="B254" s="19" t="s">
@@ -7746,7 +7753,7 @@
         <v>814</v>
       </c>
       <c r="D254" s="20"/>
-      <c r="E254" s="29"/>
+      <c r="E254" s="31"/>
     </row>
     <row r="255" customHeight="1" spans="2:5">
       <c r="B255" s="19" t="s">
@@ -7756,7 +7763,7 @@
         <v>816</v>
       </c>
       <c r="D255" s="20"/>
-      <c r="E255" s="29"/>
+      <c r="E255" s="31"/>
     </row>
     <row r="256" customHeight="1" spans="2:5">
       <c r="B256" s="19" t="s">
@@ -7766,7 +7773,7 @@
         <v>818</v>
       </c>
       <c r="D256" s="20"/>
-      <c r="E256" s="29"/>
+      <c r="E256" s="31"/>
     </row>
     <row r="257" customHeight="1" spans="2:5">
       <c r="B257" s="19" t="s">
@@ -7776,7 +7783,7 @@
         <v>820</v>
       </c>
       <c r="D257" s="20"/>
-      <c r="E257" s="29"/>
+      <c r="E257" s="31"/>
     </row>
     <row r="258" customHeight="1" spans="2:5">
       <c r="B258" s="19" t="s">
@@ -7786,7 +7793,7 @@
         <v>822</v>
       </c>
       <c r="D258" s="20"/>
-      <c r="E258" s="29"/>
+      <c r="E258" s="31"/>
     </row>
     <row r="259" customHeight="1" spans="2:5">
       <c r="B259" s="19" t="s">
@@ -7796,7 +7803,7 @@
         <v>824</v>
       </c>
       <c r="D259" s="20"/>
-      <c r="E259" s="29"/>
+      <c r="E259" s="31"/>
     </row>
     <row r="260" customHeight="1" spans="2:5">
       <c r="B260" s="19" t="s">
@@ -7806,7 +7813,7 @@
         <v>826</v>
       </c>
       <c r="D260" s="20"/>
-      <c r="E260" s="29"/>
+      <c r="E260" s="31"/>
     </row>
     <row r="261" customHeight="1" spans="2:5">
       <c r="B261" s="19" t="s">
@@ -7816,7 +7823,7 @@
         <v>828</v>
       </c>
       <c r="D261" s="20"/>
-      <c r="E261" s="29"/>
+      <c r="E261" s="31"/>
     </row>
     <row r="262" customHeight="1" spans="2:5">
       <c r="B262" s="19" t="s">
@@ -7826,7 +7833,7 @@
         <v>830</v>
       </c>
       <c r="D262" s="20"/>
-      <c r="E262" s="29"/>
+      <c r="E262" s="31"/>
     </row>
     <row r="263" customHeight="1" spans="2:5">
       <c r="B263" s="19" t="s">
@@ -7836,7 +7843,7 @@
         <v>832</v>
       </c>
       <c r="D263" s="20"/>
-      <c r="E263" s="29"/>
+      <c r="E263" s="31"/>
     </row>
     <row r="264" customHeight="1" spans="2:5">
       <c r="B264" s="19" t="s">
@@ -7846,7 +7853,7 @@
         <v>834</v>
       </c>
       <c r="D264" s="20"/>
-      <c r="E264" s="29"/>
+      <c r="E264" s="31"/>
     </row>
     <row r="265" customHeight="1" spans="2:5">
       <c r="B265" s="19" t="s">
@@ -7856,7 +7863,7 @@
         <v>836</v>
       </c>
       <c r="D265" s="20"/>
-      <c r="E265" s="29"/>
+      <c r="E265" s="31"/>
     </row>
     <row r="266" customHeight="1" spans="2:5">
       <c r="B266" s="19" t="s">
@@ -7866,7 +7873,7 @@
         <v>838</v>
       </c>
       <c r="D266" s="20"/>
-      <c r="E266" s="29"/>
+      <c r="E266" s="31"/>
     </row>
     <row r="267" customHeight="1" spans="2:5">
       <c r="B267" s="19" t="s">
@@ -7876,7 +7883,7 @@
         <v>839</v>
       </c>
       <c r="D267" s="20"/>
-      <c r="E267" s="29"/>
+      <c r="E267" s="31"/>
     </row>
     <row r="268" customHeight="1" spans="2:5">
       <c r="B268" s="19" t="s">
@@ -7886,7 +7893,7 @@
         <v>840</v>
       </c>
       <c r="D268" s="20"/>
-      <c r="E268" s="29"/>
+      <c r="E268" s="31"/>
     </row>
     <row r="269" customHeight="1" spans="2:5">
       <c r="B269" s="19" t="s">
@@ -7896,7 +7903,7 @@
         <v>842</v>
       </c>
       <c r="D269" s="20"/>
-      <c r="E269" s="29"/>
+      <c r="E269" s="31"/>
     </row>
     <row r="270" customHeight="1" spans="2:5">
       <c r="B270" s="19" t="s">
@@ -7906,7 +7913,7 @@
         <v>844</v>
       </c>
       <c r="D270" s="20"/>
-      <c r="E270" s="29"/>
+      <c r="E270" s="31"/>
     </row>
     <row r="271" customHeight="1" spans="2:5">
       <c r="B271" s="19" t="s">
@@ -7916,7 +7923,7 @@
         <v>846</v>
       </c>
       <c r="D271" s="20"/>
-      <c r="E271" s="29"/>
+      <c r="E271" s="31"/>
     </row>
     <row r="272" customHeight="1" spans="2:5">
       <c r="B272" s="19" t="s">
@@ -7926,7 +7933,7 @@
         <v>848</v>
       </c>
       <c r="D272" s="20"/>
-      <c r="E272" s="29"/>
+      <c r="E272" s="31"/>
     </row>
     <row r="273" customHeight="1" spans="2:5">
       <c r="B273" s="19" t="s">
@@ -7936,7 +7943,7 @@
         <v>850</v>
       </c>
       <c r="D273" s="20"/>
-      <c r="E273" s="29"/>
+      <c r="E273" s="31"/>
     </row>
     <row r="274" customHeight="1" spans="2:5">
       <c r="B274" s="19" t="s">
@@ -7946,7 +7953,7 @@
         <v>852</v>
       </c>
       <c r="D274" s="20"/>
-      <c r="E274" s="29"/>
+      <c r="E274" s="31"/>
     </row>
     <row r="275" customHeight="1" spans="2:5">
       <c r="B275" s="19" t="s">
@@ -7956,7 +7963,7 @@
         <v>854</v>
       </c>
       <c r="D275" s="20"/>
-      <c r="E275" s="29"/>
+      <c r="E275" s="31"/>
     </row>
     <row r="276" customHeight="1" spans="2:5">
       <c r="B276" s="19" t="s">
@@ -7966,7 +7973,7 @@
         <v>856</v>
       </c>
       <c r="D276" s="20"/>
-      <c r="E276" s="29"/>
+      <c r="E276" s="31"/>
     </row>
     <row r="277" customHeight="1" spans="2:5">
       <c r="B277" s="19" t="s">
@@ -7976,7 +7983,7 @@
         <v>858</v>
       </c>
       <c r="D277" s="20"/>
-      <c r="E277" s="29"/>
+      <c r="E277" s="31"/>
     </row>
     <row r="278" customHeight="1" spans="2:5">
       <c r="B278" s="19" t="s">
@@ -7986,7 +7993,7 @@
         <v>860</v>
       </c>
       <c r="D278" s="20"/>
-      <c r="E278" s="29"/>
+      <c r="E278" s="31"/>
     </row>
     <row r="279" customHeight="1" spans="2:5">
       <c r="B279" s="19" t="s">
@@ -7996,7 +8003,7 @@
         <v>862</v>
       </c>
       <c r="D279" s="20"/>
-      <c r="E279" s="29"/>
+      <c r="E279" s="31"/>
     </row>
     <row r="280" customHeight="1" spans="2:5">
       <c r="B280" s="19" t="s">
@@ -8006,7 +8013,7 @@
         <v>864</v>
       </c>
       <c r="D280" s="20"/>
-      <c r="E280" s="29"/>
+      <c r="E280" s="31"/>
     </row>
     <row r="281" customHeight="1" spans="2:5">
       <c r="B281" s="19" t="s">
@@ -8016,7 +8023,7 @@
         <v>865</v>
       </c>
       <c r="D281" s="20"/>
-      <c r="E281" s="29"/>
+      <c r="E281" s="31"/>
     </row>
     <row r="282" customHeight="1" spans="2:5">
       <c r="B282" s="19" t="s">
@@ -8026,7 +8033,7 @@
         <v>866</v>
       </c>
       <c r="D282" s="20"/>
-      <c r="E282" s="29"/>
+      <c r="E282" s="31"/>
     </row>
     <row r="283" customHeight="1" spans="2:5">
       <c r="B283" s="19" t="s">
@@ -8036,7 +8043,7 @@
         <v>868</v>
       </c>
       <c r="D283" s="20"/>
-      <c r="E283" s="29"/>
+      <c r="E283" s="31"/>
     </row>
     <row r="284" customHeight="1" spans="2:5">
       <c r="B284" s="19" t="s">
@@ -8046,7 +8053,7 @@
         <v>870</v>
       </c>
       <c r="D284" s="20"/>
-      <c r="E284" s="29"/>
+      <c r="E284" s="31"/>
     </row>
     <row r="285" customHeight="1" spans="2:5">
       <c r="B285" s="19" t="s">
@@ -8056,7 +8063,7 @@
         <v>872</v>
       </c>
       <c r="D285" s="20"/>
-      <c r="E285" s="29"/>
+      <c r="E285" s="31"/>
     </row>
     <row r="286" customHeight="1" spans="2:5">
       <c r="B286" s="19" t="s">
@@ -8066,7 +8073,7 @@
         <v>874</v>
       </c>
       <c r="D286" s="20"/>
-      <c r="E286" s="29"/>
+      <c r="E286" s="31"/>
     </row>
     <row r="287" customHeight="1" spans="2:5">
       <c r="B287" s="19" t="s">
@@ -8076,7 +8083,7 @@
         <v>876</v>
       </c>
       <c r="D287" s="20"/>
-      <c r="E287" s="29"/>
+      <c r="E287" s="31"/>
     </row>
     <row r="288" customHeight="1" spans="2:5">
       <c r="B288" s="19" t="s">
@@ -8086,7 +8093,7 @@
         <v>878</v>
       </c>
       <c r="D288" s="20"/>
-      <c r="E288" s="29"/>
+      <c r="E288" s="31"/>
     </row>
     <row r="289" customHeight="1" spans="2:5">
       <c r="B289" s="19" t="s">
@@ -8096,7 +8103,7 @@
         <v>880</v>
       </c>
       <c r="D289" s="20"/>
-      <c r="E289" s="29"/>
+      <c r="E289" s="31"/>
     </row>
     <row r="290" customHeight="1" spans="2:5">
       <c r="B290" s="19" t="s">
@@ -8106,7 +8113,7 @@
         <v>882</v>
       </c>
       <c r="D290" s="20"/>
-      <c r="E290" s="29"/>
+      <c r="E290" s="31"/>
     </row>
     <row r="291" customHeight="1" spans="2:5">
       <c r="B291" s="19" t="s">
@@ -8116,7 +8123,7 @@
         <v>884</v>
       </c>
       <c r="D291" s="20"/>
-      <c r="E291" s="29"/>
+      <c r="E291" s="31"/>
     </row>
     <row r="292" customHeight="1" spans="2:5">
       <c r="B292" s="19" t="s">
@@ -8126,7 +8133,7 @@
         <v>886</v>
       </c>
       <c r="D292" s="20"/>
-      <c r="E292" s="29"/>
+      <c r="E292" s="31"/>
     </row>
     <row r="293" customHeight="1" spans="2:5">
       <c r="B293" s="19" t="s">
@@ -8136,7 +8143,7 @@
         <v>888</v>
       </c>
       <c r="D293" s="20"/>
-      <c r="E293" s="29"/>
+      <c r="E293" s="31"/>
     </row>
     <row r="294" customHeight="1" spans="2:5">
       <c r="B294" s="19" t="s">
@@ -8146,7 +8153,7 @@
         <v>890</v>
       </c>
       <c r="D294" s="20"/>
-      <c r="E294" s="29"/>
+      <c r="E294" s="31"/>
     </row>
     <row r="295" customHeight="1" spans="2:5">
       <c r="B295" s="19" t="s">
@@ -8156,7 +8163,7 @@
         <v>892</v>
       </c>
       <c r="D295" s="20"/>
-      <c r="E295" s="29"/>
+      <c r="E295" s="31"/>
     </row>
     <row r="296" customHeight="1" spans="2:5">
       <c r="B296" s="19" t="s">
@@ -8166,7 +8173,7 @@
         <v>894</v>
       </c>
       <c r="D296" s="20"/>
-      <c r="E296" s="29"/>
+      <c r="E296" s="31"/>
     </row>
     <row r="297" customHeight="1" spans="2:5">
       <c r="B297" s="19" t="s">
@@ -8176,7 +8183,7 @@
         <v>896</v>
       </c>
       <c r="D297" s="20"/>
-      <c r="E297" s="29"/>
+      <c r="E297" s="31"/>
     </row>
     <row r="298" customHeight="1" spans="2:5">
       <c r="B298" s="19" t="s">
@@ -8186,7 +8193,7 @@
         <v>897</v>
       </c>
       <c r="D298" s="20"/>
-      <c r="E298" s="29"/>
+      <c r="E298" s="31"/>
     </row>
     <row r="299" customHeight="1" spans="2:5">
       <c r="B299" s="19" t="s">
@@ -8196,7 +8203,7 @@
         <v>898</v>
       </c>
       <c r="D299" s="20"/>
-      <c r="E299" s="29"/>
+      <c r="E299" s="31"/>
     </row>
     <row r="300" customHeight="1" spans="2:5">
       <c r="B300" s="19" t="s">
@@ -8206,7 +8213,7 @@
         <v>900</v>
       </c>
       <c r="D300" s="20"/>
-      <c r="E300" s="29"/>
+      <c r="E300" s="31"/>
     </row>
     <row r="301" customHeight="1" spans="2:5">
       <c r="B301" s="19" t="s">
@@ -8216,7 +8223,7 @@
         <v>902</v>
       </c>
       <c r="D301" s="20"/>
-      <c r="E301" s="29"/>
+      <c r="E301" s="31"/>
     </row>
     <row r="302" customHeight="1" spans="2:5">
       <c r="B302" s="19" t="s">
@@ -8226,7 +8233,7 @@
         <v>904</v>
       </c>
       <c r="D302" s="20"/>
-      <c r="E302" s="29"/>
+      <c r="E302" s="31"/>
     </row>
     <row r="303" customHeight="1" spans="2:5">
       <c r="B303" s="19" t="s">
@@ -8236,7 +8243,7 @@
         <v>906</v>
       </c>
       <c r="D303" s="20"/>
-      <c r="E303" s="29"/>
+      <c r="E303" s="31"/>
     </row>
     <row r="304" customHeight="1" spans="2:5">
       <c r="B304" s="19" t="s">
@@ -8246,7 +8253,7 @@
         <v>908</v>
       </c>
       <c r="D304" s="20"/>
-      <c r="E304" s="29"/>
+      <c r="E304" s="31"/>
     </row>
     <row r="305" customHeight="1" spans="2:5">
       <c r="B305" s="19" t="s">
@@ -8256,7 +8263,7 @@
         <v>910</v>
       </c>
       <c r="D305" s="20"/>
-      <c r="E305" s="29"/>
+      <c r="E305" s="31"/>
     </row>
     <row r="306" customHeight="1" spans="2:5">
       <c r="B306" s="19" t="s">
@@ -8266,7 +8273,7 @@
         <v>912</v>
       </c>
       <c r="D306" s="20"/>
-      <c r="E306" s="29"/>
+      <c r="E306" s="31"/>
     </row>
     <row r="307" customHeight="1" spans="2:5">
       <c r="B307" s="19" t="s">
@@ -8276,7 +8283,7 @@
         <v>914</v>
       </c>
       <c r="D307" s="20"/>
-      <c r="E307" s="29"/>
+      <c r="E307" s="31"/>
     </row>
     <row r="308" customHeight="1" spans="2:5">
       <c r="B308" s="19" t="s">
@@ -8286,7 +8293,7 @@
         <v>916</v>
       </c>
       <c r="D308" s="20"/>
-      <c r="E308" s="29"/>
+      <c r="E308" s="31"/>
     </row>
     <row r="309" customHeight="1" spans="2:5">
       <c r="B309" s="19" t="s">
@@ -8296,7 +8303,7 @@
         <v>918</v>
       </c>
       <c r="D309" s="20"/>
-      <c r="E309" s="29"/>
+      <c r="E309" s="31"/>
     </row>
     <row r="310" customHeight="1" spans="2:5">
       <c r="B310" s="19" t="s">
@@ -8306,7 +8313,7 @@
         <v>920</v>
       </c>
       <c r="D310" s="20"/>
-      <c r="E310" s="29"/>
+      <c r="E310" s="31"/>
     </row>
     <row r="311" customHeight="1" spans="2:5">
       <c r="B311" s="19" t="s">
@@ -8316,7 +8323,7 @@
         <v>922</v>
       </c>
       <c r="D311" s="20"/>
-      <c r="E311" s="29"/>
+      <c r="E311" s="31"/>
     </row>
     <row r="312" customHeight="1" spans="2:5">
       <c r="B312" s="19" t="s">
@@ -8326,7 +8333,7 @@
         <v>924</v>
       </c>
       <c r="D312" s="20"/>
-      <c r="E312" s="29"/>
+      <c r="E312" s="31"/>
     </row>
     <row r="313" customHeight="1" spans="2:5">
       <c r="B313" s="19" t="s">
@@ -8336,7 +8343,7 @@
         <v>926</v>
       </c>
       <c r="D313" s="20"/>
-      <c r="E313" s="29"/>
+      <c r="E313" s="31"/>
     </row>
     <row r="314" customHeight="1" spans="2:5">
       <c r="B314" s="19" t="s">
@@ -8346,7 +8353,7 @@
         <v>928</v>
       </c>
       <c r="D314" s="20"/>
-      <c r="E314" s="29"/>
+      <c r="E314" s="31"/>
     </row>
     <row r="315" customHeight="1" spans="2:5">
       <c r="B315" s="19" t="s">
@@ -8356,7 +8363,7 @@
         <v>930</v>
       </c>
       <c r="D315" s="20"/>
-      <c r="E315" s="29"/>
+      <c r="E315" s="31"/>
     </row>
     <row r="316" customHeight="1" spans="2:5">
       <c r="B316" s="19" t="s">
@@ -8366,7 +8373,7 @@
         <v>932</v>
       </c>
       <c r="D316" s="20"/>
-      <c r="E316" s="29"/>
+      <c r="E316" s="31"/>
     </row>
     <row r="317" customHeight="1" spans="2:5">
       <c r="B317" s="19" t="s">
@@ -8376,7 +8383,7 @@
         <v>934</v>
       </c>
       <c r="D317" s="20"/>
-      <c r="E317" s="29"/>
+      <c r="E317" s="31"/>
     </row>
     <row r="318" customHeight="1" spans="2:5">
       <c r="B318" s="19" t="s">
@@ -8386,7 +8393,7 @@
         <v>936</v>
       </c>
       <c r="D318" s="20"/>
-      <c r="E318" s="29"/>
+      <c r="E318" s="31"/>
     </row>
     <row r="319" customHeight="1" spans="2:5">
       <c r="B319" s="19" t="s">
@@ -8394,7 +8401,7 @@
       </c>
       <c r="C319" s="20"/>
       <c r="D319" s="20"/>
-      <c r="E319" s="29"/>
+      <c r="E319" s="31"/>
     </row>
     <row r="320" customHeight="1" spans="2:5">
       <c r="B320" s="19" t="s">
@@ -8402,7 +8409,7 @@
       </c>
       <c r="C320" s="20"/>
       <c r="D320" s="20"/>
-      <c r="E320" s="29"/>
+      <c r="E320" s="31"/>
     </row>
     <row r="321" customHeight="1" spans="2:5">
       <c r="B321" s="19" t="s">
@@ -8410,7 +8417,7 @@
       </c>
       <c r="C321" s="20"/>
       <c r="D321" s="20"/>
-      <c r="E321" s="29"/>
+      <c r="E321" s="31"/>
     </row>
     <row r="322" customHeight="1" spans="2:5">
       <c r="B322" s="19" t="s">
@@ -8418,7 +8425,7 @@
       </c>
       <c r="C322" s="20"/>
       <c r="D322" s="20"/>
-      <c r="E322" s="29"/>
+      <c r="E322" s="31"/>
     </row>
     <row r="323" customHeight="1" spans="2:5">
       <c r="B323" s="19" t="s">
@@ -8426,7 +8433,7 @@
       </c>
       <c r="C323" s="20"/>
       <c r="D323" s="20"/>
-      <c r="E323" s="29"/>
+      <c r="E323" s="31"/>
     </row>
     <row r="324" customHeight="1" spans="2:5">
       <c r="B324" s="19" t="s">
@@ -8434,7 +8441,7 @@
       </c>
       <c r="C324" s="20"/>
       <c r="D324" s="20"/>
-      <c r="E324" s="29"/>
+      <c r="E324" s="31"/>
     </row>
     <row r="325" customHeight="1" spans="2:5">
       <c r="B325" s="19" t="s">
@@ -8442,7 +8449,7 @@
       </c>
       <c r="C325" s="20"/>
       <c r="D325" s="20"/>
-      <c r="E325" s="29"/>
+      <c r="E325" s="31"/>
     </row>
     <row r="326" customHeight="1" spans="2:5">
       <c r="B326" s="19" t="s">
@@ -8450,7 +8457,7 @@
       </c>
       <c r="C326" s="20"/>
       <c r="D326" s="20"/>
-      <c r="E326" s="29"/>
+      <c r="E326" s="31"/>
     </row>
     <row r="327" customHeight="1" spans="2:5">
       <c r="B327" s="19" t="s">
@@ -8458,7 +8465,7 @@
       </c>
       <c r="C327" s="20"/>
       <c r="D327" s="20"/>
-      <c r="E327" s="29"/>
+      <c r="E327" s="31"/>
     </row>
     <row r="328" customHeight="1" spans="2:5">
       <c r="B328" s="19" t="s">
@@ -8466,7 +8473,7 @@
       </c>
       <c r="C328" s="20"/>
       <c r="D328" s="20"/>
-      <c r="E328" s="29"/>
+      <c r="E328" s="31"/>
     </row>
     <row r="329" customHeight="1" spans="2:5">
       <c r="B329" s="19" t="s">
@@ -8474,7 +8481,7 @@
       </c>
       <c r="C329" s="20"/>
       <c r="D329" s="20"/>
-      <c r="E329" s="29"/>
+      <c r="E329" s="31"/>
     </row>
     <row r="330" customHeight="1" spans="2:5">
       <c r="B330" s="19" t="s">
@@ -8482,7 +8489,7 @@
       </c>
       <c r="C330" s="20"/>
       <c r="D330" s="20"/>
-      <c r="E330" s="29"/>
+      <c r="E330" s="31"/>
     </row>
     <row r="331" customHeight="1" spans="2:5">
       <c r="B331" s="19" t="s">
@@ -8490,7 +8497,7 @@
       </c>
       <c r="C331" s="20"/>
       <c r="D331" s="20"/>
-      <c r="E331" s="29"/>
+      <c r="E331" s="31"/>
     </row>
     <row r="332" customHeight="1" spans="2:5">
       <c r="B332" s="19" t="s">
@@ -8498,7 +8505,7 @@
       </c>
       <c r="C332" s="20"/>
       <c r="D332" s="20"/>
-      <c r="E332" s="29"/>
+      <c r="E332" s="31"/>
     </row>
     <row r="333" customHeight="1" spans="2:5">
       <c r="B333" s="19" t="s">
@@ -8506,7 +8513,7 @@
       </c>
       <c r="C333" s="20"/>
       <c r="D333" s="20"/>
-      <c r="E333" s="29"/>
+      <c r="E333" s="31"/>
     </row>
     <row r="334" customHeight="1" spans="2:5">
       <c r="B334" s="19" t="s">
@@ -8514,7 +8521,7 @@
       </c>
       <c r="C334" s="20"/>
       <c r="D334" s="20"/>
-      <c r="E334" s="29"/>
+      <c r="E334" s="31"/>
     </row>
     <row r="335" customHeight="1" spans="2:5">
       <c r="B335" s="19" t="s">
@@ -8522,7 +8529,7 @@
       </c>
       <c r="C335" s="20"/>
       <c r="D335" s="20"/>
-      <c r="E335" s="29"/>
+      <c r="E335" s="31"/>
     </row>
     <row r="336" customHeight="1" spans="2:5">
       <c r="B336" s="19" t="s">
@@ -8530,7 +8537,7 @@
       </c>
       <c r="C336" s="20"/>
       <c r="D336" s="20"/>
-      <c r="E336" s="29"/>
+      <c r="E336" s="31"/>
     </row>
     <row r="337" customHeight="1" spans="2:5">
       <c r="B337" s="19" t="s">
@@ -8538,7 +8545,7 @@
       </c>
       <c r="C337" s="20"/>
       <c r="D337" s="20"/>
-      <c r="E337" s="29"/>
+      <c r="E337" s="31"/>
     </row>
     <row r="338" customHeight="1" spans="2:5">
       <c r="B338" s="19" t="s">
@@ -8546,7 +8553,7 @@
       </c>
       <c r="C338" s="20"/>
       <c r="D338" s="20"/>
-      <c r="E338" s="29"/>
+      <c r="E338" s="31"/>
     </row>
     <row r="339" customHeight="1" spans="2:5">
       <c r="B339" s="19" t="s">
@@ -8554,7 +8561,7 @@
       </c>
       <c r="C339" s="20"/>
       <c r="D339" s="20"/>
-      <c r="E339" s="29"/>
+      <c r="E339" s="31"/>
     </row>
     <row r="340" customHeight="1" spans="2:5">
       <c r="B340" s="19" t="s">
@@ -8562,7 +8569,7 @@
       </c>
       <c r="C340" s="20"/>
       <c r="D340" s="20"/>
-      <c r="E340" s="29"/>
+      <c r="E340" s="31"/>
     </row>
     <row r="341" customHeight="1" spans="2:5">
       <c r="B341" s="19" t="s">
@@ -8570,7 +8577,7 @@
       </c>
       <c r="C341" s="20"/>
       <c r="D341" s="20"/>
-      <c r="E341" s="29"/>
+      <c r="E341" s="31"/>
     </row>
     <row r="342" customHeight="1" spans="2:5">
       <c r="B342" s="19" t="s">
@@ -8578,7 +8585,7 @@
       </c>
       <c r="C342" s="20"/>
       <c r="D342" s="20"/>
-      <c r="E342" s="29"/>
+      <c r="E342" s="31"/>
     </row>
     <row r="343" customHeight="1" spans="2:5">
       <c r="B343" s="19" t="s">
@@ -8586,7 +8593,7 @@
       </c>
       <c r="C343" s="20"/>
       <c r="D343" s="20"/>
-      <c r="E343" s="29"/>
+      <c r="E343" s="31"/>
     </row>
     <row r="344" customHeight="1" spans="2:5">
       <c r="B344" s="19" t="s">
@@ -8594,7 +8601,7 @@
       </c>
       <c r="C344" s="20"/>
       <c r="D344" s="20"/>
-      <c r="E344" s="29"/>
+      <c r="E344" s="31"/>
     </row>
     <row r="345" customHeight="1" spans="2:5">
       <c r="B345" s="19" t="s">
@@ -8602,7 +8609,7 @@
       </c>
       <c r="C345" s="20"/>
       <c r="D345" s="20"/>
-      <c r="E345" s="29"/>
+      <c r="E345" s="31"/>
     </row>
     <row r="346" customHeight="1" spans="2:5">
       <c r="B346" s="19" t="s">
@@ -8610,7 +8617,7 @@
       </c>
       <c r="C346" s="20"/>
       <c r="D346" s="20"/>
-      <c r="E346" s="29"/>
+      <c r="E346" s="31"/>
     </row>
     <row r="347" customHeight="1" spans="2:5">
       <c r="B347" s="19" t="s">
@@ -8618,7 +8625,7 @@
       </c>
       <c r="C347" s="20"/>
       <c r="D347" s="20"/>
-      <c r="E347" s="29"/>
+      <c r="E347" s="31"/>
     </row>
     <row r="348" customHeight="1" spans="2:5">
       <c r="B348" s="19" t="s">
@@ -8626,7 +8633,7 @@
       </c>
       <c r="C348" s="20"/>
       <c r="D348" s="20"/>
-      <c r="E348" s="29"/>
+      <c r="E348" s="31"/>
     </row>
     <row r="349" customHeight="1" spans="2:5">
       <c r="B349" s="19" t="s">
@@ -8634,7 +8641,7 @@
       </c>
       <c r="C349" s="20"/>
       <c r="D349" s="20"/>
-      <c r="E349" s="29"/>
+      <c r="E349" s="31"/>
     </row>
     <row r="350" customHeight="1" spans="2:5">
       <c r="B350" s="19" t="s">
@@ -8642,7 +8649,7 @@
       </c>
       <c r="C350" s="20"/>
       <c r="D350" s="20"/>
-      <c r="E350" s="29"/>
+      <c r="E350" s="31"/>
     </row>
     <row r="351" customHeight="1" spans="2:5">
       <c r="B351" s="19" t="s">
@@ -8650,7 +8657,7 @@
       </c>
       <c r="C351" s="20"/>
       <c r="D351" s="20"/>
-      <c r="E351" s="29"/>
+      <c r="E351" s="31"/>
     </row>
     <row r="352" customHeight="1" spans="2:5">
       <c r="B352" s="19" t="s">
@@ -8658,7 +8665,7 @@
       </c>
       <c r="C352" s="20"/>
       <c r="D352" s="20"/>
-      <c r="E352" s="29"/>
+      <c r="E352" s="31"/>
     </row>
     <row r="353" customHeight="1" spans="2:5">
       <c r="B353" s="19" t="s">
@@ -8666,7 +8673,7 @@
       </c>
       <c r="C353" s="20"/>
       <c r="D353" s="20"/>
-      <c r="E353" s="29"/>
+      <c r="E353" s="31"/>
     </row>
     <row r="354" customHeight="1" spans="2:5">
       <c r="B354" s="19" t="s">
@@ -8674,7 +8681,7 @@
       </c>
       <c r="C354" s="20"/>
       <c r="D354" s="20"/>
-      <c r="E354" s="29"/>
+      <c r="E354" s="31"/>
     </row>
     <row r="355" customHeight="1" spans="2:5">
       <c r="B355" s="19" t="s">
@@ -8682,7 +8689,7 @@
       </c>
       <c r="C355" s="20"/>
       <c r="D355" s="20"/>
-      <c r="E355" s="29"/>
+      <c r="E355" s="31"/>
     </row>
     <row r="356" customHeight="1" spans="2:5">
       <c r="B356" s="19" t="s">
@@ -8690,7 +8697,7 @@
       </c>
       <c r="C356" s="20"/>
       <c r="D356" s="20"/>
-      <c r="E356" s="29"/>
+      <c r="E356" s="31"/>
     </row>
     <row r="357" customHeight="1" spans="2:5">
       <c r="B357" s="19" t="s">
@@ -8698,7 +8705,7 @@
       </c>
       <c r="C357" s="20"/>
       <c r="D357" s="20"/>
-      <c r="E357" s="29"/>
+      <c r="E357" s="31"/>
     </row>
     <row r="358" customHeight="1" spans="2:5">
       <c r="B358" s="19" t="s">
@@ -8706,7 +8713,7 @@
       </c>
       <c r="C358" s="20"/>
       <c r="D358" s="20"/>
-      <c r="E358" s="29"/>
+      <c r="E358" s="31"/>
     </row>
     <row r="359" customHeight="1" spans="2:5">
       <c r="B359" s="19" t="s">
@@ -8714,7 +8721,7 @@
       </c>
       <c r="C359" s="20"/>
       <c r="D359" s="20"/>
-      <c r="E359" s="29"/>
+      <c r="E359" s="31"/>
     </row>
     <row r="360" customHeight="1" spans="2:5">
       <c r="B360" s="19" t="s">
@@ -8722,7 +8729,7 @@
       </c>
       <c r="C360" s="20"/>
       <c r="D360" s="20"/>
-      <c r="E360" s="29"/>
+      <c r="E360" s="31"/>
     </row>
     <row r="361" customHeight="1" spans="2:5">
       <c r="B361" s="19" t="s">
@@ -8730,19 +8737,19 @@
       </c>
       <c r="C361" s="20"/>
       <c r="D361" s="20"/>
-      <c r="E361" s="29"/>
+      <c r="E361" s="31"/>
     </row>
     <row r="362" customHeight="1" spans="2:5">
-      <c r="B362" s="32"/>
-      <c r="C362" s="33"/>
-      <c r="D362" s="33"/>
-      <c r="E362" s="35"/>
+      <c r="B362" s="34"/>
+      <c r="C362" s="35"/>
+      <c r="D362" s="35"/>
+      <c r="E362" s="37"/>
     </row>
     <row r="363" customHeight="1" spans="2:5">
-      <c r="B363" s="34"/>
-      <c r="C363" s="34"/>
-      <c r="D363" s="34"/>
-      <c r="E363" s="34"/>
+      <c r="B363" s="36"/>
+      <c r="C363" s="36"/>
+      <c r="D363" s="36"/>
+      <c r="E363" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/books_courses.xlsx
+++ b/books_courses.xlsx
@@ -3034,10 +3034,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -3094,14 +3094,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -3117,24 +3109,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3147,39 +3123,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -3195,14 +3147,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3216,7 +3192,31 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -3274,7 +3274,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3286,13 +3310,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3304,7 +3328,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3316,7 +3346,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3328,97 +3442,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3430,31 +3454,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3763,6 +3763,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -3784,13 +3793,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3806,21 +3819,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3842,9 +3840,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3852,150 +3852,150 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4457,8 +4457,8 @@
   <sheetPr/>
   <dimension ref="B1:E363"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="121" customHeight="1" outlineLevelCol="4"/>
@@ -4683,7 +4683,7 @@
       <c r="D18" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="29" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4697,7 +4697,7 @@
       <c r="D19" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="29" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4711,7 +4711,7 @@
       <c r="D20" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="29" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4725,7 +4725,7 @@
       <c r="D21" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="29" t="s">
         <v>61</v>
       </c>
     </row>
